--- a/Rozklad.xlsx
+++ b/Rozklad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Scheduler\bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F59536-711E-42A2-B7B2-B841880A3F64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522E2ED7-0267-4AAD-8D86-DDE7DEBB77A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="12036" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2388" yWindow="276" windowWidth="17280" windowHeight="12036" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 курс" sheetId="12" r:id="rId1"/>
@@ -4375,90 +4375,138 @@
     <xf numFmtId="0" fontId="37" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4468,21 +4516,6 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4492,52 +4525,19 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4597,6 +4597,189 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -4627,223 +4810,37 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4858,121 +4855,40 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4981,18 +4897,198 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5005,200 +5101,89 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
@@ -5208,6 +5193,33 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5232,58 +5244,97 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5292,12 +5343,42 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5313,15 +5394,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5331,106 +5403,22 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5451,10 +5439,22 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5801,8 +5801,8 @@
   </sheetPr>
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F20" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="F15" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6935,22 +6935,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="565" t="s">
+      <c r="A1" s="583" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="565"/>
-      <c r="C1" s="565"/>
-      <c r="D1" s="565"/>
-      <c r="E1" s="565"/>
-      <c r="F1" s="565"/>
-      <c r="G1" s="565"/>
-      <c r="H1" s="565"/>
-      <c r="I1" s="565"/>
-      <c r="J1" s="565"/>
-      <c r="K1" s="565"/>
-      <c r="L1" s="565"/>
-      <c r="M1" s="565"/>
-      <c r="N1" s="565"/>
+      <c r="B1" s="583"/>
+      <c r="C1" s="583"/>
+      <c r="D1" s="583"/>
+      <c r="E1" s="583"/>
+      <c r="F1" s="583"/>
+      <c r="G1" s="583"/>
+      <c r="H1" s="583"/>
+      <c r="I1" s="583"/>
+      <c r="J1" s="583"/>
+      <c r="K1" s="583"/>
+      <c r="L1" s="583"/>
+      <c r="M1" s="583"/>
+      <c r="N1" s="583"/>
       <c r="O1" s="2"/>
     </row>
     <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6971,10 +6971,10 @@
       <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:18" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="588" t="s">
+      <c r="A3" s="567" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="589"/>
+      <c r="B3" s="568"/>
       <c r="C3" s="164">
         <v>1</v>
       </c>
@@ -7023,8 +7023,8 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="568"/>
-      <c r="B4" s="569"/>
+      <c r="A4" s="584"/>
+      <c r="B4" s="585"/>
       <c r="C4" s="175">
         <v>11</v>
       </c>
@@ -7073,7 +7073,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="34.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="570" t="s">
+      <c r="A5" s="586" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="57" t="s">
@@ -7095,101 +7095,101 @@
       <c r="P5" s="16"/>
     </row>
     <row r="6" spans="1:18" s="12" customFormat="1" ht="42.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="571"/>
+      <c r="A6" s="546"/>
       <c r="B6" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="576" t="s">
+      <c r="C6" s="587" t="s">
         <v>132</v>
       </c>
-      <c r="D6" s="577"/>
-      <c r="E6" s="577"/>
-      <c r="F6" s="577"/>
-      <c r="G6" s="577"/>
-      <c r="H6" s="577"/>
-      <c r="I6" s="578"/>
-      <c r="J6" s="582" t="s">
+      <c r="D6" s="588"/>
+      <c r="E6" s="588"/>
+      <c r="F6" s="588"/>
+      <c r="G6" s="588"/>
+      <c r="H6" s="588"/>
+      <c r="I6" s="589"/>
+      <c r="J6" s="578" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="583"/>
-      <c r="L6" s="583"/>
-      <c r="M6" s="583"/>
-      <c r="N6" s="583"/>
-      <c r="O6" s="584"/>
+      <c r="K6" s="579"/>
+      <c r="L6" s="579"/>
+      <c r="M6" s="579"/>
+      <c r="N6" s="579"/>
+      <c r="O6" s="580"/>
       <c r="P6" s="132"/>
     </row>
     <row r="7" spans="1:18" s="12" customFormat="1" ht="52.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="571"/>
-      <c r="B7" s="542" t="s">
+      <c r="A7" s="546"/>
+      <c r="B7" s="547" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="547" t="s">
+      <c r="C7" s="543" t="s">
         <v>245</v>
       </c>
-      <c r="D7" s="551"/>
-      <c r="E7" s="551"/>
-      <c r="F7" s="551"/>
-      <c r="G7" s="551"/>
-      <c r="H7" s="551"/>
-      <c r="I7" s="548"/>
-      <c r="J7" s="585" t="s">
+      <c r="D7" s="549"/>
+      <c r="E7" s="549"/>
+      <c r="F7" s="549"/>
+      <c r="G7" s="549"/>
+      <c r="H7" s="549"/>
+      <c r="I7" s="544"/>
+      <c r="J7" s="558" t="s">
         <v>367</v>
       </c>
-      <c r="K7" s="586"/>
-      <c r="L7" s="586"/>
-      <c r="M7" s="586"/>
-      <c r="N7" s="586"/>
-      <c r="O7" s="587"/>
+      <c r="K7" s="559"/>
+      <c r="L7" s="559"/>
+      <c r="M7" s="559"/>
+      <c r="N7" s="559"/>
+      <c r="O7" s="560"/>
       <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:18" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="571"/>
-      <c r="B8" s="572"/>
-      <c r="C8" s="585" t="s">
+      <c r="A8" s="546"/>
+      <c r="B8" s="548"/>
+      <c r="C8" s="558" t="s">
         <v>367</v>
       </c>
-      <c r="D8" s="586"/>
-      <c r="E8" s="586"/>
-      <c r="F8" s="586"/>
-      <c r="G8" s="586"/>
-      <c r="H8" s="586"/>
-      <c r="I8" s="587"/>
-      <c r="J8" s="547" t="s">
+      <c r="D8" s="559"/>
+      <c r="E8" s="559"/>
+      <c r="F8" s="559"/>
+      <c r="G8" s="559"/>
+      <c r="H8" s="559"/>
+      <c r="I8" s="560"/>
+      <c r="J8" s="543" t="s">
         <v>246</v>
       </c>
-      <c r="K8" s="551"/>
-      <c r="L8" s="551"/>
-      <c r="M8" s="551"/>
-      <c r="N8" s="551"/>
-      <c r="O8" s="551"/>
+      <c r="K8" s="549"/>
+      <c r="L8" s="549"/>
+      <c r="M8" s="549"/>
+      <c r="N8" s="549"/>
+      <c r="O8" s="549"/>
       <c r="P8" s="165"/>
     </row>
     <row r="9" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="571"/>
+      <c r="A9" s="546"/>
       <c r="B9" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="579" t="s">
+      <c r="C9" s="561" t="s">
         <v>348</v>
       </c>
-      <c r="D9" s="580"/>
-      <c r="E9" s="580"/>
-      <c r="F9" s="580"/>
-      <c r="G9" s="580"/>
-      <c r="H9" s="580"/>
-      <c r="I9" s="581"/>
-      <c r="J9" s="573" t="s">
+      <c r="D9" s="562"/>
+      <c r="E9" s="562"/>
+      <c r="F9" s="562"/>
+      <c r="G9" s="562"/>
+      <c r="H9" s="562"/>
+      <c r="I9" s="563"/>
+      <c r="J9" s="564" t="s">
         <v>411</v>
       </c>
-      <c r="K9" s="574"/>
-      <c r="L9" s="574"/>
-      <c r="M9" s="574"/>
-      <c r="N9" s="574"/>
-      <c r="O9" s="575"/>
+      <c r="K9" s="565"/>
+      <c r="L9" s="565"/>
+      <c r="M9" s="565"/>
+      <c r="N9" s="565"/>
+      <c r="O9" s="566"/>
       <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:18" ht="43.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="571"/>
+      <c r="A10" s="546"/>
       <c r="B10" s="59" t="s">
         <v>27</v>
       </c>
@@ -7208,7 +7208,7 @@
       <c r="O10" s="136"/>
     </row>
     <row r="11" spans="1:18" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="566" t="s">
+      <c r="A11" s="576" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="167" t="s">
@@ -7229,55 +7229,55 @@
       <c r="O11" s="144"/>
     </row>
     <row r="12" spans="1:18" s="45" customFormat="1" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="567"/>
+      <c r="A12" s="577"/>
       <c r="B12" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="573" t="s">
+      <c r="C12" s="564" t="s">
         <v>412</v>
       </c>
-      <c r="D12" s="574"/>
-      <c r="E12" s="574"/>
-      <c r="F12" s="574"/>
-      <c r="G12" s="574"/>
-      <c r="H12" s="574"/>
-      <c r="I12" s="575"/>
-      <c r="J12" s="579" t="s">
+      <c r="D12" s="565"/>
+      <c r="E12" s="565"/>
+      <c r="F12" s="565"/>
+      <c r="G12" s="565"/>
+      <c r="H12" s="565"/>
+      <c r="I12" s="566"/>
+      <c r="J12" s="561" t="s">
         <v>348</v>
       </c>
-      <c r="K12" s="580"/>
-      <c r="L12" s="580"/>
-      <c r="M12" s="580"/>
-      <c r="N12" s="580"/>
-      <c r="O12" s="580"/>
-      <c r="P12" s="581"/>
+      <c r="K12" s="562"/>
+      <c r="L12" s="562"/>
+      <c r="M12" s="562"/>
+      <c r="N12" s="562"/>
+      <c r="O12" s="562"/>
+      <c r="P12" s="563"/>
     </row>
     <row r="13" spans="1:18" ht="59.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="567"/>
+      <c r="A13" s="577"/>
       <c r="B13" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="582" t="s">
+      <c r="C13" s="578" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="583"/>
-      <c r="E13" s="583"/>
-      <c r="F13" s="583"/>
-      <c r="G13" s="583"/>
-      <c r="H13" s="583"/>
-      <c r="I13" s="584"/>
-      <c r="J13" s="576" t="s">
+      <c r="D13" s="579"/>
+      <c r="E13" s="579"/>
+      <c r="F13" s="579"/>
+      <c r="G13" s="579"/>
+      <c r="H13" s="579"/>
+      <c r="I13" s="580"/>
+      <c r="J13" s="587" t="s">
         <v>309</v>
       </c>
-      <c r="K13" s="577"/>
-      <c r="L13" s="577"/>
-      <c r="M13" s="577"/>
-      <c r="N13" s="577"/>
-      <c r="O13" s="577"/>
-      <c r="P13" s="578"/>
+      <c r="K13" s="588"/>
+      <c r="L13" s="588"/>
+      <c r="M13" s="588"/>
+      <c r="N13" s="588"/>
+      <c r="O13" s="588"/>
+      <c r="P13" s="589"/>
     </row>
     <row r="14" spans="1:18" ht="54" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="567"/>
+      <c r="A14" s="577"/>
       <c r="B14" s="59" t="s">
         <v>26</v>
       </c>
@@ -7296,8 +7296,8 @@
       <c r="O14" s="161"/>
     </row>
     <row r="15" spans="1:18" s="45" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="567"/>
-      <c r="B15" s="542" t="s">
+      <c r="A15" s="577"/>
+      <c r="B15" s="547" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="139"/>
@@ -7315,8 +7315,8 @@
       <c r="O15" s="161"/>
     </row>
     <row r="16" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="567"/>
-      <c r="B16" s="543"/>
+      <c r="A16" s="577"/>
+      <c r="B16" s="569"/>
       <c r="C16" s="134"/>
       <c r="D16" s="134"/>
       <c r="E16" s="161"/>
@@ -7332,7 +7332,7 @@
       <c r="O16" s="140"/>
     </row>
     <row r="17" spans="1:16" ht="0.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="567"/>
+      <c r="A17" s="577"/>
       <c r="B17" s="59" t="s">
         <v>27</v>
       </c>
@@ -7352,7 +7352,7 @@
       <c r="P17" s="13"/>
     </row>
     <row r="18" spans="1:16" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="567"/>
+      <c r="A18" s="577"/>
       <c r="B18" s="63"/>
       <c r="C18" s="142"/>
       <c r="D18" s="142"/>
@@ -7369,7 +7369,7 @@
       <c r="O18" s="143"/>
     </row>
     <row r="19" spans="1:16" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="566" t="s">
+      <c r="A19" s="576" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="57" t="s">
@@ -7406,33 +7406,33 @@
       </c>
     </row>
     <row r="20" spans="1:16" s="45" customFormat="1" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="567"/>
-      <c r="B20" s="542" t="s">
+      <c r="A20" s="577"/>
+      <c r="B20" s="547" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="558" t="s">
+      <c r="C20" s="570" t="s">
         <v>310</v>
       </c>
-      <c r="D20" s="558" t="s">
+      <c r="D20" s="570" t="s">
         <v>312</v>
       </c>
-      <c r="E20" s="540" t="s">
+      <c r="E20" s="556" t="s">
         <v>351</v>
       </c>
-      <c r="F20" s="540" t="s">
+      <c r="F20" s="556" t="s">
         <v>352</v>
       </c>
-      <c r="G20" s="560" t="s">
+      <c r="G20" s="542" t="s">
         <v>42</v>
       </c>
-      <c r="H20" s="549" t="s">
+      <c r="H20" s="540" t="s">
         <v>42</v>
       </c>
       <c r="I20" s="135"/>
-      <c r="J20" s="562" t="s">
+      <c r="J20" s="554" t="s">
         <v>367</v>
       </c>
-      <c r="K20" s="562" t="s">
+      <c r="K20" s="554" t="s">
         <v>370</v>
       </c>
       <c r="L20" s="146" t="s">
@@ -7441,51 +7441,51 @@
       <c r="M20" s="146" t="s">
         <v>248</v>
       </c>
-      <c r="N20" s="545" t="s">
+      <c r="N20" s="572" t="s">
         <v>415</v>
       </c>
-      <c r="O20" s="545" t="s">
+      <c r="O20" s="572" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="12" customFormat="1" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="567"/>
-      <c r="B21" s="543"/>
-      <c r="C21" s="559"/>
-      <c r="D21" s="559"/>
-      <c r="E21" s="541"/>
-      <c r="F21" s="541"/>
-      <c r="G21" s="550"/>
-      <c r="H21" s="550"/>
+      <c r="A21" s="577"/>
+      <c r="B21" s="569"/>
+      <c r="C21" s="571"/>
+      <c r="D21" s="571"/>
+      <c r="E21" s="581"/>
+      <c r="F21" s="581"/>
+      <c r="G21" s="541"/>
+      <c r="H21" s="541"/>
       <c r="I21" s="161"/>
-      <c r="J21" s="563"/>
-      <c r="K21" s="563"/>
+      <c r="J21" s="582"/>
+      <c r="K21" s="582"/>
       <c r="L21" s="146"/>
       <c r="M21" s="146"/>
-      <c r="N21" s="546"/>
-      <c r="O21" s="546"/>
+      <c r="N21" s="573"/>
+      <c r="O21" s="573"/>
     </row>
     <row r="22" spans="1:16" s="12" customFormat="1" ht="66.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="567"/>
+      <c r="A22" s="577"/>
       <c r="B22" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="549" t="s">
+      <c r="C22" s="540" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="549" t="s">
+      <c r="D22" s="540" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="545" t="s">
+      <c r="E22" s="572" t="s">
         <v>416</v>
       </c>
-      <c r="F22" s="545" t="s">
+      <c r="F22" s="572" t="s">
         <v>417</v>
       </c>
-      <c r="G22" s="558" t="s">
+      <c r="G22" s="570" t="s">
         <v>310</v>
       </c>
-      <c r="H22" s="558" t="s">
+      <c r="H22" s="570" t="s">
         <v>312</v>
       </c>
       <c r="I22" s="334"/>
@@ -7495,29 +7495,29 @@
       <c r="K22" s="134" t="s">
         <v>247</v>
       </c>
-      <c r="L22" s="540" t="s">
+      <c r="L22" s="556" t="s">
         <v>371</v>
       </c>
-      <c r="M22" s="540" t="s">
+      <c r="M22" s="556" t="s">
         <v>372</v>
       </c>
       <c r="N22" s="334"/>
       <c r="O22" s="334"/>
     </row>
     <row r="23" spans="1:16" s="45" customFormat="1" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="567"/>
+      <c r="A23" s="577"/>
       <c r="B23" s="61"/>
-      <c r="C23" s="550"/>
-      <c r="D23" s="550"/>
-      <c r="E23" s="546"/>
-      <c r="F23" s="546"/>
-      <c r="G23" s="559"/>
-      <c r="H23" s="559"/>
+      <c r="C23" s="541"/>
+      <c r="D23" s="541"/>
+      <c r="E23" s="573"/>
+      <c r="F23" s="573"/>
+      <c r="G23" s="571"/>
+      <c r="H23" s="571"/>
       <c r="I23" s="334"/>
       <c r="J23" s="146"/>
       <c r="K23" s="146"/>
-      <c r="L23" s="541"/>
-      <c r="M23" s="541"/>
+      <c r="L23" s="581"/>
+      <c r="M23" s="581"/>
       <c r="N23" s="134" t="s">
         <v>250</v>
       </c>
@@ -7526,7 +7526,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" s="12" customFormat="1" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="567"/>
+      <c r="A24" s="577"/>
       <c r="B24" s="70" t="s">
         <v>26</v>
       </c>
@@ -7555,7 +7555,7 @@
       <c r="O24" s="161"/>
     </row>
     <row r="25" spans="1:16" ht="73.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="567"/>
+      <c r="A25" s="577"/>
       <c r="B25" s="59" t="s">
         <v>27</v>
       </c>
@@ -7576,7 +7576,7 @@
       <c r="O25" s="134"/>
     </row>
     <row r="26" spans="1:16" ht="67.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="567"/>
+      <c r="A26" s="577"/>
       <c r="B26" s="60" t="s">
         <v>28</v>
       </c>
@@ -7597,7 +7597,7 @@
       <c r="O26" s="161"/>
     </row>
     <row r="27" spans="1:16" s="45" customFormat="1" ht="54.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="590" t="s">
+      <c r="A27" s="545" t="s">
         <v>4</v>
       </c>
       <c r="B27" s="78" t="s">
@@ -7618,150 +7618,150 @@
       <c r="O27" s="144"/>
     </row>
     <row r="28" spans="1:16" s="45" customFormat="1" ht="72.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="571"/>
-      <c r="B28" s="542" t="s">
+      <c r="A28" s="546"/>
+      <c r="B28" s="547" t="s">
         <v>24</v>
       </c>
       <c r="C28" s="161"/>
       <c r="D28" s="161"/>
-      <c r="E28" s="552" t="s">
+      <c r="E28" s="550" t="s">
         <v>97</v>
       </c>
-      <c r="F28" s="554"/>
-      <c r="G28" s="552" t="s">
+      <c r="F28" s="551"/>
+      <c r="G28" s="550" t="s">
         <v>355</v>
       </c>
-      <c r="H28" s="554"/>
+      <c r="H28" s="551"/>
       <c r="I28" s="161"/>
       <c r="J28" s="161"/>
-      <c r="K28" s="552" t="s">
+      <c r="K28" s="550" t="s">
         <v>356</v>
       </c>
-      <c r="L28" s="554"/>
-      <c r="M28" s="547" t="s">
+      <c r="L28" s="551"/>
+      <c r="M28" s="543" t="s">
         <v>47</v>
       </c>
-      <c r="N28" s="551"/>
-      <c r="O28" s="548"/>
+      <c r="N28" s="549"/>
+      <c r="O28" s="544"/>
     </row>
     <row r="29" spans="1:16" s="45" customFormat="1" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="571"/>
-      <c r="B29" s="543"/>
+      <c r="A29" s="546"/>
+      <c r="B29" s="569"/>
       <c r="C29" s="161"/>
       <c r="D29" s="161"/>
-      <c r="E29" s="555"/>
-      <c r="F29" s="557"/>
-      <c r="G29" s="555"/>
-      <c r="H29" s="557"/>
-      <c r="I29" s="547" t="s">
+      <c r="E29" s="552"/>
+      <c r="F29" s="553"/>
+      <c r="G29" s="552"/>
+      <c r="H29" s="553"/>
+      <c r="I29" s="543" t="s">
         <v>47</v>
       </c>
-      <c r="J29" s="548"/>
-      <c r="K29" s="555"/>
-      <c r="L29" s="557"/>
+      <c r="J29" s="544"/>
+      <c r="K29" s="552"/>
+      <c r="L29" s="553"/>
       <c r="M29" s="161"/>
       <c r="N29" s="161"/>
       <c r="O29" s="161"/>
       <c r="P29" s="3"/>
     </row>
     <row r="30" spans="1:16" s="45" customFormat="1" ht="66" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="571"/>
-      <c r="B30" s="542" t="s">
+      <c r="A30" s="546"/>
+      <c r="B30" s="547" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="552" t="s">
+      <c r="C30" s="550" t="s">
         <v>355</v>
       </c>
-      <c r="D30" s="554"/>
-      <c r="E30" s="547" t="s">
+      <c r="D30" s="551"/>
+      <c r="E30" s="543" t="s">
         <v>45</v>
       </c>
-      <c r="F30" s="548"/>
+      <c r="F30" s="544"/>
       <c r="G30" s="161"/>
       <c r="H30" s="161"/>
-      <c r="I30" s="552" t="s">
+      <c r="I30" s="550" t="s">
         <v>356</v>
       </c>
-      <c r="J30" s="554"/>
+      <c r="J30" s="551"/>
       <c r="K30" s="161"/>
       <c r="L30" s="161"/>
-      <c r="M30" s="552" t="s">
+      <c r="M30" s="550" t="s">
         <v>96</v>
       </c>
-      <c r="N30" s="553"/>
-      <c r="O30" s="554"/>
+      <c r="N30" s="593"/>
+      <c r="O30" s="551"/>
       <c r="P30" s="35"/>
     </row>
     <row r="31" spans="1:16" s="45" customFormat="1" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="571"/>
-      <c r="B31" s="572"/>
-      <c r="C31" s="555"/>
-      <c r="D31" s="557"/>
+      <c r="A31" s="546"/>
+      <c r="B31" s="548"/>
+      <c r="C31" s="552"/>
+      <c r="D31" s="553"/>
       <c r="E31" s="161"/>
       <c r="F31" s="161"/>
-      <c r="G31" s="547" t="s">
+      <c r="G31" s="543" t="s">
         <v>45</v>
       </c>
-      <c r="H31" s="548"/>
-      <c r="I31" s="555"/>
-      <c r="J31" s="557"/>
-      <c r="K31" s="547" t="s">
+      <c r="H31" s="544"/>
+      <c r="I31" s="552"/>
+      <c r="J31" s="553"/>
+      <c r="K31" s="543" t="s">
         <v>47</v>
       </c>
-      <c r="L31" s="548"/>
-      <c r="M31" s="555"/>
-      <c r="N31" s="556"/>
-      <c r="O31" s="557"/>
+      <c r="L31" s="544"/>
+      <c r="M31" s="552"/>
+      <c r="N31" s="594"/>
+      <c r="O31" s="553"/>
       <c r="P31" s="79"/>
     </row>
     <row r="32" spans="1:16" s="45" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="571"/>
-      <c r="B32" s="592" t="s">
+      <c r="A32" s="546"/>
+      <c r="B32" s="575" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="547" t="s">
+      <c r="C32" s="543" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="551"/>
-      <c r="E32" s="551"/>
-      <c r="F32" s="551"/>
-      <c r="G32" s="551"/>
-      <c r="H32" s="551"/>
-      <c r="I32" s="548"/>
-      <c r="J32" s="547" t="s">
+      <c r="D32" s="549"/>
+      <c r="E32" s="549"/>
+      <c r="F32" s="549"/>
+      <c r="G32" s="549"/>
+      <c r="H32" s="549"/>
+      <c r="I32" s="544"/>
+      <c r="J32" s="543" t="s">
         <v>95</v>
       </c>
-      <c r="K32" s="551"/>
-      <c r="L32" s="551"/>
-      <c r="M32" s="551"/>
-      <c r="N32" s="551"/>
-      <c r="O32" s="548"/>
+      <c r="K32" s="549"/>
+      <c r="L32" s="549"/>
+      <c r="M32" s="549"/>
+      <c r="N32" s="549"/>
+      <c r="O32" s="544"/>
       <c r="P32" s="79"/>
     </row>
     <row r="33" spans="1:15" s="45" customFormat="1" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="571"/>
-      <c r="B33" s="543"/>
-      <c r="C33" s="547" t="s">
+      <c r="A33" s="546"/>
+      <c r="B33" s="569"/>
+      <c r="C33" s="543" t="s">
         <v>95</v>
       </c>
-      <c r="D33" s="551"/>
-      <c r="E33" s="551"/>
-      <c r="F33" s="551"/>
-      <c r="G33" s="551"/>
-      <c r="H33" s="551"/>
-      <c r="I33" s="548"/>
-      <c r="J33" s="547" t="s">
+      <c r="D33" s="549"/>
+      <c r="E33" s="549"/>
+      <c r="F33" s="549"/>
+      <c r="G33" s="549"/>
+      <c r="H33" s="549"/>
+      <c r="I33" s="544"/>
+      <c r="J33" s="543" t="s">
         <v>109</v>
       </c>
-      <c r="K33" s="551"/>
-      <c r="L33" s="551"/>
-      <c r="M33" s="551"/>
-      <c r="N33" s="551"/>
-      <c r="O33" s="548"/>
+      <c r="K33" s="549"/>
+      <c r="L33" s="549"/>
+      <c r="M33" s="549"/>
+      <c r="N33" s="549"/>
+      <c r="O33" s="544"/>
     </row>
     <row r="34" spans="1:15" s="45" customFormat="1" ht="60" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="571"/>
-      <c r="B34" s="542" t="s">
+      <c r="A34" s="546"/>
+      <c r="B34" s="547" t="s">
         <v>27</v>
       </c>
       <c r="C34" s="161"/>
@@ -7779,12 +7779,12 @@
       <c r="O34" s="161"/>
     </row>
     <row r="35" spans="1:15" s="45" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="571"/>
-      <c r="B35" s="543"/>
-      <c r="C35" s="547" t="s">
+      <c r="A35" s="546"/>
+      <c r="B35" s="569"/>
+      <c r="C35" s="543" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="548"/>
+      <c r="D35" s="544"/>
       <c r="E35" s="161"/>
       <c r="F35" s="161"/>
       <c r="G35" s="161"/>
@@ -7798,8 +7798,8 @@
       <c r="O35" s="161"/>
     </row>
     <row r="36" spans="1:15" s="45" customFormat="1" ht="60" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="571"/>
-      <c r="B36" s="591" t="s">
+      <c r="A36" s="546"/>
+      <c r="B36" s="574" t="s">
         <v>46</v>
       </c>
       <c r="C36" s="168"/>
@@ -7817,8 +7817,8 @@
       <c r="O36" s="161"/>
     </row>
     <row r="37" spans="1:15" s="45" customFormat="1" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="571"/>
-      <c r="B37" s="543"/>
+      <c r="A37" s="546"/>
+      <c r="B37" s="569"/>
       <c r="C37" s="102"/>
       <c r="D37" s="102"/>
       <c r="E37" s="102"/>
@@ -7834,7 +7834,7 @@
       <c r="O37" s="102"/>
     </row>
     <row r="38" spans="1:15" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="590" t="s">
+      <c r="A38" s="545" t="s">
         <v>5</v>
       </c>
       <c r="B38" s="57" t="s">
@@ -7873,14 +7873,14 @@
       <c r="O38" s="144"/>
     </row>
     <row r="39" spans="1:15" s="45" customFormat="1" ht="69" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="571"/>
-      <c r="B39" s="542" t="s">
+      <c r="A39" s="546"/>
+      <c r="B39" s="547" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="540" t="s">
+      <c r="C39" s="556" t="s">
         <v>373</v>
       </c>
-      <c r="D39" s="540" t="s">
+      <c r="D39" s="556" t="s">
         <v>374</v>
       </c>
       <c r="E39" s="134" t="s">
@@ -7889,117 +7889,117 @@
       <c r="F39" s="134" t="s">
         <v>250</v>
       </c>
-      <c r="G39" s="545" t="s">
+      <c r="G39" s="572" t="s">
         <v>421</v>
       </c>
-      <c r="H39" s="545" t="s">
+      <c r="H39" s="572" t="s">
         <v>420</v>
       </c>
       <c r="I39" s="135"/>
-      <c r="J39" s="558" t="s">
+      <c r="J39" s="570" t="s">
         <v>313</v>
       </c>
-      <c r="K39" s="558" t="s">
+      <c r="K39" s="570" t="s">
         <v>312</v>
       </c>
-      <c r="L39" s="540" t="s">
+      <c r="L39" s="556" t="s">
         <v>349</v>
       </c>
-      <c r="M39" s="540" t="s">
+      <c r="M39" s="556" t="s">
         <v>350</v>
       </c>
-      <c r="N39" s="560" t="s">
+      <c r="N39" s="542" t="s">
         <v>42</v>
       </c>
-      <c r="O39" s="549" t="s">
+      <c r="O39" s="540" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="571"/>
-      <c r="B40" s="543"/>
-      <c r="C40" s="541"/>
-      <c r="D40" s="541"/>
+      <c r="A40" s="546"/>
+      <c r="B40" s="569"/>
+      <c r="C40" s="581"/>
+      <c r="D40" s="581"/>
       <c r="E40" s="146"/>
       <c r="F40" s="146"/>
-      <c r="G40" s="546"/>
-      <c r="H40" s="546"/>
+      <c r="G40" s="573"/>
+      <c r="H40" s="573"/>
       <c r="I40" s="134" t="s">
         <v>252</v>
       </c>
-      <c r="J40" s="559"/>
-      <c r="K40" s="564"/>
-      <c r="L40" s="541"/>
-      <c r="M40" s="541"/>
-      <c r="N40" s="560"/>
-      <c r="O40" s="560"/>
+      <c r="J40" s="571"/>
+      <c r="K40" s="590"/>
+      <c r="L40" s="581"/>
+      <c r="M40" s="581"/>
+      <c r="N40" s="542"/>
+      <c r="O40" s="542"/>
     </row>
     <row r="41" spans="1:15" s="45" customFormat="1" ht="64.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="571"/>
+      <c r="A41" s="546"/>
       <c r="B41" s="61"/>
       <c r="C41" s="134" t="s">
         <v>253</v>
       </c>
-      <c r="D41" s="540"/>
-      <c r="E41" s="540" t="s">
+      <c r="D41" s="556"/>
+      <c r="E41" s="556" t="s">
         <v>373</v>
       </c>
-      <c r="F41" s="540" t="s">
+      <c r="F41" s="556" t="s">
         <v>374</v>
       </c>
       <c r="G41" s="334"/>
       <c r="H41" s="134" t="s">
         <v>251</v>
       </c>
-      <c r="I41" s="540" t="s">
+      <c r="I41" s="556" t="s">
         <v>352</v>
       </c>
-      <c r="J41" s="560" t="s">
+      <c r="J41" s="542" t="s">
         <v>42</v>
       </c>
-      <c r="K41" s="549" t="s">
+      <c r="K41" s="540" t="s">
         <v>42</v>
       </c>
-      <c r="L41" s="561" t="s">
+      <c r="L41" s="591" t="s">
         <v>421</v>
       </c>
-      <c r="M41" s="561" t="s">
+      <c r="M41" s="591" t="s">
         <v>422</v>
       </c>
-      <c r="N41" s="558" t="s">
+      <c r="N41" s="570" t="s">
         <v>310</v>
       </c>
-      <c r="O41" s="558" t="s">
+      <c r="O41" s="570" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="571"/>
+      <c r="A42" s="546"/>
       <c r="B42" s="61" t="s">
         <v>25</v>
       </c>
       <c r="C42" s="134"/>
-      <c r="D42" s="594"/>
-      <c r="E42" s="541"/>
-      <c r="F42" s="541"/>
+      <c r="D42" s="557"/>
+      <c r="E42" s="581"/>
+      <c r="F42" s="581"/>
       <c r="G42" s="134" t="s">
         <v>253</v>
       </c>
       <c r="H42" s="134"/>
-      <c r="I42" s="544"/>
-      <c r="J42" s="550"/>
-      <c r="K42" s="550"/>
-      <c r="L42" s="546"/>
-      <c r="M42" s="546"/>
-      <c r="N42" s="559"/>
-      <c r="O42" s="559"/>
+      <c r="I42" s="592"/>
+      <c r="J42" s="541"/>
+      <c r="K42" s="541"/>
+      <c r="L42" s="573"/>
+      <c r="M42" s="573"/>
+      <c r="N42" s="571"/>
+      <c r="O42" s="571"/>
     </row>
     <row r="43" spans="1:15" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="571"/>
+      <c r="A43" s="546"/>
       <c r="B43" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="540"/>
+      <c r="C43" s="556"/>
       <c r="D43" s="134" t="s">
         <v>253</v>
       </c>
@@ -8009,9 +8009,9 @@
       <c r="F43" s="322" t="s">
         <v>42</v>
       </c>
-      <c r="G43" s="562"/>
-      <c r="H43" s="562"/>
-      <c r="I43" s="562"/>
+      <c r="G43" s="554"/>
+      <c r="H43" s="554"/>
+      <c r="I43" s="554"/>
       <c r="J43" s="161"/>
       <c r="K43" s="161"/>
       <c r="L43" s="161"/>
@@ -8024,17 +8024,17 @@
       </c>
     </row>
     <row r="44" spans="1:15" ht="33.75" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="571"/>
+      <c r="A44" s="546"/>
       <c r="B44" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="594"/>
+      <c r="C44" s="557"/>
       <c r="D44" s="455"/>
       <c r="E44" s="387"/>
       <c r="F44" s="387"/>
-      <c r="G44" s="593"/>
-      <c r="H44" s="593"/>
-      <c r="I44" s="593"/>
+      <c r="G44" s="555"/>
+      <c r="H44" s="555"/>
+      <c r="I44" s="555"/>
       <c r="J44" s="46"/>
       <c r="K44" s="81"/>
       <c r="L44" s="80"/>
@@ -8135,6 +8135,77 @@
     <row r="121" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="87">
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M30:O31"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G28:H29"/>
+    <mergeCell ref="C33:I33"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="K28:L29"/>
+    <mergeCell ref="J32:O32"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A11:A18"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="J9:O9"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A27:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:I32"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="C13:I13"/>
     <mergeCell ref="K41:K42"/>
     <mergeCell ref="J41:J42"/>
     <mergeCell ref="K31:L31"/>
@@ -8151,77 +8222,6 @@
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="G43:G44"/>
     <mergeCell ref="H43:H44"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A27:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:I32"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A11:A18"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="J9:O9"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="K28:L29"/>
-    <mergeCell ref="J32:O32"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G28:H29"/>
-    <mergeCell ref="C33:I33"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="M30:O31"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="80" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -8292,30 +8292,30 @@
       <c r="B6" s="194" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="585" t="s">
+      <c r="C6" s="558" t="s">
         <v>315</v>
       </c>
-      <c r="D6" s="587"/>
+      <c r="D6" s="560"/>
     </row>
     <row r="7" spans="1:5" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="596"/>
       <c r="B7" s="205" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="582" t="s">
+      <c r="C7" s="578" t="s">
         <v>102</v>
       </c>
-      <c r="D7" s="584"/>
+      <c r="D7" s="580"/>
     </row>
     <row r="8" spans="1:5" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="596"/>
       <c r="B8" s="194" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="547" t="s">
+      <c r="C8" s="543" t="s">
         <v>347</v>
       </c>
-      <c r="D8" s="548"/>
+      <c r="D8" s="544"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8428,10 +8428,10 @@
       <c r="B20" s="609" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="585" t="s">
+      <c r="C20" s="558" t="s">
         <v>254</v>
       </c>
-      <c r="D20" s="587"/>
+      <c r="D20" s="560"/>
     </row>
     <row r="21" spans="1:5" s="185" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="607"/>
@@ -8577,11 +8577,6 @@
     <row r="36" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="B27:B28"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:A9"/>
@@ -8594,6 +8589,11 @@
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="B27:B28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -8646,17 +8646,17 @@
       <c r="N1" s="25"/>
     </row>
     <row r="2" spans="1:29" ht="41.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="673" t="s">
+      <c r="A2" s="650" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="674"/>
+      <c r="B2" s="651"/>
       <c r="C2" s="213" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="614" t="s">
+      <c r="D2" s="675" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="615"/>
+      <c r="E2" s="676"/>
       <c r="F2" s="241" t="s">
         <v>54</v>
       </c>
@@ -8709,10 +8709,10 @@
       <c r="C3" s="198">
         <v>12</v>
       </c>
-      <c r="D3" s="616">
+      <c r="D3" s="677">
         <v>14</v>
       </c>
-      <c r="E3" s="617"/>
+      <c r="E3" s="678"/>
       <c r="F3" s="199">
         <v>12</v>
       </c>
@@ -8766,15 +8766,15 @@
       </c>
     </row>
     <row r="4" spans="1:29" ht="80.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="658" t="s">
+      <c r="A4" s="652" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="171" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="371"/>
-      <c r="D4" s="618"/>
-      <c r="E4" s="619"/>
+      <c r="D4" s="679"/>
+      <c r="E4" s="680"/>
       <c r="F4" s="371"/>
       <c r="G4" s="374" t="s">
         <v>342</v>
@@ -8785,10 +8785,10 @@
       <c r="I4" s="374" t="s">
         <v>400</v>
       </c>
-      <c r="J4" s="618" t="s">
+      <c r="J4" s="679" t="s">
         <v>426</v>
       </c>
-      <c r="K4" s="619"/>
+      <c r="K4" s="680"/>
       <c r="L4" s="374" t="s">
         <v>375</v>
       </c>
@@ -8804,44 +8804,44 @@
     </row>
     <row r="5" spans="1:29" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="528"/>
-      <c r="B5" s="636" t="s">
+      <c r="B5" s="615" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="626" t="s">
+      <c r="C5" s="624" t="s">
         <v>214</v>
       </c>
-      <c r="D5" s="620" t="s">
+      <c r="D5" s="681" t="s">
         <v>215</v>
       </c>
-      <c r="E5" s="621"/>
-      <c r="F5" s="626" t="s">
+      <c r="E5" s="682"/>
+      <c r="F5" s="624" t="s">
         <v>318</v>
       </c>
-      <c r="G5" s="626" t="s">
+      <c r="G5" s="624" t="s">
         <v>342</v>
       </c>
-      <c r="H5" s="626" t="s">
+      <c r="H5" s="624" t="s">
         <v>401</v>
       </c>
-      <c r="I5" s="626" t="s">
+      <c r="I5" s="624" t="s">
         <v>402</v>
       </c>
-      <c r="J5" s="627" t="s">
+      <c r="J5" s="645" t="s">
         <v>427</v>
       </c>
-      <c r="K5" s="627" t="s">
+      <c r="K5" s="645" t="s">
         <v>428</v>
       </c>
-      <c r="L5" s="626" t="s">
+      <c r="L5" s="624" t="s">
         <v>376</v>
       </c>
-      <c r="M5" s="632" t="s">
+      <c r="M5" s="629" t="s">
         <v>84</v>
       </c>
-      <c r="N5" s="626" t="s">
+      <c r="N5" s="624" t="s">
         <v>256</v>
       </c>
-      <c r="O5" s="632" t="s">
+      <c r="O5" s="629" t="s">
         <v>84</v>
       </c>
       <c r="Q5" s="237"/>
@@ -8862,10 +8862,10 @@
     </row>
     <row r="6" spans="1:29" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="528"/>
-      <c r="B6" s="637"/>
+      <c r="B6" s="616"/>
       <c r="C6" s="625"/>
-      <c r="D6" s="622"/>
-      <c r="E6" s="623"/>
+      <c r="D6" s="683"/>
+      <c r="E6" s="684"/>
       <c r="F6" s="625"/>
       <c r="G6" s="625"/>
       <c r="H6" s="625"/>
@@ -8873,11 +8873,11 @@
       <c r="J6" s="625"/>
       <c r="K6" s="625"/>
       <c r="L6" s="625"/>
-      <c r="M6" s="656"/>
+      <c r="M6" s="630"/>
       <c r="N6" s="625"/>
-      <c r="O6" s="656"/>
+      <c r="O6" s="630"/>
       <c r="Q6" s="235"/>
-      <c r="R6" s="651" t="s">
+      <c r="R6" s="664" t="s">
         <v>67</v>
       </c>
       <c r="S6" s="192"/>
@@ -8894,46 +8894,46 @@
     </row>
     <row r="7" spans="1:29" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="528"/>
-      <c r="B7" s="636" t="s">
+      <c r="B7" s="615" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="626" t="s">
+      <c r="C7" s="624" t="s">
         <v>216</v>
       </c>
-      <c r="D7" s="620" t="s">
+      <c r="D7" s="681" t="s">
         <v>217</v>
       </c>
-      <c r="E7" s="621"/>
-      <c r="F7" s="626" t="s">
+      <c r="E7" s="682"/>
+      <c r="F7" s="624" t="s">
         <v>319</v>
       </c>
-      <c r="G7" s="626" t="s">
+      <c r="G7" s="624" t="s">
         <v>342</v>
       </c>
-      <c r="H7" s="626"/>
-      <c r="I7" s="626" t="s">
+      <c r="H7" s="624"/>
+      <c r="I7" s="624" t="s">
         <v>403</v>
       </c>
-      <c r="J7" s="626" t="s">
+      <c r="J7" s="624" t="s">
         <v>429</v>
       </c>
-      <c r="K7" s="626" t="s">
+      <c r="K7" s="624" t="s">
         <v>430</v>
       </c>
-      <c r="L7" s="626" t="s">
+      <c r="L7" s="624" t="s">
         <v>377</v>
       </c>
-      <c r="M7" s="632" t="s">
+      <c r="M7" s="629" t="s">
         <v>84</v>
       </c>
-      <c r="N7" s="626" t="s">
+      <c r="N7" s="624" t="s">
         <v>257</v>
       </c>
-      <c r="O7" s="632" t="s">
+      <c r="O7" s="629" t="s">
         <v>84</v>
       </c>
-      <c r="Q7" s="650"/>
-      <c r="R7" s="652"/>
+      <c r="Q7" s="623"/>
+      <c r="R7" s="665"/>
       <c r="S7" s="192"/>
       <c r="T7" s="235"/>
       <c r="U7" s="235"/>
@@ -8948,10 +8948,10 @@
     </row>
     <row r="8" spans="1:29" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="528"/>
-      <c r="B8" s="659"/>
+      <c r="B8" s="653"/>
       <c r="C8" s="625"/>
-      <c r="D8" s="622"/>
-      <c r="E8" s="623"/>
+      <c r="D8" s="683"/>
+      <c r="E8" s="684"/>
       <c r="F8" s="625"/>
       <c r="G8" s="625"/>
       <c r="H8" s="625"/>
@@ -8959,65 +8959,65 @@
       <c r="J8" s="625"/>
       <c r="K8" s="625"/>
       <c r="L8" s="625"/>
-      <c r="M8" s="656"/>
-      <c r="N8" s="627"/>
-      <c r="O8" s="656"/>
-      <c r="Q8" s="650"/>
+      <c r="M8" s="630"/>
+      <c r="N8" s="645"/>
+      <c r="O8" s="630"/>
+      <c r="Q8" s="623"/>
       <c r="R8" s="192"/>
       <c r="S8" s="192"/>
-      <c r="T8" s="650"/>
-      <c r="U8" s="650"/>
-      <c r="V8" s="650"/>
-      <c r="W8" s="650"/>
-      <c r="X8" s="650"/>
+      <c r="T8" s="623"/>
+      <c r="U8" s="623"/>
+      <c r="V8" s="623"/>
+      <c r="W8" s="623"/>
+      <c r="X8" s="623"/>
       <c r="Y8" s="240"/>
-      <c r="Z8" s="649"/>
-      <c r="AA8" s="649"/>
-      <c r="AB8" s="649"/>
-      <c r="AC8" s="649"/>
+      <c r="Z8" s="614"/>
+      <c r="AA8" s="614"/>
+      <c r="AB8" s="614"/>
+      <c r="AC8" s="614"/>
     </row>
     <row r="9" spans="1:29" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="528"/>
-      <c r="B9" s="660" t="s">
+      <c r="B9" s="654" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="626"/>
-      <c r="D9" s="620" t="s">
+      <c r="C9" s="624"/>
+      <c r="D9" s="681" t="s">
         <v>218</v>
       </c>
-      <c r="E9" s="621"/>
-      <c r="F9" s="626" t="s">
+      <c r="E9" s="682"/>
+      <c r="F9" s="624" t="s">
         <v>320</v>
       </c>
-      <c r="G9" s="626"/>
-      <c r="H9" s="626"/>
-      <c r="I9" s="626"/>
-      <c r="J9" s="626"/>
-      <c r="K9" s="626"/>
-      <c r="L9" s="626"/>
-      <c r="M9" s="654"/>
-      <c r="N9" s="627"/>
-      <c r="O9" s="654"/>
+      <c r="G9" s="624"/>
+      <c r="H9" s="624"/>
+      <c r="I9" s="624"/>
+      <c r="J9" s="624"/>
+      <c r="K9" s="624"/>
+      <c r="L9" s="624"/>
+      <c r="M9" s="637"/>
+      <c r="N9" s="645"/>
+      <c r="O9" s="637"/>
       <c r="Q9" s="192"/>
       <c r="R9" s="192"/>
       <c r="S9" s="192"/>
-      <c r="T9" s="650"/>
-      <c r="U9" s="650"/>
-      <c r="V9" s="650"/>
-      <c r="W9" s="650"/>
-      <c r="X9" s="650"/>
+      <c r="T9" s="623"/>
+      <c r="U9" s="623"/>
+      <c r="V9" s="623"/>
+      <c r="W9" s="623"/>
+      <c r="X9" s="623"/>
       <c r="Y9" s="240"/>
-      <c r="Z9" s="683"/>
-      <c r="AA9" s="649"/>
-      <c r="AB9" s="649"/>
-      <c r="AC9" s="649"/>
+      <c r="Z9" s="631"/>
+      <c r="AA9" s="614"/>
+      <c r="AB9" s="614"/>
+      <c r="AC9" s="614"/>
     </row>
     <row r="10" spans="1:29" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="528"/>
-      <c r="B10" s="637"/>
+      <c r="B10" s="616"/>
       <c r="C10" s="625"/>
-      <c r="D10" s="622"/>
-      <c r="E10" s="623"/>
+      <c r="D10" s="683"/>
+      <c r="E10" s="684"/>
       <c r="F10" s="625"/>
       <c r="G10" s="625"/>
       <c r="H10" s="625"/>
@@ -9025,9 +9025,9 @@
       <c r="J10" s="625"/>
       <c r="K10" s="625"/>
       <c r="L10" s="625"/>
-      <c r="M10" s="655"/>
+      <c r="M10" s="638"/>
       <c r="N10" s="625"/>
-      <c r="O10" s="655"/>
+      <c r="O10" s="638"/>
       <c r="Q10" s="192"/>
       <c r="R10" s="192"/>
       <c r="S10" s="192"/>
@@ -9048,8 +9048,8 @@
         <v>27</v>
       </c>
       <c r="C11" s="372"/>
-      <c r="D11" s="661"/>
-      <c r="E11" s="662"/>
+      <c r="D11" s="656"/>
+      <c r="E11" s="657"/>
       <c r="F11" s="372"/>
       <c r="G11" s="372"/>
       <c r="H11" s="372"/>
@@ -9094,135 +9094,135 @@
       <c r="O12" s="65"/>
     </row>
     <row r="13" spans="1:29" ht="44.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="658" t="s">
+      <c r="A13" s="652" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="636" t="s">
+      <c r="B13" s="615" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="624" t="s">
+      <c r="C13" s="632" t="s">
         <v>219</v>
       </c>
       <c r="D13" s="375"/>
       <c r="E13" s="376"/>
-      <c r="F13" s="624"/>
-      <c r="G13" s="624" t="s">
+      <c r="F13" s="632"/>
+      <c r="G13" s="632" t="s">
         <v>343</v>
       </c>
-      <c r="H13" s="624" t="s">
+      <c r="H13" s="632" t="s">
         <v>404</v>
       </c>
-      <c r="I13" s="624" t="s">
+      <c r="I13" s="632" t="s">
         <v>405</v>
       </c>
-      <c r="J13" s="624" t="s">
+      <c r="J13" s="632" t="s">
         <v>431</v>
       </c>
-      <c r="K13" s="624"/>
-      <c r="L13" s="657" t="s">
+      <c r="K13" s="632"/>
+      <c r="L13" s="648" t="s">
         <v>378</v>
       </c>
-      <c r="M13" s="684" t="s">
+      <c r="M13" s="639" t="s">
         <v>60</v>
       </c>
-      <c r="N13" s="624" t="s">
+      <c r="N13" s="632" t="s">
         <v>258</v>
       </c>
-      <c r="O13" s="632" t="s">
+      <c r="O13" s="629" t="s">
         <v>59</v>
       </c>
-      <c r="P13" s="646"/>
+      <c r="P13" s="666"/>
     </row>
     <row r="14" spans="1:29" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="528"/>
-      <c r="B14" s="637"/>
+      <c r="B14" s="616"/>
       <c r="C14" s="625"/>
       <c r="D14" s="377"/>
       <c r="E14" s="378"/>
       <c r="F14" s="625"/>
-      <c r="G14" s="627"/>
-      <c r="H14" s="627"/>
+      <c r="G14" s="645"/>
+      <c r="H14" s="645"/>
       <c r="I14" s="625"/>
       <c r="J14" s="625"/>
       <c r="K14" s="625"/>
       <c r="L14" s="625"/>
-      <c r="M14" s="655"/>
+      <c r="M14" s="638"/>
       <c r="N14" s="625"/>
-      <c r="O14" s="656"/>
-      <c r="P14" s="646"/>
+      <c r="O14" s="630"/>
+      <c r="P14" s="666"/>
     </row>
     <row r="15" spans="1:29" ht="44.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A15" s="528"/>
-      <c r="B15" s="636" t="s">
+      <c r="B15" s="615" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="627" t="s">
+      <c r="C15" s="645" t="s">
         <v>219</v>
       </c>
-      <c r="D15" s="626" t="s">
+      <c r="D15" s="624" t="s">
         <v>220</v>
       </c>
-      <c r="E15" s="678"/>
-      <c r="F15" s="626"/>
-      <c r="G15" s="626" t="s">
+      <c r="E15" s="643"/>
+      <c r="F15" s="624"/>
+      <c r="G15" s="624" t="s">
         <v>343</v>
       </c>
-      <c r="H15" s="626" t="s">
+      <c r="H15" s="624" t="s">
         <v>404</v>
       </c>
-      <c r="I15" s="626" t="s">
+      <c r="I15" s="624" t="s">
         <v>405</v>
       </c>
-      <c r="J15" s="626" t="s">
+      <c r="J15" s="624" t="s">
         <v>432</v>
       </c>
-      <c r="K15" s="626"/>
-      <c r="L15" s="653" t="s">
+      <c r="K15" s="624"/>
+      <c r="L15" s="649" t="s">
         <v>379</v>
       </c>
-      <c r="M15" s="654" t="s">
+      <c r="M15" s="637" t="s">
         <v>60</v>
       </c>
-      <c r="N15" s="626" t="s">
+      <c r="N15" s="624" t="s">
         <v>259</v>
       </c>
-      <c r="O15" s="632" t="s">
+      <c r="O15" s="629" t="s">
         <v>59</v>
       </c>
-      <c r="P15" s="646"/>
+      <c r="P15" s="666"/>
       <c r="Q15" s="192"/>
     </row>
     <row r="16" spans="1:29" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="528"/>
-      <c r="B16" s="637"/>
-      <c r="C16" s="627"/>
+      <c r="B16" s="616"/>
+      <c r="C16" s="645"/>
       <c r="D16" s="625"/>
-      <c r="E16" s="679"/>
+      <c r="E16" s="644"/>
       <c r="F16" s="625"/>
       <c r="G16" s="625"/>
       <c r="H16" s="625"/>
       <c r="I16" s="625"/>
       <c r="J16" s="625"/>
       <c r="K16" s="625"/>
-      <c r="L16" s="627"/>
-      <c r="M16" s="655"/>
+      <c r="L16" s="645"/>
+      <c r="M16" s="638"/>
       <c r="N16" s="625"/>
-      <c r="O16" s="656"/>
-      <c r="P16" s="646"/>
+      <c r="O16" s="630"/>
+      <c r="P16" s="666"/>
       <c r="Q16" s="192"/>
     </row>
     <row r="17" spans="1:17" ht="76.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A17" s="528"/>
-      <c r="B17" s="636" t="s">
+      <c r="B17" s="615" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="626" t="s">
+      <c r="C17" s="624" t="s">
         <v>219</v>
       </c>
-      <c r="D17" s="626" t="s">
+      <c r="D17" s="624" t="s">
         <v>220</v>
       </c>
-      <c r="E17" s="626"/>
+      <c r="E17" s="624"/>
       <c r="F17" s="384" t="s">
         <v>321</v>
       </c>
@@ -9249,12 +9249,12 @@
       <c r="O17" s="253" t="s">
         <v>59</v>
       </c>
-      <c r="P17" s="646"/>
+      <c r="P17" s="666"/>
       <c r="Q17" s="192"/>
     </row>
     <row r="18" spans="1:17" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="528"/>
-      <c r="B18" s="659"/>
+      <c r="B18" s="653"/>
       <c r="C18" s="625"/>
       <c r="D18" s="625"/>
       <c r="E18" s="625"/>
@@ -9270,7 +9270,7 @@
       <c r="M18" s="64"/>
       <c r="N18" s="380"/>
       <c r="O18" s="64"/>
-      <c r="P18" s="646"/>
+      <c r="P18" s="666"/>
       <c r="Q18" s="192"/>
     </row>
     <row r="19" spans="1:17" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9322,28 +9322,28 @@
     </row>
     <row r="21" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="528"/>
-      <c r="B21" s="660" t="s">
+      <c r="B21" s="654" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="626"/>
-      <c r="D21" s="626"/>
-      <c r="E21" s="626"/>
-      <c r="F21" s="626"/>
-      <c r="G21" s="626"/>
-      <c r="H21" s="626"/>
-      <c r="I21" s="626"/>
-      <c r="J21" s="626"/>
-      <c r="K21" s="626" t="s">
+      <c r="C21" s="624"/>
+      <c r="D21" s="624"/>
+      <c r="E21" s="624"/>
+      <c r="F21" s="624"/>
+      <c r="G21" s="624"/>
+      <c r="H21" s="624"/>
+      <c r="I21" s="624"/>
+      <c r="J21" s="624"/>
+      <c r="K21" s="624" t="s">
         <v>433</v>
       </c>
-      <c r="L21" s="626"/>
-      <c r="M21" s="654"/>
-      <c r="N21" s="626"/>
-      <c r="O21" s="654"/>
+      <c r="L21" s="624"/>
+      <c r="M21" s="637"/>
+      <c r="N21" s="624"/>
+      <c r="O21" s="637"/>
     </row>
     <row r="22" spans="1:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="528"/>
-      <c r="B22" s="659"/>
+      <c r="B22" s="653"/>
       <c r="C22" s="625"/>
       <c r="D22" s="625"/>
       <c r="E22" s="625"/>
@@ -9354,73 +9354,73 @@
       <c r="J22" s="625"/>
       <c r="K22" s="625"/>
       <c r="L22" s="625"/>
-      <c r="M22" s="655"/>
+      <c r="M22" s="638"/>
       <c r="N22" s="625"/>
-      <c r="O22" s="655"/>
+      <c r="O22" s="638"/>
     </row>
     <row r="23" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="528"/>
-      <c r="B23" s="660" t="s">
+      <c r="B23" s="654" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="626"/>
+      <c r="C23" s="624"/>
       <c r="D23" s="380"/>
-      <c r="E23" s="626"/>
-      <c r="F23" s="626"/>
-      <c r="G23" s="626"/>
-      <c r="H23" s="626"/>
-      <c r="I23" s="626"/>
-      <c r="J23" s="626"/>
-      <c r="K23" s="626"/>
-      <c r="L23" s="626"/>
-      <c r="M23" s="632"/>
-      <c r="N23" s="626"/>
-      <c r="O23" s="632"/>
+      <c r="E23" s="624"/>
+      <c r="F23" s="624"/>
+      <c r="G23" s="624"/>
+      <c r="H23" s="624"/>
+      <c r="I23" s="624"/>
+      <c r="J23" s="624"/>
+      <c r="K23" s="624"/>
+      <c r="L23" s="624"/>
+      <c r="M23" s="629"/>
+      <c r="N23" s="624"/>
+      <c r="O23" s="629"/>
     </row>
     <row r="24" spans="1:17" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="528"/>
-      <c r="B24" s="637"/>
-      <c r="C24" s="648"/>
+      <c r="B24" s="616"/>
+      <c r="C24" s="655"/>
       <c r="D24" s="381"/>
-      <c r="E24" s="648"/>
-      <c r="F24" s="648"/>
-      <c r="G24" s="648"/>
-      <c r="H24" s="648"/>
-      <c r="I24" s="648"/>
-      <c r="J24" s="648"/>
-      <c r="K24" s="648"/>
-      <c r="L24" s="648"/>
-      <c r="M24" s="633"/>
-      <c r="N24" s="648"/>
-      <c r="O24" s="633"/>
+      <c r="E24" s="655"/>
+      <c r="F24" s="655"/>
+      <c r="G24" s="655"/>
+      <c r="H24" s="655"/>
+      <c r="I24" s="655"/>
+      <c r="J24" s="655"/>
+      <c r="K24" s="655"/>
+      <c r="L24" s="655"/>
+      <c r="M24" s="667"/>
+      <c r="N24" s="655"/>
+      <c r="O24" s="667"/>
     </row>
     <row r="25" spans="1:17" ht="66" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="658" t="s">
+      <c r="A25" s="652" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="636" t="s">
+      <c r="B25" s="615" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="382"/>
-      <c r="D25" s="624"/>
-      <c r="E25" s="624"/>
+      <c r="D25" s="632"/>
+      <c r="E25" s="632"/>
       <c r="F25" s="383"/>
-      <c r="G25" s="624" t="s">
+      <c r="G25" s="632" t="s">
         <v>344</v>
       </c>
-      <c r="H25" s="624" t="s">
+      <c r="H25" s="632" t="s">
         <v>407</v>
       </c>
-      <c r="I25" s="624" t="s">
+      <c r="I25" s="632" t="s">
         <v>408</v>
       </c>
-      <c r="J25" s="624" t="s">
+      <c r="J25" s="632" t="s">
         <v>434</v>
       </c>
-      <c r="K25" s="624" t="s">
+      <c r="K25" s="632" t="s">
         <v>435</v>
       </c>
-      <c r="L25" s="657" t="s">
+      <c r="L25" s="648" t="s">
         <v>380</v>
       </c>
       <c r="M25" s="170" t="s">
@@ -9433,7 +9433,7 @@
     </row>
     <row r="26" spans="1:17" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="528"/>
-      <c r="B26" s="637"/>
+      <c r="B26" s="616"/>
       <c r="C26" s="383" t="s">
         <v>219</v>
       </c>
@@ -9445,7 +9445,7 @@
       <c r="I26" s="625"/>
       <c r="J26" s="625"/>
       <c r="K26" s="625"/>
-      <c r="L26" s="653"/>
+      <c r="L26" s="649"/>
       <c r="M26" s="90"/>
       <c r="N26" s="383"/>
       <c r="O26" s="310"/>
@@ -9532,7 +9532,7 @@
     </row>
     <row r="29" spans="1:17" ht="76.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A29" s="528"/>
-      <c r="B29" s="636" t="s">
+      <c r="B29" s="615" t="s">
         <v>26</v>
       </c>
       <c r="C29" s="380"/>
@@ -9555,7 +9555,7 @@
     </row>
     <row r="30" spans="1:17" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="528"/>
-      <c r="B30" s="637"/>
+      <c r="B30" s="616"/>
       <c r="C30" s="380"/>
       <c r="D30" s="380"/>
       <c r="E30" s="380" t="s">
@@ -9615,7 +9615,7 @@
       <c r="O32" s="62"/>
     </row>
     <row r="33" spans="1:15" ht="36" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="658" t="s">
+      <c r="A33" s="652" t="s">
         <v>4</v>
       </c>
       <c r="B33" s="86" t="s">
@@ -9637,30 +9637,30 @@
     </row>
     <row r="34" spans="1:15" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A34" s="528"/>
-      <c r="B34" s="636" t="s">
+      <c r="B34" s="615" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="626"/>
+      <c r="C34" s="624"/>
       <c r="D34" s="380"/>
-      <c r="E34" s="626"/>
-      <c r="F34" s="626"/>
-      <c r="G34" s="626" t="s">
+      <c r="E34" s="624"/>
+      <c r="F34" s="624"/>
+      <c r="G34" s="624" t="s">
         <v>346</v>
       </c>
-      <c r="H34" s="626"/>
-      <c r="I34" s="626"/>
-      <c r="J34" s="626"/>
-      <c r="K34" s="626"/>
-      <c r="L34" s="626"/>
-      <c r="M34" s="632"/>
-      <c r="N34" s="626" t="s">
+      <c r="H34" s="624"/>
+      <c r="I34" s="624"/>
+      <c r="J34" s="624"/>
+      <c r="K34" s="624"/>
+      <c r="L34" s="624"/>
+      <c r="M34" s="629"/>
+      <c r="N34" s="624" t="s">
         <v>257</v>
       </c>
-      <c r="O34" s="632"/>
+      <c r="O34" s="629"/>
     </row>
     <row r="35" spans="1:15" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="528"/>
-      <c r="B35" s="637"/>
+      <c r="B35" s="616"/>
       <c r="C35" s="625"/>
       <c r="D35" s="372"/>
       <c r="E35" s="625"/>
@@ -9671,9 +9671,9 @@
       <c r="J35" s="625"/>
       <c r="K35" s="625"/>
       <c r="L35" s="625"/>
-      <c r="M35" s="656"/>
-      <c r="N35" s="627"/>
-      <c r="O35" s="656"/>
+      <c r="M35" s="630"/>
+      <c r="N35" s="645"/>
+      <c r="O35" s="630"/>
     </row>
     <row r="36" spans="1:15" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="528"/>
@@ -9691,7 +9691,7 @@
       <c r="K36" s="384"/>
       <c r="L36" s="384"/>
       <c r="M36" s="64"/>
-      <c r="N36" s="680"/>
+      <c r="N36" s="646"/>
       <c r="O36" s="64"/>
     </row>
     <row r="37" spans="1:15" ht="60" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9708,7 +9708,7 @@
       <c r="K37" s="398"/>
       <c r="L37" s="372"/>
       <c r="M37" s="68"/>
-      <c r="N37" s="680"/>
+      <c r="N37" s="646"/>
       <c r="O37" s="68"/>
     </row>
     <row r="38" spans="1:15" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9727,29 +9727,29 @@
       <c r="K38" s="373"/>
       <c r="L38" s="373"/>
       <c r="M38" s="67"/>
-      <c r="N38" s="681"/>
+      <c r="N38" s="647"/>
       <c r="O38" s="67"/>
     </row>
     <row r="39" spans="1:15" ht="44.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="658" t="s">
+      <c r="A39" s="652" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="636" t="s">
+      <c r="B39" s="615" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="675" t="s">
+      <c r="C39" s="640" t="s">
         <v>69</v>
       </c>
-      <c r="D39" s="676"/>
-      <c r="E39" s="676"/>
-      <c r="F39" s="676"/>
-      <c r="G39" s="676"/>
-      <c r="H39" s="676"/>
-      <c r="I39" s="677"/>
-      <c r="J39" s="634" t="s">
+      <c r="D39" s="641"/>
+      <c r="E39" s="641"/>
+      <c r="F39" s="641"/>
+      <c r="G39" s="641"/>
+      <c r="H39" s="641"/>
+      <c r="I39" s="642"/>
+      <c r="J39" s="668" t="s">
         <v>70</v>
       </c>
-      <c r="K39" s="635"/>
+      <c r="K39" s="669"/>
       <c r="L39" s="66"/>
       <c r="M39" s="244"/>
       <c r="N39" s="66"/>
@@ -9757,116 +9757,116 @@
     </row>
     <row r="40" spans="1:15" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="528"/>
-      <c r="B40" s="637"/>
-      <c r="C40" s="628" t="s">
+      <c r="B40" s="616"/>
+      <c r="C40" s="626" t="s">
         <v>70</v>
       </c>
-      <c r="D40" s="682"/>
-      <c r="E40" s="629"/>
+      <c r="D40" s="627"/>
+      <c r="E40" s="628"/>
       <c r="F40" s="296"/>
       <c r="G40" s="77"/>
       <c r="H40" s="89"/>
       <c r="I40" s="77"/>
-      <c r="J40" s="670" t="s">
+      <c r="J40" s="661" t="s">
         <v>98</v>
       </c>
-      <c r="K40" s="671"/>
-      <c r="L40" s="671"/>
-      <c r="M40" s="671"/>
-      <c r="N40" s="671"/>
-      <c r="O40" s="672"/>
+      <c r="K40" s="662"/>
+      <c r="L40" s="662"/>
+      <c r="M40" s="662"/>
+      <c r="N40" s="662"/>
+      <c r="O40" s="663"/>
     </row>
     <row r="41" spans="1:15" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A41" s="528"/>
-      <c r="B41" s="636" t="s">
+      <c r="B41" s="615" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="663" t="s">
+      <c r="C41" s="633" t="s">
         <v>72</v>
       </c>
-      <c r="D41" s="664"/>
-      <c r="E41" s="665"/>
-      <c r="F41" s="663" t="s">
+      <c r="D41" s="658"/>
+      <c r="E41" s="634"/>
+      <c r="F41" s="633" t="s">
         <v>73</v>
       </c>
-      <c r="G41" s="665"/>
-      <c r="H41" s="628" t="s">
+      <c r="G41" s="634"/>
+      <c r="H41" s="626" t="s">
         <v>70</v>
       </c>
-      <c r="I41" s="629"/>
-      <c r="J41" s="642" t="s">
+      <c r="I41" s="628"/>
+      <c r="J41" s="617" t="s">
         <v>68</v>
       </c>
-      <c r="K41" s="643"/>
-      <c r="L41" s="643"/>
-      <c r="M41" s="643"/>
-      <c r="N41" s="643"/>
-      <c r="O41" s="644"/>
+      <c r="K41" s="618"/>
+      <c r="L41" s="618"/>
+      <c r="M41" s="618"/>
+      <c r="N41" s="618"/>
+      <c r="O41" s="619"/>
     </row>
     <row r="42" spans="1:15" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="528"/>
-      <c r="B42" s="637"/>
-      <c r="C42" s="666"/>
-      <c r="D42" s="667"/>
-      <c r="E42" s="668"/>
-      <c r="F42" s="666"/>
-      <c r="G42" s="668"/>
+      <c r="B42" s="616"/>
+      <c r="C42" s="635"/>
+      <c r="D42" s="659"/>
+      <c r="E42" s="636"/>
+      <c r="F42" s="635"/>
+      <c r="G42" s="636"/>
       <c r="H42" s="88"/>
       <c r="I42" s="47"/>
-      <c r="J42" s="630"/>
-      <c r="K42" s="631"/>
-      <c r="L42" s="631"/>
-      <c r="M42" s="631"/>
-      <c r="N42" s="631"/>
-      <c r="O42" s="645"/>
+      <c r="J42" s="620"/>
+      <c r="K42" s="621"/>
+      <c r="L42" s="621"/>
+      <c r="M42" s="621"/>
+      <c r="N42" s="621"/>
+      <c r="O42" s="622"/>
     </row>
     <row r="43" spans="1:15" ht="43.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A43" s="528"/>
-      <c r="B43" s="636" t="s">
+      <c r="B43" s="615" t="s">
         <v>25</v>
       </c>
-      <c r="C43" s="642" t="s">
+      <c r="C43" s="617" t="s">
         <v>68</v>
       </c>
-      <c r="D43" s="643"/>
-      <c r="E43" s="643"/>
-      <c r="F43" s="643"/>
-      <c r="G43" s="643"/>
-      <c r="H43" s="643"/>
-      <c r="I43" s="644"/>
-      <c r="J43" s="669" t="s">
+      <c r="D43" s="618"/>
+      <c r="E43" s="618"/>
+      <c r="F43" s="618"/>
+      <c r="G43" s="618"/>
+      <c r="H43" s="618"/>
+      <c r="I43" s="619"/>
+      <c r="J43" s="660" t="s">
         <v>99</v>
       </c>
-      <c r="K43" s="665"/>
-      <c r="L43" s="663" t="s">
+      <c r="K43" s="634"/>
+      <c r="L43" s="633" t="s">
         <v>100</v>
       </c>
-      <c r="M43" s="665"/>
-      <c r="N43" s="628" t="s">
+      <c r="M43" s="634"/>
+      <c r="N43" s="626" t="s">
         <v>70</v>
       </c>
-      <c r="O43" s="629"/>
+      <c r="O43" s="628"/>
     </row>
     <row r="44" spans="1:15" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="528"/>
-      <c r="B44" s="637"/>
-      <c r="C44" s="630"/>
-      <c r="D44" s="631"/>
-      <c r="E44" s="631"/>
-      <c r="F44" s="631"/>
-      <c r="G44" s="631"/>
-      <c r="H44" s="631"/>
-      <c r="I44" s="645"/>
-      <c r="J44" s="666"/>
-      <c r="K44" s="668"/>
-      <c r="L44" s="666"/>
-      <c r="M44" s="668"/>
+      <c r="B44" s="616"/>
+      <c r="C44" s="620"/>
+      <c r="D44" s="621"/>
+      <c r="E44" s="621"/>
+      <c r="F44" s="621"/>
+      <c r="G44" s="621"/>
+      <c r="H44" s="621"/>
+      <c r="I44" s="622"/>
+      <c r="J44" s="635"/>
+      <c r="K44" s="636"/>
+      <c r="L44" s="635"/>
+      <c r="M44" s="636"/>
       <c r="N44" s="253"/>
       <c r="O44" s="183"/>
     </row>
     <row r="45" spans="1:15" ht="40.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A45" s="528"/>
-      <c r="B45" s="636" t="s">
+      <c r="B45" s="615" t="s">
         <v>26</v>
       </c>
       <c r="C45" s="183"/>
@@ -9874,39 +9874,39 @@
       <c r="E45" s="183"/>
       <c r="F45" s="183"/>
       <c r="G45" s="183"/>
-      <c r="H45" s="638" t="s">
+      <c r="H45" s="670" t="s">
         <v>99</v>
       </c>
-      <c r="I45" s="639"/>
+      <c r="I45" s="671"/>
       <c r="J45" s="254"/>
       <c r="K45" s="251"/>
-      <c r="L45" s="630" t="s">
+      <c r="L45" s="620" t="s">
         <v>70</v>
       </c>
-      <c r="M45" s="631"/>
-      <c r="N45" s="638" t="s">
+      <c r="M45" s="621"/>
+      <c r="N45" s="670" t="s">
         <v>101</v>
       </c>
-      <c r="O45" s="639"/>
+      <c r="O45" s="671"/>
     </row>
     <row r="46" spans="1:15" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="528"/>
-      <c r="B46" s="637"/>
+      <c r="B46" s="616"/>
       <c r="C46" s="47"/>
       <c r="D46" s="183"/>
       <c r="E46" s="47"/>
-      <c r="F46" s="628" t="s">
+      <c r="F46" s="626" t="s">
         <v>71</v>
       </c>
-      <c r="G46" s="629"/>
-      <c r="H46" s="640"/>
-      <c r="I46" s="641"/>
+      <c r="G46" s="628"/>
+      <c r="H46" s="672"/>
+      <c r="I46" s="673"/>
       <c r="J46" s="64"/>
       <c r="K46" s="27"/>
       <c r="L46" s="65"/>
       <c r="M46" s="65"/>
-      <c r="N46" s="646"/>
-      <c r="O46" s="647"/>
+      <c r="N46" s="666"/>
+      <c r="O46" s="674"/>
     </row>
     <row r="47" spans="1:15" ht="29.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="528"/>
@@ -9992,29 +9992,122 @@
     </row>
   </sheetData>
   <mergeCells count="163">
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:I44"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="L43:M44"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="H45:I46"/>
+    <mergeCell ref="J41:O42"/>
+    <mergeCell ref="N45:O46"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="A39:A47"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A25:A32"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="C41:E42"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="J43:K44"/>
+    <mergeCell ref="J40:O40"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A13:A24"/>
+    <mergeCell ref="C17:C18"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="T8:T9"/>
     <mergeCell ref="F41:G42"/>
@@ -10039,122 +10132,29 @@
     <mergeCell ref="L25:L26"/>
     <mergeCell ref="H25:H26"/>
     <mergeCell ref="I25:I26"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:A12"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A13:A24"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="A39:A47"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A25:A32"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="C41:E42"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="J43:K44"/>
-    <mergeCell ref="J40:O40"/>
-    <mergeCell ref="O34:O35"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="AC8:AC9"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="H45:I46"/>
-    <mergeCell ref="J41:O42"/>
-    <mergeCell ref="N45:O46"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E6"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:I44"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="L43:M44"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="I21:I22"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.11811023622047245" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId1"/>
@@ -10229,36 +10229,36 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="703"/>
-      <c r="B3" s="704"/>
-      <c r="C3" s="701" t="s">
+      <c r="A3" s="700"/>
+      <c r="B3" s="701"/>
+      <c r="C3" s="692" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="701" t="s">
+      <c r="D3" s="692" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="701" t="s">
+      <c r="E3" s="692" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="701" t="s">
+      <c r="F3" s="692" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="710" t="s">
+      <c r="G3" s="694" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="697" t="s">
+      <c r="H3" s="696" t="s">
         <v>75</v>
       </c>
-      <c r="I3" s="697" t="s">
+      <c r="I3" s="696" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="697" t="s">
+      <c r="J3" s="696" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="708" t="s">
+      <c r="K3" s="690" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="697" t="s">
+      <c r="L3" s="696" t="s">
         <v>76</v>
       </c>
       <c r="M3" s="220" t="s">
@@ -10266,23 +10266,23 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="699"/>
-      <c r="B4" s="700"/>
-      <c r="C4" s="702"/>
-      <c r="D4" s="702"/>
-      <c r="E4" s="702"/>
-      <c r="F4" s="702"/>
-      <c r="G4" s="711"/>
-      <c r="H4" s="698"/>
-      <c r="I4" s="698"/>
-      <c r="J4" s="698"/>
-      <c r="K4" s="709"/>
-      <c r="L4" s="698"/>
+      <c r="A4" s="698"/>
+      <c r="B4" s="699"/>
+      <c r="C4" s="693"/>
+      <c r="D4" s="693"/>
+      <c r="E4" s="693"/>
+      <c r="F4" s="693"/>
+      <c r="G4" s="695"/>
+      <c r="H4" s="697"/>
+      <c r="I4" s="697"/>
+      <c r="J4" s="697"/>
+      <c r="K4" s="691"/>
+      <c r="L4" s="697"/>
       <c r="M4" s="250"/>
     </row>
     <row r="5" spans="1:13" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="707"/>
-      <c r="B5" s="707"/>
+      <c r="A5" s="689"/>
+      <c r="B5" s="689"/>
       <c r="C5" s="353">
         <v>12</v>
       </c>
@@ -10328,7 +10328,7 @@
         <v>204</v>
       </c>
       <c r="D6" s="350"/>
-      <c r="E6" s="705" t="s">
+      <c r="E6" s="687" t="s">
         <v>383</v>
       </c>
       <c r="F6" s="362" t="s">
@@ -10363,17 +10363,17 @@
         <v>204</v>
       </c>
       <c r="D7" s="350"/>
-      <c r="E7" s="694"/>
-      <c r="F7" s="693" t="s">
+      <c r="E7" s="686"/>
+      <c r="F7" s="685" t="s">
         <v>358</v>
       </c>
       <c r="G7" s="350"/>
       <c r="H7" s="223"/>
       <c r="I7" s="223"/>
-      <c r="J7" s="691" t="s">
+      <c r="J7" s="708" t="s">
         <v>439</v>
       </c>
-      <c r="K7" s="693" t="s">
+      <c r="K7" s="685" t="s">
         <v>440</v>
       </c>
       <c r="L7" s="234"/>
@@ -10386,10 +10386,10 @@
       <c r="D8" s="350" t="s">
         <v>205</v>
       </c>
-      <c r="E8" s="693" t="s">
+      <c r="E8" s="685" t="s">
         <v>385</v>
       </c>
-      <c r="F8" s="694"/>
+      <c r="F8" s="686"/>
       <c r="G8" s="365"/>
       <c r="H8" s="231" t="s">
         <v>84</v>
@@ -10397,8 +10397,8 @@
       <c r="I8" s="231" t="s">
         <v>84</v>
       </c>
-      <c r="J8" s="692"/>
-      <c r="K8" s="694"/>
+      <c r="J8" s="709"/>
+      <c r="K8" s="686"/>
       <c r="L8" s="231" t="s">
         <v>84</v>
       </c>
@@ -10415,17 +10415,17 @@
       <c r="D9" s="350" t="s">
         <v>205</v>
       </c>
-      <c r="E9" s="706"/>
-      <c r="F9" s="693" t="s">
+      <c r="E9" s="688"/>
+      <c r="F9" s="685" t="s">
         <v>359</v>
       </c>
       <c r="G9" s="365"/>
       <c r="H9" s="313"/>
       <c r="I9" s="313"/>
-      <c r="J9" s="691" t="s">
+      <c r="J9" s="708" t="s">
         <v>441</v>
       </c>
-      <c r="K9" s="695"/>
+      <c r="K9" s="710"/>
       <c r="L9" s="313"/>
       <c r="M9" s="313"/>
     </row>
@@ -10438,8 +10438,8 @@
       <c r="D10" s="350" t="s">
         <v>207</v>
       </c>
-      <c r="E10" s="694"/>
-      <c r="F10" s="694"/>
+      <c r="E10" s="686"/>
+      <c r="F10" s="686"/>
       <c r="G10" s="350"/>
       <c r="H10" s="234" t="s">
         <v>84</v>
@@ -10447,8 +10447,8 @@
       <c r="I10" s="234" t="s">
         <v>84</v>
       </c>
-      <c r="J10" s="692"/>
-      <c r="K10" s="696"/>
+      <c r="J10" s="709"/>
+      <c r="K10" s="711"/>
       <c r="L10" s="234" t="s">
         <v>84</v>
       </c>
@@ -10504,7 +10504,7 @@
       <c r="C13" s="355"/>
       <c r="D13" s="355"/>
       <c r="E13" s="362"/>
-      <c r="F13" s="705" t="s">
+      <c r="F13" s="687" t="s">
         <v>360</v>
       </c>
       <c r="G13" s="350" t="s">
@@ -10537,16 +10537,16 @@
       <c r="C14" s="355"/>
       <c r="D14" s="355"/>
       <c r="E14" s="364"/>
-      <c r="F14" s="706"/>
+      <c r="F14" s="688"/>
       <c r="G14" s="350" t="s">
         <v>334</v>
       </c>
       <c r="H14" s="223"/>
       <c r="I14" s="223"/>
-      <c r="J14" s="693" t="s">
+      <c r="J14" s="685" t="s">
         <v>444</v>
       </c>
-      <c r="K14" s="693" t="s">
+      <c r="K14" s="685" t="s">
         <v>443</v>
       </c>
       <c r="L14" s="223"/>
@@ -10558,7 +10558,7 @@
       <c r="C15" s="350"/>
       <c r="D15" s="350"/>
       <c r="E15" s="365"/>
-      <c r="F15" s="706"/>
+      <c r="F15" s="688"/>
       <c r="G15" s="350" t="s">
         <v>335</v>
       </c>
@@ -10568,8 +10568,8 @@
       <c r="I15" s="231" t="s">
         <v>84</v>
       </c>
-      <c r="J15" s="694"/>
-      <c r="K15" s="694"/>
+      <c r="J15" s="686"/>
+      <c r="K15" s="686"/>
       <c r="L15" s="231" t="s">
         <v>84</v>
       </c>
@@ -10585,7 +10585,7 @@
       <c r="C16" s="350"/>
       <c r="D16" s="350"/>
       <c r="E16" s="350"/>
-      <c r="F16" s="694"/>
+      <c r="F16" s="686"/>
       <c r="G16" s="350" t="s">
         <v>327</v>
       </c>
@@ -10728,10 +10728,10 @@
       <c r="I23" s="231" t="s">
         <v>82</v>
       </c>
-      <c r="J23" s="685" t="s">
+      <c r="J23" s="702" t="s">
         <v>447</v>
       </c>
-      <c r="K23" s="688" t="s">
+      <c r="K23" s="705" t="s">
         <v>448</v>
       </c>
       <c r="L23" s="231" t="s">
@@ -10751,7 +10751,7 @@
       <c r="E24" s="365" t="s">
         <v>378</v>
       </c>
-      <c r="F24" s="693" t="s">
+      <c r="F24" s="685" t="s">
         <v>361</v>
       </c>
       <c r="G24" s="350"/>
@@ -10761,8 +10761,8 @@
       <c r="I24" s="231" t="s">
         <v>82</v>
       </c>
-      <c r="J24" s="686"/>
-      <c r="K24" s="689"/>
+      <c r="J24" s="703"/>
+      <c r="K24" s="706"/>
       <c r="L24" s="231" t="s">
         <v>80</v>
       </c>
@@ -10780,7 +10780,7 @@
       <c r="E25" s="350" t="s">
         <v>378</v>
       </c>
-      <c r="F25" s="706"/>
+      <c r="F25" s="688"/>
       <c r="G25" s="350"/>
       <c r="H25" s="234" t="s">
         <v>81</v>
@@ -10788,8 +10788,8 @@
       <c r="I25" s="231" t="s">
         <v>82</v>
       </c>
-      <c r="J25" s="687"/>
-      <c r="K25" s="690"/>
+      <c r="J25" s="704"/>
+      <c r="K25" s="707"/>
       <c r="L25" s="231" t="s">
         <v>80</v>
       </c>
@@ -10805,7 +10805,7 @@
       <c r="C26" s="350"/>
       <c r="D26" s="356"/>
       <c r="E26" s="350"/>
-      <c r="F26" s="694"/>
+      <c r="F26" s="686"/>
       <c r="G26" s="379"/>
       <c r="H26" s="231"/>
       <c r="I26" s="231"/>
@@ -10838,14 +10838,14 @@
       <c r="B28" s="206" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="705" t="s">
+      <c r="C28" s="687" t="s">
         <v>213</v>
       </c>
       <c r="D28" s="363"/>
-      <c r="E28" s="705" t="s">
+      <c r="E28" s="687" t="s">
         <v>378</v>
       </c>
-      <c r="F28" s="705" t="s">
+      <c r="F28" s="687" t="s">
         <v>362</v>
       </c>
       <c r="G28" s="350" t="s">
@@ -10869,10 +10869,10 @@
     <row r="29" spans="1:13" s="185" customFormat="1" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="596"/>
       <c r="B29" s="444"/>
-      <c r="C29" s="706"/>
+      <c r="C29" s="688"/>
       <c r="D29" s="364"/>
-      <c r="E29" s="694"/>
-      <c r="F29" s="694"/>
+      <c r="E29" s="686"/>
+      <c r="F29" s="686"/>
       <c r="G29" s="350"/>
       <c r="H29" s="342"/>
       <c r="I29" s="342"/>
@@ -10886,8 +10886,8 @@
       <c r="B30" s="208" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="706"/>
-      <c r="D30" s="693" t="s">
+      <c r="C30" s="688"/>
+      <c r="D30" s="685" t="s">
         <v>208</v>
       </c>
       <c r="E30" s="350" t="s">
@@ -10919,8 +10919,8 @@
       <c r="B31" s="193" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="694"/>
-      <c r="D31" s="706"/>
+      <c r="C31" s="686"/>
+      <c r="D31" s="688"/>
       <c r="E31" s="364" t="s">
         <v>378</v>
       </c>
@@ -10949,7 +10949,7 @@
         <v>26</v>
       </c>
       <c r="C32" s="366"/>
-      <c r="D32" s="706"/>
+      <c r="D32" s="688"/>
       <c r="E32" s="365"/>
       <c r="F32" s="458"/>
       <c r="G32" s="350"/>
@@ -10964,7 +10964,7 @@
       <c r="A33" s="596"/>
       <c r="B33" s="601"/>
       <c r="C33" s="350"/>
-      <c r="D33" s="694"/>
+      <c r="D33" s="686"/>
       <c r="E33" s="365"/>
       <c r="F33" s="459"/>
       <c r="G33" s="350" t="s">
@@ -11045,7 +11045,7 @@
       <c r="D37" s="350" t="s">
         <v>210</v>
       </c>
-      <c r="E37" s="693" t="s">
+      <c r="E37" s="685" t="s">
         <v>386</v>
       </c>
       <c r="F37" s="365" t="s">
@@ -11072,7 +11072,7 @@
       <c r="D38" s="350" t="s">
         <v>210</v>
       </c>
-      <c r="E38" s="694"/>
+      <c r="E38" s="686"/>
       <c r="F38" s="350" t="s">
         <v>366</v>
       </c>
@@ -11095,7 +11095,7 @@
       <c r="D39" s="367" t="s">
         <v>212</v>
       </c>
-      <c r="E39" s="693" t="s">
+      <c r="E39" s="685" t="s">
         <v>387</v>
       </c>
       <c r="F39" s="364"/>
@@ -11118,7 +11118,7 @@
       <c r="D40" s="367" t="s">
         <v>212</v>
       </c>
-      <c r="E40" s="694"/>
+      <c r="E40" s="686"/>
       <c r="F40" s="365"/>
       <c r="G40" s="350"/>
       <c r="H40" s="229"/>
@@ -11288,26 +11288,13 @@
     <row r="64" spans="1:13" ht="16.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F13:F16"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="J9:K10"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
     <mergeCell ref="A21:A27"/>
     <mergeCell ref="A28:A35"/>
     <mergeCell ref="A36:A41"/>
@@ -11324,13 +11311,26 @@
     <mergeCell ref="D30:D33"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B14:B15"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="J9:K10"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="E28:E29"/>
   </mergeCells>
   <pageMargins left="0.27559055118110237" right="0.27559055118110237" top="0.27559055118110237" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" scale="75" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -11363,44 +11363,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="782" t="s">
+      <c r="A1" s="718" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="782"/>
-      <c r="C1" s="782"/>
-      <c r="D1" s="782"/>
-      <c r="E1" s="782"/>
-      <c r="F1" s="782"/>
-      <c r="G1" s="782"/>
-      <c r="H1" s="782"/>
-      <c r="I1" s="782"/>
-      <c r="J1" s="782"/>
+      <c r="B1" s="718"/>
+      <c r="C1" s="718"/>
+      <c r="D1" s="718"/>
+      <c r="E1" s="718"/>
+      <c r="F1" s="718"/>
+      <c r="G1" s="718"/>
+      <c r="H1" s="718"/>
+      <c r="I1" s="718"/>
+      <c r="J1" s="718"/>
     </row>
     <row r="2" spans="1:12" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="48"/>
       <c r="B2" s="49"/>
-      <c r="C2" s="783" t="s">
+      <c r="C2" s="719" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="784"/>
-      <c r="E2" s="785" t="s">
+      <c r="D2" s="720"/>
+      <c r="E2" s="721" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="784"/>
-      <c r="G2" s="785" t="s">
+      <c r="F2" s="720"/>
+      <c r="G2" s="721" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="784"/>
-      <c r="I2" s="785" t="s">
+      <c r="H2" s="720"/>
+      <c r="I2" s="721" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="784"/>
+      <c r="J2" s="720"/>
     </row>
     <row r="3" spans="1:12" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="783" t="s">
+      <c r="A3" s="719" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="784"/>
+      <c r="B3" s="720"/>
       <c r="C3" s="50">
         <v>1</v>
       </c>
@@ -11427,7 +11427,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" s="12" customFormat="1" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="786" t="s">
+      <c r="A4" s="725" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="315" t="s">
@@ -11441,88 +11441,88 @@
       <c r="F4" s="312"/>
       <c r="G4" s="311"/>
       <c r="H4" s="312"/>
-      <c r="I4" s="780" t="s">
+      <c r="I4" s="714" t="s">
         <v>169</v>
       </c>
-      <c r="J4" s="781"/>
+      <c r="J4" s="715"/>
     </row>
     <row r="5" spans="1:12" s="12" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="787"/>
-      <c r="B5" s="716" t="s">
+      <c r="A5" s="726"/>
+      <c r="B5" s="722" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="712" t="s">
+      <c r="C5" s="728" t="s">
         <v>168</v>
       </c>
-      <c r="D5" s="632" t="s">
+      <c r="D5" s="629" t="s">
         <v>170</v>
       </c>
-      <c r="E5" s="632"/>
-      <c r="F5" s="632"/>
-      <c r="G5" s="752" t="s">
+      <c r="E5" s="629"/>
+      <c r="F5" s="629"/>
+      <c r="G5" s="723" t="s">
         <v>171</v>
       </c>
-      <c r="H5" s="752" t="s">
+      <c r="H5" s="723" t="s">
         <v>172</v>
       </c>
-      <c r="I5" s="663" t="s">
+      <c r="I5" s="633" t="s">
         <v>173</v>
       </c>
-      <c r="J5" s="665"/>
+      <c r="J5" s="634"/>
       <c r="L5" s="39"/>
     </row>
     <row r="6" spans="1:12" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="787"/>
+      <c r="A6" s="726"/>
       <c r="B6" s="717"/>
-      <c r="C6" s="718"/>
-      <c r="D6" s="656"/>
-      <c r="E6" s="656"/>
-      <c r="F6" s="656"/>
-      <c r="G6" s="720"/>
-      <c r="H6" s="720"/>
-      <c r="I6" s="666"/>
-      <c r="J6" s="668"/>
+      <c r="C6" s="729"/>
+      <c r="D6" s="630"/>
+      <c r="E6" s="630"/>
+      <c r="F6" s="630"/>
+      <c r="G6" s="724"/>
+      <c r="H6" s="724"/>
+      <c r="I6" s="635"/>
+      <c r="J6" s="636"/>
     </row>
     <row r="7" spans="1:12" s="12" customFormat="1" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="787"/>
-      <c r="B7" s="716" t="s">
+      <c r="A7" s="726"/>
+      <c r="B7" s="722" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="712" t="s">
+      <c r="C7" s="728" t="s">
         <v>174</v>
       </c>
-      <c r="D7" s="712" t="s">
+      <c r="D7" s="728" t="s">
         <v>168</v>
       </c>
-      <c r="E7" s="632" t="s">
+      <c r="E7" s="629" t="s">
         <v>175</v>
       </c>
-      <c r="F7" s="776"/>
-      <c r="G7" s="752" t="s">
+      <c r="F7" s="730"/>
+      <c r="G7" s="723" t="s">
         <v>171</v>
       </c>
-      <c r="H7" s="752" t="s">
+      <c r="H7" s="723" t="s">
         <v>172</v>
       </c>
-      <c r="I7" s="663" t="s">
+      <c r="I7" s="633" t="s">
         <v>176</v>
       </c>
-      <c r="J7" s="665"/>
+      <c r="J7" s="634"/>
     </row>
     <row r="8" spans="1:12" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="787"/>
+      <c r="A8" s="726"/>
       <c r="B8" s="717"/>
-      <c r="C8" s="718"/>
-      <c r="D8" s="718"/>
-      <c r="E8" s="656"/>
-      <c r="F8" s="777"/>
-      <c r="G8" s="720"/>
-      <c r="H8" s="720"/>
-      <c r="I8" s="666"/>
-      <c r="J8" s="668"/>
+      <c r="C8" s="729"/>
+      <c r="D8" s="729"/>
+      <c r="E8" s="630"/>
+      <c r="F8" s="731"/>
+      <c r="G8" s="724"/>
+      <c r="H8" s="724"/>
+      <c r="I8" s="635"/>
+      <c r="J8" s="636"/>
     </row>
     <row r="9" spans="1:12" ht="46.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="787"/>
+      <c r="A9" s="726"/>
       <c r="B9" s="316" t="s">
         <v>26</v>
       </c>
@@ -11530,10 +11530,10 @@
       <c r="D9" s="223" t="s">
         <v>168</v>
       </c>
-      <c r="E9" s="778" t="s">
+      <c r="E9" s="732" t="s">
         <v>177</v>
       </c>
-      <c r="F9" s="779"/>
+      <c r="F9" s="733"/>
       <c r="G9" s="337" t="s">
         <v>171</v>
       </c>
@@ -11544,7 +11544,7 @@
       <c r="J9" s="310"/>
     </row>
     <row r="10" spans="1:12" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="788"/>
+      <c r="A10" s="727"/>
       <c r="B10" s="338" t="s">
         <v>27</v>
       </c>
@@ -11560,7 +11560,7 @@
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="1:12" s="45" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="740" t="s">
+      <c r="A11" s="712" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="50" t="s">
@@ -11570,137 +11570,137 @@
       <c r="D11" s="312"/>
       <c r="E11" s="311"/>
       <c r="F11" s="312"/>
-      <c r="G11" s="780" t="s">
+      <c r="G11" s="714" t="s">
         <v>178</v>
       </c>
-      <c r="H11" s="781"/>
+      <c r="H11" s="715"/>
       <c r="I11" s="311"/>
       <c r="J11" s="312"/>
     </row>
     <row r="12" spans="1:12" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="741"/>
-      <c r="B12" s="769" t="s">
+      <c r="A12" s="713"/>
+      <c r="B12" s="716" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="632"/>
-      <c r="D12" s="632"/>
-      <c r="E12" s="663" t="s">
+      <c r="C12" s="629"/>
+      <c r="D12" s="629"/>
+      <c r="E12" s="633" t="s">
         <v>179</v>
       </c>
-      <c r="F12" s="665"/>
+      <c r="F12" s="634"/>
       <c r="G12" s="183" t="s">
         <v>180</v>
       </c>
       <c r="H12" s="183"/>
-      <c r="I12" s="632"/>
-      <c r="J12" s="632"/>
+      <c r="I12" s="629"/>
+      <c r="J12" s="629"/>
       <c r="K12" s="13"/>
     </row>
     <row r="13" spans="1:12" s="45" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="741"/>
+      <c r="A13" s="713"/>
       <c r="B13" s="717"/>
-      <c r="C13" s="656"/>
-      <c r="D13" s="656"/>
-      <c r="E13" s="666"/>
-      <c r="F13" s="668"/>
+      <c r="C13" s="630"/>
+      <c r="D13" s="630"/>
+      <c r="E13" s="635"/>
+      <c r="F13" s="636"/>
       <c r="G13" s="183"/>
       <c r="H13" s="183" t="s">
         <v>180</v>
       </c>
-      <c r="I13" s="656"/>
-      <c r="J13" s="656"/>
+      <c r="I13" s="630"/>
+      <c r="J13" s="630"/>
       <c r="K13" s="13"/>
     </row>
     <row r="14" spans="1:12" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="741"/>
-      <c r="B14" s="716" t="s">
+      <c r="A14" s="713"/>
+      <c r="B14" s="722" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="663"/>
-      <c r="D14" s="632"/>
-      <c r="E14" s="663" t="s">
+      <c r="C14" s="633"/>
+      <c r="D14" s="629"/>
+      <c r="E14" s="633" t="s">
         <v>181</v>
       </c>
-      <c r="F14" s="663" t="s">
+      <c r="F14" s="633" t="s">
         <v>182</v>
       </c>
       <c r="G14" s="183" t="s">
         <v>180</v>
       </c>
       <c r="H14" s="82"/>
-      <c r="I14" s="663"/>
-      <c r="J14" s="632"/>
+      <c r="I14" s="633"/>
+      <c r="J14" s="629"/>
     </row>
     <row r="15" spans="1:12" s="45" customFormat="1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="741"/>
+      <c r="A15" s="713"/>
       <c r="B15" s="717"/>
-      <c r="C15" s="666"/>
-      <c r="D15" s="656"/>
-      <c r="E15" s="666"/>
-      <c r="F15" s="666"/>
+      <c r="C15" s="635"/>
+      <c r="D15" s="630"/>
+      <c r="E15" s="635"/>
+      <c r="F15" s="635"/>
       <c r="G15" s="83"/>
       <c r="H15" s="183" t="s">
         <v>180</v>
       </c>
-      <c r="I15" s="666"/>
-      <c r="J15" s="656"/>
+      <c r="I15" s="635"/>
+      <c r="J15" s="630"/>
     </row>
     <row r="16" spans="1:12" ht="33" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="741"/>
-      <c r="B16" s="769" t="s">
+      <c r="A16" s="713"/>
+      <c r="B16" s="716" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="313"/>
       <c r="D16" s="313"/>
-      <c r="E16" s="778" t="s">
+      <c r="E16" s="732" t="s">
         <v>183</v>
       </c>
-      <c r="F16" s="779"/>
-      <c r="G16" s="752"/>
-      <c r="H16" s="752"/>
+      <c r="F16" s="733"/>
+      <c r="G16" s="723"/>
+      <c r="H16" s="723"/>
       <c r="I16" s="313"/>
       <c r="J16" s="313"/>
     </row>
     <row r="17" spans="1:10" s="45" customFormat="1" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="741"/>
+      <c r="A17" s="713"/>
       <c r="B17" s="717"/>
       <c r="C17" s="313"/>
       <c r="D17" s="313"/>
       <c r="E17" s="313"/>
       <c r="F17" s="313"/>
-      <c r="G17" s="720"/>
-      <c r="H17" s="720"/>
+      <c r="G17" s="724"/>
+      <c r="H17" s="724"/>
       <c r="I17" s="313"/>
       <c r="J17" s="313"/>
     </row>
     <row r="18" spans="1:10" s="45" customFormat="1" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="741"/>
-      <c r="B18" s="716" t="s">
+      <c r="A18" s="713"/>
+      <c r="B18" s="722" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="712"/>
-      <c r="D18" s="712"/>
-      <c r="E18" s="712"/>
-      <c r="F18" s="712"/>
-      <c r="G18" s="774"/>
-      <c r="H18" s="774"/>
-      <c r="I18" s="712"/>
-      <c r="J18" s="712"/>
+      <c r="C18" s="728"/>
+      <c r="D18" s="728"/>
+      <c r="E18" s="728"/>
+      <c r="F18" s="728"/>
+      <c r="G18" s="734"/>
+      <c r="H18" s="734"/>
+      <c r="I18" s="728"/>
+      <c r="J18" s="728"/>
     </row>
     <row r="19" spans="1:10" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="741"/>
+      <c r="A19" s="713"/>
       <c r="B19" s="717"/>
-      <c r="C19" s="718"/>
-      <c r="D19" s="718"/>
-      <c r="E19" s="718"/>
-      <c r="F19" s="718"/>
-      <c r="G19" s="775"/>
-      <c r="H19" s="775"/>
-      <c r="I19" s="718"/>
-      <c r="J19" s="718"/>
+      <c r="C19" s="729"/>
+      <c r="D19" s="729"/>
+      <c r="E19" s="729"/>
+      <c r="F19" s="729"/>
+      <c r="G19" s="735"/>
+      <c r="H19" s="735"/>
+      <c r="I19" s="729"/>
+      <c r="J19" s="729"/>
     </row>
     <row r="20" spans="1:10" ht="3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="741"/>
+      <c r="A20" s="713"/>
       <c r="B20" s="51" t="s">
         <v>28</v>
       </c>
@@ -11714,7 +11714,7 @@
       <c r="J20" s="14"/>
     </row>
     <row r="21" spans="1:10" ht="54.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="741"/>
+      <c r="A21" s="713"/>
       <c r="B21" s="51" t="s">
         <v>29</v>
       </c>
@@ -11728,7 +11728,7 @@
       <c r="J21" s="36"/>
     </row>
     <row r="22" spans="1:10" s="45" customFormat="1" ht="54.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="740" t="s">
+      <c r="A22" s="712" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="50" t="s">
@@ -11752,109 +11752,109 @@
       <c r="J22" s="312"/>
     </row>
     <row r="23" spans="1:10" ht="43.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="741"/>
-      <c r="B23" s="769" t="s">
+      <c r="A23" s="713"/>
+      <c r="B23" s="716" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="759" t="s">
+      <c r="C23" s="736" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="759" t="s">
+      <c r="D23" s="736" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="736" t="s">
+      <c r="E23" s="738" t="s">
         <v>186</v>
       </c>
-      <c r="F23" s="737"/>
+      <c r="F23" s="739"/>
       <c r="G23" s="234"/>
       <c r="H23" s="223" t="s">
         <v>185</v>
       </c>
-      <c r="I23" s="770" t="s">
+      <c r="I23" s="742" t="s">
         <v>187</v>
       </c>
-      <c r="J23" s="771"/>
+      <c r="J23" s="743"/>
     </row>
     <row r="24" spans="1:10" s="45" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="741"/>
+      <c r="A24" s="713"/>
       <c r="B24" s="717"/>
-      <c r="C24" s="760"/>
-      <c r="D24" s="760"/>
-      <c r="E24" s="738"/>
-      <c r="F24" s="739"/>
-      <c r="G24" s="772" t="s">
+      <c r="C24" s="737"/>
+      <c r="D24" s="737"/>
+      <c r="E24" s="740"/>
+      <c r="F24" s="741"/>
+      <c r="G24" s="744" t="s">
         <v>188</v>
       </c>
-      <c r="H24" s="773"/>
+      <c r="H24" s="745"/>
       <c r="I24" s="339"/>
       <c r="J24" s="339"/>
     </row>
     <row r="25" spans="1:10" ht="46.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="741"/>
-      <c r="B25" s="716" t="s">
+      <c r="A25" s="713"/>
+      <c r="B25" s="722" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="736" t="s">
+      <c r="C25" s="738" t="s">
         <v>189</v>
       </c>
-      <c r="D25" s="737"/>
-      <c r="E25" s="752" t="s">
+      <c r="D25" s="739"/>
+      <c r="E25" s="723" t="s">
         <v>184</v>
       </c>
-      <c r="F25" s="752"/>
-      <c r="G25" s="772" t="s">
+      <c r="F25" s="723"/>
+      <c r="G25" s="744" t="s">
         <v>188</v>
       </c>
-      <c r="H25" s="773"/>
-      <c r="I25" s="736" t="s">
+      <c r="H25" s="745"/>
+      <c r="I25" s="738" t="s">
         <v>190</v>
       </c>
-      <c r="J25" s="737"/>
+      <c r="J25" s="739"/>
     </row>
     <row r="26" spans="1:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="741"/>
-      <c r="B26" s="750"/>
-      <c r="C26" s="738"/>
-      <c r="D26" s="739"/>
-      <c r="E26" s="720"/>
-      <c r="F26" s="720"/>
+      <c r="A26" s="713"/>
+      <c r="B26" s="746"/>
+      <c r="C26" s="740"/>
+      <c r="D26" s="741"/>
+      <c r="E26" s="724"/>
+      <c r="F26" s="724"/>
       <c r="G26" s="223" t="s">
         <v>185</v>
       </c>
       <c r="H26" s="234"/>
-      <c r="I26" s="738"/>
-      <c r="J26" s="739"/>
+      <c r="I26" s="740"/>
+      <c r="J26" s="741"/>
     </row>
     <row r="27" spans="1:10" s="45" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="741"/>
-      <c r="B27" s="751" t="s">
+      <c r="A27" s="713"/>
+      <c r="B27" s="747" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="712"/>
-      <c r="D27" s="714"/>
-      <c r="E27" s="752"/>
-      <c r="F27" s="752"/>
-      <c r="G27" s="712" t="s">
+      <c r="C27" s="728"/>
+      <c r="D27" s="748"/>
+      <c r="E27" s="723"/>
+      <c r="F27" s="723"/>
+      <c r="G27" s="728" t="s">
         <v>185</v>
       </c>
-      <c r="H27" s="712"/>
-      <c r="I27" s="752"/>
-      <c r="J27" s="752"/>
+      <c r="H27" s="728"/>
+      <c r="I27" s="723"/>
+      <c r="J27" s="723"/>
     </row>
     <row r="28" spans="1:10" ht="1.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="741"/>
+      <c r="A28" s="713"/>
       <c r="B28" s="717"/>
-      <c r="C28" s="718"/>
-      <c r="D28" s="715"/>
-      <c r="E28" s="720"/>
-      <c r="F28" s="720"/>
-      <c r="G28" s="718"/>
-      <c r="H28" s="718"/>
-      <c r="I28" s="720"/>
-      <c r="J28" s="720"/>
+      <c r="C28" s="729"/>
+      <c r="D28" s="749"/>
+      <c r="E28" s="724"/>
+      <c r="F28" s="724"/>
+      <c r="G28" s="729"/>
+      <c r="H28" s="729"/>
+      <c r="I28" s="724"/>
+      <c r="J28" s="724"/>
     </row>
     <row r="29" spans="1:10" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="741"/>
+      <c r="A29" s="713"/>
       <c r="B29" s="51" t="s">
         <v>27</v>
       </c>
@@ -11868,175 +11868,175 @@
       <c r="J29" s="36"/>
     </row>
     <row r="30" spans="1:10" s="45" customFormat="1" ht="27.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="740" t="s">
+      <c r="A30" s="712" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="716" t="s">
+      <c r="B30" s="722" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="764" t="s">
+      <c r="C30" s="750" t="s">
         <v>117</v>
       </c>
-      <c r="D30" s="764"/>
-      <c r="E30" s="743" t="s">
+      <c r="D30" s="750"/>
+      <c r="E30" s="751" t="s">
         <v>191</v>
       </c>
-      <c r="F30" s="743" t="s">
+      <c r="F30" s="751" t="s">
         <v>192</v>
       </c>
-      <c r="G30" s="765"/>
-      <c r="H30" s="721"/>
-      <c r="I30" s="765"/>
-      <c r="J30" s="721"/>
+      <c r="G30" s="752"/>
+      <c r="H30" s="754"/>
+      <c r="I30" s="752"/>
+      <c r="J30" s="754"/>
     </row>
     <row r="31" spans="1:10" s="45" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="741"/>
+      <c r="A31" s="713"/>
       <c r="B31" s="717"/>
-      <c r="C31" s="760"/>
-      <c r="D31" s="760"/>
-      <c r="E31" s="718"/>
-      <c r="F31" s="718"/>
-      <c r="G31" s="766"/>
-      <c r="H31" s="715"/>
-      <c r="I31" s="766"/>
-      <c r="J31" s="715"/>
+      <c r="C31" s="737"/>
+      <c r="D31" s="737"/>
+      <c r="E31" s="729"/>
+      <c r="F31" s="729"/>
+      <c r="G31" s="753"/>
+      <c r="H31" s="749"/>
+      <c r="I31" s="753"/>
+      <c r="J31" s="749"/>
     </row>
     <row r="32" spans="1:10" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="741"/>
-      <c r="B32" s="716" t="s">
+      <c r="A32" s="713"/>
+      <c r="B32" s="722" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="753" t="s">
+      <c r="C32" s="757" t="s">
         <v>119</v>
       </c>
-      <c r="D32" s="754"/>
-      <c r="E32" s="728" t="s">
+      <c r="D32" s="758"/>
+      <c r="E32" s="761" t="s">
         <v>193</v>
       </c>
-      <c r="F32" s="729"/>
-      <c r="G32" s="714"/>
-      <c r="H32" s="714"/>
-      <c r="I32" s="757" t="s">
+      <c r="F32" s="762"/>
+      <c r="G32" s="748"/>
+      <c r="H32" s="748"/>
+      <c r="I32" s="765" t="s">
         <v>194</v>
       </c>
-      <c r="J32" s="758"/>
+      <c r="J32" s="766"/>
     </row>
     <row r="33" spans="1:10" s="185" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="741"/>
+      <c r="A33" s="713"/>
       <c r="B33" s="717"/>
-      <c r="C33" s="755"/>
-      <c r="D33" s="756"/>
-      <c r="E33" s="730"/>
-      <c r="F33" s="731"/>
-      <c r="G33" s="715"/>
-      <c r="H33" s="715"/>
-      <c r="I33" s="757" t="s">
+      <c r="C33" s="759"/>
+      <c r="D33" s="760"/>
+      <c r="E33" s="763"/>
+      <c r="F33" s="764"/>
+      <c r="G33" s="749"/>
+      <c r="H33" s="749"/>
+      <c r="I33" s="765" t="s">
         <v>195</v>
       </c>
-      <c r="J33" s="758"/>
+      <c r="J33" s="766"/>
     </row>
     <row r="34" spans="1:10" ht="48.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="741"/>
-      <c r="B34" s="716" t="s">
+      <c r="A34" s="713"/>
+      <c r="B34" s="722" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="759"/>
-      <c r="D34" s="754" t="s">
+      <c r="C34" s="736"/>
+      <c r="D34" s="758" t="s">
         <v>118</v>
       </c>
-      <c r="E34" s="761" t="s">
+      <c r="E34" s="767" t="s">
         <v>192</v>
       </c>
-      <c r="F34" s="761" t="s">
+      <c r="F34" s="767" t="s">
         <v>191</v>
       </c>
       <c r="G34" s="272"/>
       <c r="H34" s="273"/>
-      <c r="I34" s="732" t="s">
+      <c r="I34" s="768" t="s">
         <v>196</v>
       </c>
-      <c r="J34" s="733"/>
+      <c r="J34" s="769"/>
     </row>
     <row r="35" spans="1:10" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="741"/>
+      <c r="A35" s="713"/>
       <c r="B35" s="717"/>
-      <c r="C35" s="760"/>
-      <c r="D35" s="756"/>
-      <c r="E35" s="718"/>
-      <c r="F35" s="718"/>
-      <c r="G35" s="762" t="s">
+      <c r="C35" s="737"/>
+      <c r="D35" s="760"/>
+      <c r="E35" s="729"/>
+      <c r="F35" s="729"/>
+      <c r="G35" s="772" t="s">
         <v>121</v>
       </c>
-      <c r="H35" s="763"/>
-      <c r="I35" s="734"/>
-      <c r="J35" s="735"/>
+      <c r="H35" s="773"/>
+      <c r="I35" s="770"/>
+      <c r="J35" s="771"/>
     </row>
     <row r="36" spans="1:10" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="741"/>
-      <c r="B36" s="716" t="s">
+      <c r="A36" s="713"/>
+      <c r="B36" s="722" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="714"/>
-      <c r="D36" s="714"/>
-      <c r="E36" s="714"/>
-      <c r="F36" s="712"/>
-      <c r="G36" s="767" t="s">
+      <c r="C36" s="748"/>
+      <c r="D36" s="748"/>
+      <c r="E36" s="748"/>
+      <c r="F36" s="728"/>
+      <c r="G36" s="755" t="s">
         <v>120</v>
       </c>
-      <c r="H36" s="768"/>
+      <c r="H36" s="756"/>
       <c r="I36" s="344" t="s">
         <v>197</v>
       </c>
       <c r="J36" s="216"/>
     </row>
     <row r="37" spans="1:10" s="45" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="741"/>
+      <c r="A37" s="713"/>
       <c r="B37" s="717"/>
-      <c r="C37" s="715"/>
-      <c r="D37" s="715"/>
-      <c r="E37" s="715"/>
-      <c r="F37" s="718"/>
-      <c r="G37" s="767" t="s">
+      <c r="C37" s="749"/>
+      <c r="D37" s="749"/>
+      <c r="E37" s="749"/>
+      <c r="F37" s="729"/>
+      <c r="G37" s="755" t="s">
         <v>115</v>
       </c>
-      <c r="H37" s="768"/>
+      <c r="H37" s="756"/>
       <c r="I37" s="344"/>
       <c r="J37" s="343" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="741"/>
-      <c r="B38" s="716" t="s">
+      <c r="A38" s="713"/>
+      <c r="B38" s="722" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="714"/>
-      <c r="D38" s="714"/>
-      <c r="E38" s="714"/>
-      <c r="F38" s="712"/>
-      <c r="G38" s="714"/>
-      <c r="H38" s="714"/>
+      <c r="C38" s="748"/>
+      <c r="D38" s="748"/>
+      <c r="E38" s="748"/>
+      <c r="F38" s="728"/>
+      <c r="G38" s="748"/>
+      <c r="H38" s="748"/>
       <c r="I38" s="344" t="s">
         <v>197</v>
       </c>
       <c r="J38" s="345"/>
     </row>
     <row r="39" spans="1:10" ht="37.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="741"/>
+      <c r="A39" s="713"/>
       <c r="B39" s="717"/>
-      <c r="C39" s="715"/>
-      <c r="D39" s="715"/>
-      <c r="E39" s="715"/>
-      <c r="F39" s="718"/>
-      <c r="G39" s="715"/>
-      <c r="H39" s="715"/>
+      <c r="C39" s="749"/>
+      <c r="D39" s="749"/>
+      <c r="E39" s="749"/>
+      <c r="F39" s="729"/>
+      <c r="G39" s="749"/>
+      <c r="H39" s="749"/>
       <c r="I39" s="346"/>
       <c r="J39" s="343" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="45.75" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="741"/>
+      <c r="A40" s="713"/>
       <c r="B40" s="51" t="s">
         <v>28</v>
       </c>
@@ -12050,7 +12050,7 @@
       <c r="J40" s="313"/>
     </row>
     <row r="41" spans="1:10" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="741"/>
+      <c r="A41" s="713"/>
       <c r="B41" s="51" t="s">
         <v>29</v>
       </c>
@@ -12064,173 +12064,173 @@
       <c r="J41" s="36"/>
     </row>
     <row r="42" spans="1:10" s="45" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="740" t="s">
+      <c r="A42" s="712" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="716" t="s">
+      <c r="B42" s="722" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="743"/>
-      <c r="D42" s="743"/>
-      <c r="E42" s="744" t="s">
+      <c r="C42" s="751"/>
+      <c r="D42" s="751"/>
+      <c r="E42" s="775" t="s">
         <v>198</v>
       </c>
-      <c r="F42" s="745"/>
-      <c r="G42" s="746" t="s">
+      <c r="F42" s="776"/>
+      <c r="G42" s="778" t="s">
         <v>73</v>
       </c>
-      <c r="H42" s="747"/>
-      <c r="I42" s="721"/>
-      <c r="J42" s="721"/>
+      <c r="H42" s="779"/>
+      <c r="I42" s="754"/>
+      <c r="J42" s="754"/>
     </row>
     <row r="43" spans="1:10" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="741"/>
+      <c r="A43" s="713"/>
       <c r="B43" s="717"/>
-      <c r="C43" s="718"/>
-      <c r="D43" s="718"/>
-      <c r="E43" s="720"/>
-      <c r="F43" s="727"/>
-      <c r="G43" s="748"/>
-      <c r="H43" s="749"/>
-      <c r="I43" s="715"/>
-      <c r="J43" s="715"/>
+      <c r="C43" s="729"/>
+      <c r="D43" s="729"/>
+      <c r="E43" s="724"/>
+      <c r="F43" s="777"/>
+      <c r="G43" s="780"/>
+      <c r="H43" s="781"/>
+      <c r="I43" s="749"/>
+      <c r="J43" s="749"/>
     </row>
     <row r="44" spans="1:10" s="45" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="741"/>
-      <c r="B44" s="716" t="s">
+      <c r="A44" s="713"/>
+      <c r="B44" s="722" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="722" t="s">
+      <c r="C44" s="783" t="s">
         <v>199</v>
       </c>
-      <c r="D44" s="723"/>
-      <c r="E44" s="719" t="s">
+      <c r="D44" s="784"/>
+      <c r="E44" s="782" t="s">
         <v>198</v>
       </c>
-      <c r="F44" s="726"/>
-      <c r="G44" s="728" t="s">
+      <c r="F44" s="787"/>
+      <c r="G44" s="761" t="s">
         <v>200</v>
       </c>
-      <c r="H44" s="729"/>
-      <c r="I44" s="732" t="s">
+      <c r="H44" s="762"/>
+      <c r="I44" s="768" t="s">
         <v>201</v>
       </c>
-      <c r="J44" s="733"/>
+      <c r="J44" s="769"/>
     </row>
     <row r="45" spans="1:10" s="45" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="741"/>
+      <c r="A45" s="713"/>
       <c r="B45" s="717"/>
-      <c r="C45" s="724"/>
-      <c r="D45" s="725"/>
-      <c r="E45" s="720"/>
-      <c r="F45" s="727"/>
-      <c r="G45" s="730"/>
-      <c r="H45" s="731"/>
-      <c r="I45" s="734"/>
-      <c r="J45" s="735"/>
+      <c r="C45" s="785"/>
+      <c r="D45" s="786"/>
+      <c r="E45" s="724"/>
+      <c r="F45" s="777"/>
+      <c r="G45" s="763"/>
+      <c r="H45" s="764"/>
+      <c r="I45" s="770"/>
+      <c r="J45" s="771"/>
     </row>
     <row r="46" spans="1:10" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="741"/>
-      <c r="B46" s="716" t="s">
+      <c r="A46" s="713"/>
+      <c r="B46" s="722" t="s">
         <v>25</v>
       </c>
-      <c r="C46" s="712" t="s">
+      <c r="C46" s="728" t="s">
         <v>174</v>
       </c>
-      <c r="D46" s="632" t="s">
+      <c r="D46" s="629" t="s">
         <v>170</v>
       </c>
-      <c r="E46" s="736" t="s">
+      <c r="E46" s="738" t="s">
         <v>202</v>
       </c>
-      <c r="F46" s="737"/>
-      <c r="G46" s="714"/>
-      <c r="H46" s="714"/>
+      <c r="F46" s="739"/>
+      <c r="G46" s="748"/>
+      <c r="H46" s="748"/>
       <c r="I46" s="349" t="s">
         <v>203</v>
       </c>
       <c r="J46" s="344"/>
     </row>
     <row r="47" spans="1:10" s="45" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="741"/>
-      <c r="B47" s="750"/>
-      <c r="C47" s="718"/>
-      <c r="D47" s="656"/>
-      <c r="E47" s="738"/>
-      <c r="F47" s="739"/>
-      <c r="G47" s="715"/>
-      <c r="H47" s="715"/>
+      <c r="A47" s="713"/>
+      <c r="B47" s="746"/>
+      <c r="C47" s="729"/>
+      <c r="D47" s="630"/>
+      <c r="E47" s="740"/>
+      <c r="F47" s="741"/>
+      <c r="G47" s="749"/>
+      <c r="H47" s="749"/>
       <c r="I47" s="313"/>
       <c r="J47" s="344" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="741"/>
-      <c r="B48" s="751" t="s">
+      <c r="A48" s="713"/>
+      <c r="B48" s="747" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="712" t="s">
+      <c r="C48" s="728" t="s">
         <v>174</v>
       </c>
-      <c r="D48" s="632" t="s">
+      <c r="D48" s="629" t="s">
         <v>170</v>
       </c>
-      <c r="E48" s="719"/>
-      <c r="F48" s="752" t="s">
+      <c r="E48" s="782"/>
+      <c r="F48" s="723" t="s">
         <v>198</v>
       </c>
-      <c r="G48" s="714"/>
-      <c r="H48" s="714"/>
+      <c r="G48" s="748"/>
+      <c r="H48" s="748"/>
       <c r="I48" s="344" t="s">
         <v>203</v>
       </c>
       <c r="J48" s="344"/>
     </row>
     <row r="49" spans="1:10" s="12" customFormat="1" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="741"/>
+      <c r="A49" s="713"/>
       <c r="B49" s="717"/>
-      <c r="C49" s="718"/>
-      <c r="D49" s="656"/>
-      <c r="E49" s="720"/>
-      <c r="F49" s="720"/>
-      <c r="G49" s="715"/>
-      <c r="H49" s="715"/>
+      <c r="C49" s="729"/>
+      <c r="D49" s="630"/>
+      <c r="E49" s="724"/>
+      <c r="F49" s="724"/>
+      <c r="G49" s="749"/>
+      <c r="H49" s="749"/>
       <c r="I49" s="271"/>
       <c r="J49" s="344" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="66.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="741"/>
-      <c r="B50" s="716" t="s">
+      <c r="A50" s="713"/>
+      <c r="B50" s="722" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="712"/>
-      <c r="D50" s="712"/>
-      <c r="E50" s="712"/>
-      <c r="F50" s="719" t="s">
+      <c r="C50" s="728"/>
+      <c r="D50" s="728"/>
+      <c r="E50" s="728"/>
+      <c r="F50" s="782" t="s">
         <v>198</v>
       </c>
-      <c r="G50" s="712"/>
-      <c r="H50" s="712"/>
-      <c r="I50" s="712"/>
-      <c r="J50" s="712"/>
+      <c r="G50" s="728"/>
+      <c r="H50" s="728"/>
+      <c r="I50" s="728"/>
+      <c r="J50" s="728"/>
     </row>
     <row r="51" spans="1:10" ht="31.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="741"/>
+      <c r="A51" s="713"/>
       <c r="B51" s="717"/>
-      <c r="C51" s="718"/>
-      <c r="D51" s="718"/>
-      <c r="E51" s="713"/>
-      <c r="F51" s="720"/>
-      <c r="G51" s="713"/>
-      <c r="H51" s="713"/>
-      <c r="I51" s="713"/>
-      <c r="J51" s="713"/>
+      <c r="C51" s="729"/>
+      <c r="D51" s="729"/>
+      <c r="E51" s="788"/>
+      <c r="F51" s="724"/>
+      <c r="G51" s="788"/>
+      <c r="H51" s="788"/>
+      <c r="I51" s="788"/>
+      <c r="J51" s="788"/>
     </row>
     <row r="52" spans="1:10" ht="41.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="741"/>
+      <c r="A52" s="713"/>
       <c r="B52" s="51" t="s">
         <v>28</v>
       </c>
@@ -12244,7 +12244,7 @@
       <c r="J52" s="15"/>
     </row>
     <row r="53" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="742"/>
+      <c r="A53" s="774"/>
       <c r="B53" s="51" t="s">
         <v>29</v>
       </c>
@@ -12272,6 +12272,132 @@
     </row>
   </sheetData>
   <mergeCells count="150">
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:H45"/>
+    <mergeCell ref="I44:J45"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="A42:A53"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:H43"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="I34:J35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="A30:A41"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:F24"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="C25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:J8"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="E9:F9"/>
     <mergeCell ref="A11:A21"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="B12:B13"/>
@@ -12296,132 +12422,6 @@
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:J8"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:F24"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="C25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="A30:A41"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="I34:J35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="A42:A53"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:H43"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:H45"/>
-    <mergeCell ref="I44:J45"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
   </mergeCells>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.19685039370078741" bottom="0.19685039370078741" header="0.11811023622047245" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
@@ -12460,69 +12460,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="29.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="818" t="s">
+      <c r="A1" s="822" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="819"/>
-      <c r="C1" s="819"/>
-      <c r="D1" s="819"/>
-      <c r="E1" s="819"/>
-      <c r="F1" s="819"/>
-      <c r="G1" s="819"/>
-      <c r="H1" s="819"/>
-      <c r="I1" s="819"/>
-      <c r="J1" s="819"/>
-      <c r="K1" s="819"/>
-      <c r="L1" s="819"/>
-      <c r="M1" s="820"/>
+      <c r="B1" s="823"/>
+      <c r="C1" s="823"/>
+      <c r="D1" s="823"/>
+      <c r="E1" s="823"/>
+      <c r="F1" s="823"/>
+      <c r="G1" s="823"/>
+      <c r="H1" s="823"/>
+      <c r="I1" s="823"/>
+      <c r="J1" s="823"/>
+      <c r="K1" s="823"/>
+      <c r="L1" s="823"/>
+      <c r="M1" s="824"/>
       <c r="N1" s="233"/>
       <c r="O1" s="403"/>
     </row>
     <row r="2" spans="1:17" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="404"/>
       <c r="B2" s="405"/>
-      <c r="C2" s="836" t="s">
+      <c r="C2" s="817" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="837"/>
-      <c r="E2" s="837"/>
-      <c r="F2" s="838"/>
-      <c r="G2" s="829"/>
-      <c r="H2" s="829"/>
-      <c r="I2" s="829"/>
-      <c r="J2" s="830"/>
-      <c r="K2" s="825" t="s">
+      <c r="D2" s="818"/>
+      <c r="E2" s="818"/>
+      <c r="F2" s="819"/>
+      <c r="G2" s="803"/>
+      <c r="H2" s="803"/>
+      <c r="I2" s="803"/>
+      <c r="J2" s="804"/>
+      <c r="K2" s="829" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="826"/>
-      <c r="M2" s="821" t="s">
+      <c r="L2" s="830"/>
+      <c r="M2" s="825" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="822"/>
-      <c r="O2" s="823"/>
+      <c r="N2" s="826"/>
+      <c r="O2" s="827"/>
     </row>
     <row r="3" spans="1:17" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="841" t="s">
+      <c r="A3" s="796" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="842"/>
+      <c r="B3" s="797"/>
       <c r="C3" s="219" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="827" t="s">
+      <c r="D3" s="815" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="828"/>
+      <c r="E3" s="816"/>
       <c r="F3" s="219" t="s">
         <v>90</v>
       </c>
       <c r="G3" s="219" t="s">
         <v>88</v>
       </c>
-      <c r="H3" s="827" t="s">
+      <c r="H3" s="815" t="s">
         <v>89</v>
       </c>
-      <c r="I3" s="828"/>
+      <c r="I3" s="816"/>
       <c r="J3" s="406" t="s">
         <v>91</v>
       </c>
@@ -12543,14 +12543,14 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="815" t="s">
+      <c r="A4" s="810" t="s">
         <v>93</v>
       </c>
       <c r="B4" s="408" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="794"/>
-      <c r="D4" s="796"/>
+      <c r="C4" s="800"/>
+      <c r="D4" s="801"/>
       <c r="E4" s="409"/>
       <c r="F4" s="332"/>
       <c r="G4" s="323"/>
@@ -12565,22 +12565,22 @@
       <c r="P4" s="3"/>
     </row>
     <row r="5" spans="1:17" s="185" customFormat="1" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="816"/>
-      <c r="B5" s="797" t="s">
+      <c r="A5" s="811"/>
+      <c r="B5" s="798" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="791" t="s">
+      <c r="C5" s="789" t="s">
         <v>129</v>
       </c>
-      <c r="D5" s="793"/>
+      <c r="D5" s="791"/>
       <c r="E5" s="409"/>
       <c r="F5" s="332"/>
-      <c r="G5" s="791" t="s">
+      <c r="G5" s="789" t="s">
         <v>449</v>
       </c>
-      <c r="H5" s="792"/>
-      <c r="I5" s="792"/>
-      <c r="J5" s="793"/>
+      <c r="H5" s="790"/>
+      <c r="I5" s="790"/>
+      <c r="J5" s="791"/>
       <c r="K5" s="222"/>
       <c r="L5" s="330"/>
       <c r="M5" s="222"/>
@@ -12589,16 +12589,16 @@
       <c r="P5" s="13"/>
     </row>
     <row r="6" spans="1:17" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="816"/>
-      <c r="B6" s="790"/>
-      <c r="C6" s="794"/>
-      <c r="D6" s="796"/>
+      <c r="A6" s="811"/>
+      <c r="B6" s="799"/>
+      <c r="C6" s="800"/>
+      <c r="D6" s="801"/>
       <c r="E6" s="105"/>
       <c r="F6" s="105"/>
-      <c r="G6" s="794"/>
-      <c r="H6" s="795"/>
-      <c r="I6" s="795"/>
-      <c r="J6" s="796"/>
+      <c r="G6" s="800"/>
+      <c r="H6" s="802"/>
+      <c r="I6" s="802"/>
+      <c r="J6" s="801"/>
       <c r="K6" s="410" t="s">
         <v>137</v>
       </c>
@@ -12608,45 +12608,45 @@
       <c r="O6" s="222"/>
     </row>
     <row r="7" spans="1:17" s="185" customFormat="1" ht="35.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="816"/>
-      <c r="B7" s="797" t="s">
+      <c r="A7" s="811"/>
+      <c r="B7" s="798" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="791" t="s">
+      <c r="C7" s="789" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="793"/>
-      <c r="E7" s="791" t="s">
+      <c r="D7" s="791"/>
+      <c r="E7" s="789" t="s">
         <v>138</v>
       </c>
-      <c r="F7" s="793"/>
-      <c r="G7" s="809" t="s">
+      <c r="F7" s="791"/>
+      <c r="G7" s="834" t="s">
         <v>158</v>
       </c>
-      <c r="H7" s="810"/>
-      <c r="I7" s="813" t="s">
+      <c r="H7" s="835"/>
+      <c r="I7" s="838" t="s">
         <v>158</v>
       </c>
-      <c r="J7" s="810"/>
-      <c r="K7" s="807" t="s">
+      <c r="J7" s="835"/>
+      <c r="K7" s="832" t="s">
         <v>137</v>
       </c>
-      <c r="L7" s="808"/>
+      <c r="L7" s="833"/>
       <c r="M7" s="105"/>
       <c r="N7" s="105"/>
       <c r="O7" s="222"/>
     </row>
     <row r="8" spans="1:17" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="816"/>
-      <c r="B8" s="798"/>
-      <c r="C8" s="794"/>
-      <c r="D8" s="796"/>
-      <c r="E8" s="794"/>
-      <c r="F8" s="796"/>
-      <c r="G8" s="811"/>
-      <c r="H8" s="812"/>
-      <c r="I8" s="814"/>
-      <c r="J8" s="812"/>
+      <c r="A8" s="811"/>
+      <c r="B8" s="844"/>
+      <c r="C8" s="800"/>
+      <c r="D8" s="801"/>
+      <c r="E8" s="800"/>
+      <c r="F8" s="801"/>
+      <c r="G8" s="836"/>
+      <c r="H8" s="837"/>
+      <c r="I8" s="839"/>
+      <c r="J8" s="837"/>
       <c r="K8" s="411"/>
       <c r="L8" s="410" t="s">
         <v>137</v>
@@ -12656,72 +12656,72 @@
       <c r="O8" s="222"/>
     </row>
     <row r="9" spans="1:17" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="816"/>
+      <c r="A9" s="811"/>
       <c r="B9" s="412" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="585" t="s">
+      <c r="C9" s="558" t="s">
         <v>138</v>
       </c>
-      <c r="D9" s="587"/>
-      <c r="E9" s="585" t="s">
+      <c r="D9" s="560"/>
+      <c r="E9" s="558" t="s">
         <v>129</v>
       </c>
-      <c r="F9" s="587"/>
+      <c r="F9" s="560"/>
       <c r="G9" s="413"/>
       <c r="H9" s="329"/>
       <c r="I9" s="329"/>
       <c r="J9" s="105"/>
-      <c r="K9" s="807" t="s">
+      <c r="K9" s="832" t="s">
         <v>130</v>
       </c>
-      <c r="L9" s="808"/>
+      <c r="L9" s="833"/>
       <c r="M9" s="411"/>
       <c r="N9" s="222"/>
       <c r="O9" s="222"/>
     </row>
     <row r="10" spans="1:17" s="185" customFormat="1" ht="39" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="816"/>
-      <c r="B10" s="797" t="s">
+      <c r="A10" s="811"/>
+      <c r="B10" s="798" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="329"/>
       <c r="D10" s="414"/>
-      <c r="E10" s="791" t="s">
+      <c r="E10" s="789" t="s">
         <v>129</v>
       </c>
-      <c r="F10" s="793"/>
+      <c r="F10" s="791"/>
       <c r="G10" s="413"/>
       <c r="H10" s="329"/>
       <c r="I10" s="329"/>
       <c r="J10" s="105"/>
-      <c r="K10" s="799" t="s">
+      <c r="K10" s="805" t="s">
         <v>418</v>
       </c>
-      <c r="L10" s="800"/>
+      <c r="L10" s="807"/>
       <c r="M10" s="415"/>
       <c r="N10" s="222"/>
       <c r="O10" s="222"/>
     </row>
     <row r="11" spans="1:17" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="816"/>
-      <c r="B11" s="790"/>
+      <c r="A11" s="811"/>
+      <c r="B11" s="799"/>
       <c r="C11" s="105"/>
       <c r="D11" s="413"/>
-      <c r="E11" s="794"/>
-      <c r="F11" s="796"/>
+      <c r="E11" s="800"/>
+      <c r="F11" s="801"/>
       <c r="G11" s="413"/>
       <c r="H11" s="329"/>
       <c r="I11" s="329"/>
       <c r="J11" s="105"/>
-      <c r="K11" s="801"/>
-      <c r="L11" s="802"/>
+      <c r="K11" s="840"/>
+      <c r="L11" s="841"/>
       <c r="M11" s="416"/>
       <c r="N11" s="222"/>
       <c r="O11" s="222"/>
     </row>
     <row r="12" spans="1:17" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="816"/>
+      <c r="A12" s="811"/>
       <c r="B12" s="417" t="s">
         <v>28</v>
       </c>
@@ -12742,20 +12742,20 @@
       <c r="Q12" s="218"/>
     </row>
     <row r="13" spans="1:17" ht="56.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="816" t="s">
+      <c r="A13" s="811" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="421" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="804" t="s">
+      <c r="C13" s="792" t="s">
         <v>140</v>
       </c>
-      <c r="D13" s="805"/>
-      <c r="E13" s="804" t="s">
+      <c r="D13" s="831"/>
+      <c r="E13" s="792" t="s">
         <v>141</v>
       </c>
-      <c r="F13" s="805"/>
+      <c r="F13" s="831"/>
       <c r="G13" s="332" t="s">
         <v>131</v>
       </c>
@@ -12774,21 +12774,21 @@
       <c r="Q13" s="336"/>
     </row>
     <row r="14" spans="1:17" s="185" customFormat="1" ht="60" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="816"/>
-      <c r="B14" s="797" t="s">
+      <c r="A14" s="811"/>
+      <c r="B14" s="798" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="585" t="s">
+      <c r="C14" s="558" t="s">
         <v>145</v>
       </c>
-      <c r="D14" s="586"/>
-      <c r="E14" s="586"/>
-      <c r="F14" s="587"/>
+      <c r="D14" s="559"/>
+      <c r="E14" s="559"/>
+      <c r="F14" s="560"/>
       <c r="G14" s="288"/>
-      <c r="H14" s="791" t="s">
+      <c r="H14" s="789" t="s">
         <v>131</v>
       </c>
-      <c r="I14" s="793"/>
+      <c r="I14" s="791"/>
       <c r="J14" s="425" t="s">
         <v>147</v>
       </c>
@@ -12805,19 +12805,19 @@
       <c r="Q14" s="222"/>
     </row>
     <row r="15" spans="1:17" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="816"/>
-      <c r="B15" s="790"/>
-      <c r="C15" s="585" t="s">
+      <c r="A15" s="811"/>
+      <c r="B15" s="799"/>
+      <c r="C15" s="558" t="s">
         <v>140</v>
       </c>
-      <c r="D15" s="587"/>
-      <c r="E15" s="586" t="s">
+      <c r="D15" s="560"/>
+      <c r="E15" s="559" t="s">
         <v>141</v>
       </c>
-      <c r="F15" s="587"/>
+      <c r="F15" s="560"/>
       <c r="G15" s="430"/>
-      <c r="H15" s="839"/>
-      <c r="I15" s="840"/>
+      <c r="H15" s="820"/>
+      <c r="I15" s="821"/>
       <c r="J15" s="105"/>
       <c r="K15" s="431" t="s">
         <v>148</v>
@@ -12830,21 +12830,21 @@
       <c r="O15" s="222"/>
     </row>
     <row r="16" spans="1:17" ht="55.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="816"/>
+      <c r="A16" s="811"/>
       <c r="B16" s="433" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="791" t="s">
+      <c r="C16" s="789" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="792"/>
-      <c r="E16" s="792"/>
-      <c r="F16" s="793"/>
-      <c r="G16" s="585" t="s">
+      <c r="D16" s="790"/>
+      <c r="E16" s="790"/>
+      <c r="F16" s="791"/>
+      <c r="G16" s="558" t="s">
         <v>132</v>
       </c>
-      <c r="H16" s="586"/>
-      <c r="I16" s="586"/>
+      <c r="H16" s="559"/>
+      <c r="I16" s="559"/>
       <c r="J16" s="332" t="s">
         <v>155</v>
       </c>
@@ -12859,20 +12859,20 @@
       <c r="O16" s="222"/>
     </row>
     <row r="17" spans="1:16" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="816"/>
+      <c r="A17" s="811"/>
       <c r="B17" s="412" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="413"/>
-      <c r="D17" s="585"/>
-      <c r="E17" s="587"/>
+      <c r="D17" s="558"/>
+      <c r="E17" s="560"/>
       <c r="F17" s="105"/>
-      <c r="G17" s="585" t="s">
+      <c r="G17" s="558" t="s">
         <v>331</v>
       </c>
-      <c r="H17" s="586"/>
-      <c r="I17" s="586"/>
-      <c r="J17" s="587"/>
+      <c r="H17" s="559"/>
+      <c r="I17" s="559"/>
+      <c r="J17" s="560"/>
       <c r="K17" s="222"/>
       <c r="L17" s="410"/>
       <c r="M17" s="410"/>
@@ -12880,20 +12880,20 @@
       <c r="O17" s="222"/>
     </row>
     <row r="18" spans="1:16" s="185" customFormat="1" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="816"/>
-      <c r="B18" s="797" t="s">
+      <c r="A18" s="811"/>
+      <c r="B18" s="798" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="413"/>
       <c r="D18" s="329"/>
       <c r="E18" s="330"/>
       <c r="F18" s="105"/>
-      <c r="G18" s="585" t="s">
+      <c r="G18" s="558" t="s">
         <v>331</v>
       </c>
-      <c r="H18" s="586"/>
-      <c r="I18" s="586"/>
-      <c r="J18" s="587"/>
+      <c r="H18" s="559"/>
+      <c r="I18" s="559"/>
+      <c r="J18" s="560"/>
       <c r="K18" s="222"/>
       <c r="L18" s="410"/>
       <c r="M18" s="410"/>
@@ -12901,11 +12901,11 @@
       <c r="O18" s="333"/>
     </row>
     <row r="19" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="816"/>
-      <c r="B19" s="790"/>
+      <c r="A19" s="811"/>
+      <c r="B19" s="799"/>
       <c r="C19" s="105"/>
-      <c r="D19" s="585"/>
-      <c r="E19" s="587"/>
+      <c r="D19" s="558"/>
+      <c r="E19" s="560"/>
       <c r="F19" s="105"/>
       <c r="G19" s="222"/>
       <c r="H19" s="329"/>
@@ -12919,13 +12919,13 @@
       <c r="P19" s="3"/>
     </row>
     <row r="20" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="816"/>
+      <c r="A20" s="811"/>
       <c r="B20" s="417" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="222"/>
-      <c r="D20" s="585"/>
-      <c r="E20" s="587"/>
+      <c r="D20" s="558"/>
+      <c r="E20" s="560"/>
       <c r="F20" s="330"/>
       <c r="G20" s="222"/>
       <c r="H20" s="222"/>
@@ -12938,13 +12938,13 @@
       <c r="O20" s="222"/>
     </row>
     <row r="21" spans="1:16" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="817"/>
+      <c r="A21" s="812"/>
       <c r="B21" s="434" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="419"/>
-      <c r="D21" s="843"/>
-      <c r="E21" s="844"/>
+      <c r="D21" s="794"/>
+      <c r="E21" s="795"/>
       <c r="F21" s="418"/>
       <c r="G21" s="435"/>
       <c r="H21" s="432"/>
@@ -12957,7 +12957,7 @@
       <c r="O21" s="419"/>
     </row>
     <row r="22" spans="1:16" ht="37.200000000000003" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="815" t="s">
+      <c r="A22" s="810" t="s">
         <v>78</v>
       </c>
       <c r="B22" s="408" t="s">
@@ -12966,15 +12966,15 @@
       <c r="C22" s="222" t="s">
         <v>133</v>
       </c>
-      <c r="D22" s="804"/>
-      <c r="E22" s="806"/>
+      <c r="D22" s="792"/>
+      <c r="E22" s="793"/>
       <c r="F22" s="261"/>
-      <c r="G22" s="804" t="s">
+      <c r="G22" s="792" t="s">
         <v>146</v>
       </c>
-      <c r="H22" s="805"/>
-      <c r="I22" s="805"/>
-      <c r="J22" s="806"/>
+      <c r="H22" s="831"/>
+      <c r="I22" s="831"/>
+      <c r="J22" s="793"/>
       <c r="K22" s="261"/>
       <c r="L22" s="261"/>
       <c r="M22" s="261"/>
@@ -12982,24 +12982,24 @@
       <c r="O22" s="261"/>
     </row>
     <row r="23" spans="1:16" ht="55.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="816"/>
+      <c r="A23" s="811"/>
       <c r="B23" s="433" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="222" t="s">
         <v>135</v>
       </c>
-      <c r="D23" s="585" t="s">
+      <c r="D23" s="558" t="s">
         <v>133</v>
       </c>
-      <c r="E23" s="587"/>
+      <c r="E23" s="560"/>
       <c r="F23" s="222" t="s">
         <v>145</v>
       </c>
-      <c r="G23" s="585" t="s">
+      <c r="G23" s="558" t="s">
         <v>146</v>
       </c>
-      <c r="H23" s="587"/>
+      <c r="H23" s="560"/>
       <c r="I23" s="329"/>
       <c r="J23" s="222"/>
       <c r="K23" s="464" t="s">
@@ -13010,24 +13010,24 @@
       <c r="O23" s="105"/>
     </row>
     <row r="24" spans="1:16" s="185" customFormat="1" ht="67.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="816"/>
-      <c r="B24" s="797" t="s">
+      <c r="A24" s="811"/>
+      <c r="B24" s="798" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="558" t="s">
+      <c r="C24" s="570" t="s">
         <v>145</v>
       </c>
-      <c r="D24" s="791" t="s">
+      <c r="D24" s="789" t="s">
         <v>135</v>
       </c>
-      <c r="E24" s="793"/>
-      <c r="F24" s="558" t="s">
+      <c r="E24" s="791"/>
+      <c r="F24" s="570" t="s">
         <v>133</v>
       </c>
-      <c r="G24" s="585" t="s">
+      <c r="G24" s="558" t="s">
         <v>146</v>
       </c>
-      <c r="H24" s="587"/>
+      <c r="H24" s="560"/>
       <c r="I24" s="329"/>
       <c r="J24" s="222"/>
       <c r="K24" s="463"/>
@@ -13040,18 +13040,18 @@
       <c r="P24" s="3"/>
     </row>
     <row r="25" spans="1:16" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="816"/>
-      <c r="B25" s="798"/>
-      <c r="C25" s="559"/>
-      <c r="D25" s="794"/>
-      <c r="E25" s="796"/>
-      <c r="F25" s="559"/>
+      <c r="A25" s="811"/>
+      <c r="B25" s="844"/>
+      <c r="C25" s="571"/>
+      <c r="D25" s="800"/>
+      <c r="E25" s="801"/>
+      <c r="F25" s="571"/>
       <c r="G25" s="329"/>
       <c r="H25" s="329"/>
-      <c r="I25" s="585" t="s">
+      <c r="I25" s="558" t="s">
         <v>151</v>
       </c>
-      <c r="J25" s="587"/>
+      <c r="J25" s="560"/>
       <c r="K25" s="222"/>
       <c r="L25" s="222"/>
       <c r="M25" s="329"/>
@@ -13060,44 +13060,44 @@
       <c r="P25" s="3"/>
     </row>
     <row r="26" spans="1:16" s="185" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="816"/>
-      <c r="B26" s="824" t="s">
+      <c r="A26" s="811"/>
+      <c r="B26" s="828" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="332"/>
-      <c r="D26" s="791" t="s">
+      <c r="D26" s="789" t="s">
         <v>145</v>
       </c>
-      <c r="E26" s="793"/>
-      <c r="F26" s="558" t="s">
+      <c r="E26" s="791"/>
+      <c r="F26" s="570" t="s">
         <v>135</v>
       </c>
       <c r="G26" s="329"/>
       <c r="H26" s="329"/>
-      <c r="I26" s="791" t="s">
+      <c r="I26" s="789" t="s">
         <v>152</v>
       </c>
-      <c r="J26" s="793"/>
-      <c r="K26" s="585" t="s">
+      <c r="J26" s="791"/>
+      <c r="K26" s="558" t="s">
         <v>153</v>
       </c>
-      <c r="L26" s="587"/>
+      <c r="L26" s="560"/>
       <c r="M26" s="329"/>
       <c r="N26" s="329"/>
       <c r="O26" s="330"/>
       <c r="P26" s="13"/>
     </row>
     <row r="27" spans="1:16" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="816"/>
-      <c r="B27" s="790"/>
+      <c r="A27" s="811"/>
+      <c r="B27" s="799"/>
       <c r="C27" s="222"/>
-      <c r="D27" s="794"/>
-      <c r="E27" s="796"/>
-      <c r="F27" s="559"/>
+      <c r="D27" s="800"/>
+      <c r="E27" s="801"/>
+      <c r="F27" s="571"/>
       <c r="G27" s="222"/>
       <c r="H27" s="329"/>
-      <c r="I27" s="794"/>
-      <c r="J27" s="796"/>
+      <c r="I27" s="800"/>
+      <c r="J27" s="801"/>
       <c r="K27" s="329"/>
       <c r="L27" s="329"/>
       <c r="M27" s="222"/>
@@ -13105,8 +13105,8 @@
       <c r="O27" s="105"/>
     </row>
     <row r="28" spans="1:16" s="185" customFormat="1" ht="47.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="816"/>
-      <c r="B28" s="797" t="s">
+      <c r="A28" s="811"/>
+      <c r="B28" s="798" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="222"/>
@@ -13117,7 +13117,7 @@
       <c r="H28" s="329"/>
       <c r="I28" s="222"/>
       <c r="J28" s="329"/>
-      <c r="K28" s="558" t="s">
+      <c r="K28" s="570" t="s">
         <v>157</v>
       </c>
       <c r="L28" s="414"/>
@@ -13127,17 +13127,17 @@
       <c r="P28" s="3"/>
     </row>
     <row r="29" spans="1:16" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="816"/>
-      <c r="B29" s="790"/>
+      <c r="A29" s="811"/>
+      <c r="B29" s="799"/>
       <c r="C29" s="222"/>
-      <c r="D29" s="585"/>
-      <c r="E29" s="587"/>
+      <c r="D29" s="558"/>
+      <c r="E29" s="560"/>
       <c r="F29" s="222"/>
       <c r="G29" s="222"/>
       <c r="H29" s="222"/>
       <c r="I29" s="222"/>
       <c r="J29" s="221"/>
-      <c r="K29" s="559"/>
+      <c r="K29" s="571"/>
       <c r="L29" s="330"/>
       <c r="M29" s="222"/>
       <c r="N29" s="221"/>
@@ -13145,53 +13145,53 @@
       <c r="P29" s="3"/>
     </row>
     <row r="30" spans="1:16" ht="73.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="816"/>
-      <c r="B30" s="834" t="s">
+      <c r="A30" s="811"/>
+      <c r="B30" s="813" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="105"/>
-      <c r="D30" s="585"/>
-      <c r="E30" s="587"/>
+      <c r="D30" s="558"/>
+      <c r="E30" s="560"/>
       <c r="F30" s="437"/>
       <c r="G30" s="105"/>
       <c r="H30" s="437"/>
       <c r="I30" s="437"/>
       <c r="J30" s="437"/>
       <c r="K30" s="330"/>
-      <c r="L30" s="558"/>
+      <c r="L30" s="570"/>
       <c r="M30" s="105"/>
       <c r="N30" s="437"/>
       <c r="O30" s="329"/>
       <c r="P30" s="307"/>
     </row>
     <row r="31" spans="1:16" ht="61.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="817"/>
-      <c r="B31" s="835"/>
+      <c r="A31" s="812"/>
+      <c r="B31" s="814"/>
       <c r="C31" s="419"/>
-      <c r="D31" s="843"/>
-      <c r="E31" s="844"/>
+      <c r="D31" s="794"/>
+      <c r="E31" s="795"/>
       <c r="F31" s="419"/>
       <c r="G31" s="419"/>
       <c r="H31" s="419"/>
       <c r="I31" s="419"/>
       <c r="J31" s="420"/>
       <c r="K31" s="419"/>
-      <c r="L31" s="803"/>
+      <c r="L31" s="842"/>
       <c r="M31" s="419"/>
       <c r="N31" s="420"/>
       <c r="O31" s="419"/>
       <c r="P31" s="306"/>
     </row>
     <row r="32" spans="1:16" ht="73.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="815" t="s">
+      <c r="A32" s="810" t="s">
         <v>79</v>
       </c>
       <c r="B32" s="433" t="s">
         <v>23</v>
       </c>
       <c r="C32" s="438"/>
-      <c r="D32" s="804"/>
-      <c r="E32" s="806"/>
+      <c r="D32" s="792"/>
+      <c r="E32" s="793"/>
       <c r="F32" s="262"/>
       <c r="G32" s="309"/>
       <c r="H32" s="309"/>
@@ -13206,16 +13206,16 @@
       <c r="O32" s="262"/>
     </row>
     <row r="33" spans="1:16" ht="78" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="816"/>
-      <c r="B33" s="797" t="s">
+      <c r="A33" s="811"/>
+      <c r="B33" s="798" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="791" t="s">
+      <c r="C33" s="789" t="s">
         <v>139</v>
       </c>
-      <c r="D33" s="792"/>
-      <c r="E33" s="792"/>
-      <c r="F33" s="793"/>
+      <c r="D33" s="790"/>
+      <c r="E33" s="790"/>
+      <c r="F33" s="791"/>
       <c r="G33" s="105"/>
       <c r="H33" s="437"/>
       <c r="I33" s="437"/>
@@ -13231,12 +13231,12 @@
       <c r="O33" s="334"/>
     </row>
     <row r="34" spans="1:16" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="816"/>
-      <c r="B34" s="790"/>
-      <c r="C34" s="794"/>
-      <c r="D34" s="795"/>
-      <c r="E34" s="795"/>
-      <c r="F34" s="796"/>
+      <c r="A34" s="811"/>
+      <c r="B34" s="799"/>
+      <c r="C34" s="800"/>
+      <c r="D34" s="802"/>
+      <c r="E34" s="802"/>
+      <c r="F34" s="801"/>
       <c r="G34" s="105"/>
       <c r="H34" s="437"/>
       <c r="I34" s="437"/>
@@ -13252,24 +13252,24 @@
       <c r="O34" s="222"/>
     </row>
     <row r="35" spans="1:16" s="185" customFormat="1" ht="41.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="816"/>
-      <c r="B35" s="797" t="s">
+      <c r="A35" s="811"/>
+      <c r="B35" s="798" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="791" t="s">
+      <c r="C35" s="789" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="792"/>
-      <c r="E35" s="792"/>
-      <c r="F35" s="793"/>
-      <c r="G35" s="585" t="s">
+      <c r="D35" s="790"/>
+      <c r="E35" s="790"/>
+      <c r="F35" s="791"/>
+      <c r="G35" s="558" t="s">
         <v>111</v>
       </c>
-      <c r="H35" s="586"/>
-      <c r="I35" s="586"/>
-      <c r="J35" s="587"/>
-      <c r="K35" s="558"/>
-      <c r="L35" s="558" t="s">
+      <c r="H35" s="559"/>
+      <c r="I35" s="559"/>
+      <c r="J35" s="560"/>
+      <c r="K35" s="570"/>
+      <c r="L35" s="570" t="s">
         <v>160</v>
       </c>
       <c r="M35" s="222"/>
@@ -13277,41 +13277,41 @@
       <c r="O35" s="222"/>
     </row>
     <row r="36" spans="1:16" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="816"/>
-      <c r="B36" s="790"/>
-      <c r="C36" s="794"/>
-      <c r="D36" s="795"/>
-      <c r="E36" s="795"/>
-      <c r="F36" s="796"/>
-      <c r="G36" s="585" t="s">
+      <c r="A36" s="811"/>
+      <c r="B36" s="799"/>
+      <c r="C36" s="800"/>
+      <c r="D36" s="802"/>
+      <c r="E36" s="802"/>
+      <c r="F36" s="801"/>
+      <c r="G36" s="558" t="s">
         <v>112</v>
       </c>
-      <c r="H36" s="586"/>
-      <c r="I36" s="586"/>
-      <c r="J36" s="587"/>
-      <c r="K36" s="559"/>
-      <c r="L36" s="559"/>
+      <c r="H36" s="559"/>
+      <c r="I36" s="559"/>
+      <c r="J36" s="560"/>
+      <c r="K36" s="571"/>
+      <c r="L36" s="571"/>
       <c r="M36" s="105"/>
       <c r="N36" s="105"/>
       <c r="O36" s="105"/>
     </row>
     <row r="37" spans="1:16" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="816"/>
-      <c r="B37" s="797" t="s">
+      <c r="A37" s="811"/>
+      <c r="B37" s="798" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="791" t="s">
+      <c r="C37" s="789" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="792"/>
-      <c r="E37" s="792"/>
-      <c r="F37" s="793"/>
-      <c r="G37" s="585" t="s">
+      <c r="D37" s="790"/>
+      <c r="E37" s="790"/>
+      <c r="F37" s="791"/>
+      <c r="G37" s="558" t="s">
         <v>95</v>
       </c>
-      <c r="H37" s="586"/>
-      <c r="I37" s="586"/>
-      <c r="J37" s="586"/>
+      <c r="H37" s="559"/>
+      <c r="I37" s="559"/>
+      <c r="J37" s="559"/>
       <c r="K37" s="105"/>
       <c r="L37" s="414"/>
       <c r="M37" s="222"/>
@@ -13319,18 +13319,18 @@
       <c r="O37" s="222"/>
     </row>
     <row r="38" spans="1:16" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="816"/>
-      <c r="B38" s="790"/>
-      <c r="C38" s="794"/>
-      <c r="D38" s="795"/>
-      <c r="E38" s="795"/>
-      <c r="F38" s="796"/>
-      <c r="G38" s="585" t="s">
+      <c r="A38" s="811"/>
+      <c r="B38" s="799"/>
+      <c r="C38" s="800"/>
+      <c r="D38" s="802"/>
+      <c r="E38" s="802"/>
+      <c r="F38" s="801"/>
+      <c r="G38" s="558" t="s">
         <v>110</v>
       </c>
-      <c r="H38" s="586"/>
-      <c r="I38" s="586"/>
-      <c r="J38" s="587"/>
+      <c r="H38" s="559"/>
+      <c r="I38" s="559"/>
+      <c r="J38" s="560"/>
       <c r="K38" s="437"/>
       <c r="L38" s="414"/>
       <c r="M38" s="329"/>
@@ -13339,20 +13339,20 @@
       <c r="P38" s="3"/>
     </row>
     <row r="39" spans="1:16" s="185" customFormat="1" ht="35.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="816"/>
+      <c r="A39" s="811"/>
       <c r="B39" s="408" t="s">
         <v>27</v>
       </c>
       <c r="C39" s="105"/>
-      <c r="D39" s="585"/>
-      <c r="E39" s="587"/>
+      <c r="D39" s="558"/>
+      <c r="E39" s="560"/>
       <c r="F39" s="105"/>
-      <c r="G39" s="799" t="s">
+      <c r="G39" s="805" t="s">
         <v>112</v>
       </c>
-      <c r="H39" s="831"/>
-      <c r="I39" s="831"/>
-      <c r="J39" s="800"/>
+      <c r="H39" s="806"/>
+      <c r="I39" s="806"/>
+      <c r="J39" s="807"/>
       <c r="K39" s="430"/>
       <c r="L39" s="430"/>
       <c r="M39" s="105"/>
@@ -13360,13 +13360,13 @@
       <c r="O39" s="105"/>
     </row>
     <row r="40" spans="1:16" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="816"/>
+      <c r="A40" s="811"/>
       <c r="B40" s="441" t="s">
         <v>28</v>
       </c>
       <c r="C40" s="105"/>
-      <c r="D40" s="585"/>
-      <c r="E40" s="587"/>
+      <c r="D40" s="558"/>
+      <c r="E40" s="560"/>
       <c r="F40" s="105"/>
       <c r="G40" s="442"/>
       <c r="H40" s="333"/>
@@ -13379,13 +13379,13 @@
       <c r="O40" s="222"/>
     </row>
     <row r="41" spans="1:16" ht="36" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="817"/>
+      <c r="A41" s="812"/>
       <c r="B41" s="417" t="s">
         <v>29</v>
       </c>
       <c r="C41" s="419"/>
-      <c r="D41" s="843"/>
-      <c r="E41" s="844"/>
+      <c r="D41" s="794"/>
+      <c r="E41" s="795"/>
       <c r="F41" s="418"/>
       <c r="G41" s="419"/>
       <c r="H41" s="419"/>
@@ -13398,14 +13398,14 @@
       <c r="O41" s="419"/>
     </row>
     <row r="42" spans="1:16" ht="67.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="832" t="s">
+      <c r="A42" s="808" t="s">
         <v>66</v>
       </c>
       <c r="B42" s="433" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="585"/>
-      <c r="D42" s="587"/>
+      <c r="C42" s="558"/>
+      <c r="D42" s="560"/>
       <c r="E42" s="437"/>
       <c r="F42" s="262"/>
       <c r="G42" s="438"/>
@@ -13421,22 +13421,22 @@
       <c r="O42" s="308"/>
     </row>
     <row r="43" spans="1:16" s="185" customFormat="1" ht="63" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="833"/>
-      <c r="B43" s="789" t="s">
+      <c r="A43" s="809"/>
+      <c r="B43" s="843" t="s">
         <v>24</v>
       </c>
-      <c r="C43" s="791" t="s">
+      <c r="C43" s="789" t="s">
         <v>142</v>
       </c>
-      <c r="D43" s="792"/>
-      <c r="E43" s="792"/>
-      <c r="F43" s="793"/>
-      <c r="G43" s="791" t="s">
+      <c r="D43" s="790"/>
+      <c r="E43" s="790"/>
+      <c r="F43" s="791"/>
+      <c r="G43" s="789" t="s">
         <v>328</v>
       </c>
-      <c r="H43" s="792"/>
-      <c r="I43" s="792"/>
-      <c r="J43" s="793"/>
+      <c r="H43" s="790"/>
+      <c r="I43" s="790"/>
+      <c r="J43" s="791"/>
       <c r="K43" s="332"/>
       <c r="L43" s="329" t="s">
         <v>333</v>
@@ -13446,16 +13446,16 @@
       <c r="O43" s="395"/>
     </row>
     <row r="44" spans="1:16" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="833"/>
-      <c r="B44" s="790"/>
-      <c r="C44" s="794"/>
-      <c r="D44" s="795"/>
-      <c r="E44" s="795"/>
-      <c r="F44" s="796"/>
-      <c r="G44" s="794"/>
-      <c r="H44" s="795"/>
-      <c r="I44" s="795"/>
-      <c r="J44" s="796"/>
+      <c r="A44" s="809"/>
+      <c r="B44" s="799"/>
+      <c r="C44" s="800"/>
+      <c r="D44" s="802"/>
+      <c r="E44" s="802"/>
+      <c r="F44" s="801"/>
+      <c r="G44" s="800"/>
+      <c r="H44" s="802"/>
+      <c r="I44" s="802"/>
+      <c r="J44" s="801"/>
       <c r="K44" s="105"/>
       <c r="L44" s="329" t="s">
         <v>314</v>
@@ -13465,16 +13465,16 @@
       <c r="O44" s="263"/>
     </row>
     <row r="45" spans="1:16" ht="55.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="833"/>
+      <c r="A45" s="809"/>
       <c r="B45" s="445" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="585" t="s">
+      <c r="C45" s="558" t="s">
         <v>134</v>
       </c>
-      <c r="D45" s="586"/>
-      <c r="E45" s="586"/>
-      <c r="F45" s="587"/>
+      <c r="D45" s="559"/>
+      <c r="E45" s="559"/>
+      <c r="F45" s="560"/>
       <c r="G45" s="442"/>
       <c r="H45" s="333"/>
       <c r="I45" s="442"/>
@@ -13488,16 +13488,16 @@
       <c r="O45" s="263"/>
     </row>
     <row r="46" spans="1:16" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="833"/>
+      <c r="A46" s="809"/>
       <c r="B46" s="412" t="s">
         <v>26</v>
       </c>
-      <c r="C46" s="791" t="s">
+      <c r="C46" s="789" t="s">
         <v>144</v>
       </c>
-      <c r="D46" s="792"/>
-      <c r="E46" s="792"/>
-      <c r="F46" s="793"/>
+      <c r="D46" s="790"/>
+      <c r="E46" s="790"/>
+      <c r="F46" s="791"/>
       <c r="G46" s="222"/>
       <c r="H46" s="334"/>
       <c r="I46" s="222"/>
@@ -13511,21 +13511,21 @@
       <c r="O46" s="221"/>
     </row>
     <row r="47" spans="1:16" s="185" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="833"/>
-      <c r="B47" s="834" t="s">
+      <c r="A47" s="809"/>
+      <c r="B47" s="813" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="585" t="s">
+      <c r="C47" s="558" t="s">
         <v>143</v>
       </c>
-      <c r="D47" s="586"/>
-      <c r="E47" s="586"/>
-      <c r="F47" s="587"/>
+      <c r="D47" s="559"/>
+      <c r="E47" s="559"/>
+      <c r="F47" s="560"/>
       <c r="G47" s="442"/>
       <c r="H47" s="333"/>
       <c r="I47" s="442"/>
       <c r="J47" s="333"/>
-      <c r="K47" s="791" t="s">
+      <c r="K47" s="789" t="s">
         <v>167</v>
       </c>
       <c r="L47" s="222"/>
@@ -13535,8 +13535,8 @@
       <c r="P47" s="3"/>
     </row>
     <row r="48" spans="1:16" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="833"/>
-      <c r="B48" s="835"/>
+      <c r="A48" s="809"/>
+      <c r="B48" s="814"/>
       <c r="C48" s="413"/>
       <c r="D48" s="440"/>
       <c r="E48" s="440"/>
@@ -13545,7 +13545,7 @@
       <c r="H48" s="334"/>
       <c r="I48" s="222"/>
       <c r="J48" s="221"/>
-      <c r="K48" s="794"/>
+      <c r="K48" s="800"/>
       <c r="L48" s="260"/>
       <c r="M48" s="221"/>
       <c r="N48" s="334"/>
@@ -13585,13 +13585,76 @@
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="G43:J44"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:D6"/>
+    <mergeCell ref="G5:J6"/>
+    <mergeCell ref="C43:F44"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="K10:L11"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="I26:J27"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="I7:J8"/>
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D24:E25"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="A42:A48"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H14:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B30:B31"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="C4:D4"/>
@@ -13608,76 +13671,13 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D26:E27"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="A42:A48"/>
-    <mergeCell ref="A32:A41"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H14:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A22:A31"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D24:E25"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="A4:A12"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="I7:J8"/>
-    <mergeCell ref="K10:L11"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="I26:J27"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="G43:J44"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:D6"/>
-    <mergeCell ref="G5:J6"/>
-    <mergeCell ref="C43:F44"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId1"/>
@@ -13708,53 +13708,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="876" t="s">
+      <c r="A1" s="845" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="876"/>
-      <c r="C1" s="876"/>
-      <c r="D1" s="876"/>
-      <c r="E1" s="876"/>
-      <c r="F1" s="876"/>
-      <c r="G1" s="876"/>
-      <c r="H1" s="876"/>
-      <c r="I1" s="876"/>
+      <c r="B1" s="845"/>
+      <c r="C1" s="845"/>
+      <c r="D1" s="845"/>
+      <c r="E1" s="845"/>
+      <c r="F1" s="845"/>
+      <c r="G1" s="845"/>
+      <c r="H1" s="845"/>
+      <c r="I1" s="845"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="877"/>
-      <c r="B2" s="877"/>
-      <c r="C2" s="877"/>
-      <c r="D2" s="877"/>
-      <c r="E2" s="877"/>
-      <c r="F2" s="877"/>
-      <c r="G2" s="877"/>
-      <c r="H2" s="877"/>
-      <c r="I2" s="877"/>
+      <c r="A2" s="846"/>
+      <c r="B2" s="846"/>
+      <c r="C2" s="846"/>
+      <c r="D2" s="846"/>
+      <c r="E2" s="846"/>
+      <c r="F2" s="846"/>
+      <c r="G2" s="846"/>
+      <c r="H2" s="846"/>
+      <c r="I2" s="846"/>
     </row>
     <row r="3" spans="1:9" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="276"/>
       <c r="B3" s="278"/>
-      <c r="C3" s="837" t="s">
+      <c r="C3" s="818" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="838"/>
+      <c r="D3" s="819"/>
       <c r="E3" s="318" t="s">
         <v>105</v>
       </c>
-      <c r="F3" s="836" t="s">
+      <c r="F3" s="817" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="838"/>
-      <c r="H3" s="836" t="s">
+      <c r="G3" s="819"/>
+      <c r="H3" s="817" t="s">
         <v>106</v>
       </c>
-      <c r="I3" s="838"/>
+      <c r="I3" s="819"/>
     </row>
     <row r="4" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="827" t="s">
+      <c r="A4" s="815" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="828"/>
+      <c r="B4" s="816"/>
       <c r="C4" s="219">
         <v>1</v>
       </c>
@@ -13778,83 +13778,83 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="42" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="878" t="s">
+      <c r="A5" s="851" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="697" t="s">
+      <c r="B5" s="696" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="881"/>
-      <c r="D5" s="854"/>
+      <c r="C5" s="854"/>
+      <c r="D5" s="855"/>
       <c r="E5" s="390" t="s">
         <v>260</v>
       </c>
-      <c r="F5" s="882"/>
-      <c r="G5" s="883"/>
-      <c r="H5" s="881"/>
-      <c r="I5" s="854"/>
+      <c r="F5" s="856"/>
+      <c r="G5" s="857"/>
+      <c r="H5" s="854"/>
+      <c r="I5" s="855"/>
     </row>
     <row r="6" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="879"/>
-      <c r="B6" s="848"/>
-      <c r="C6" s="855"/>
-      <c r="D6" s="856"/>
+      <c r="A6" s="852"/>
+      <c r="B6" s="847"/>
+      <c r="C6" s="849"/>
+      <c r="D6" s="850"/>
       <c r="E6" s="327"/>
-      <c r="F6" s="778" t="s">
+      <c r="F6" s="732" t="s">
         <v>261</v>
       </c>
-      <c r="G6" s="779"/>
-      <c r="H6" s="855"/>
-      <c r="I6" s="856"/>
+      <c r="G6" s="733"/>
+      <c r="H6" s="849"/>
+      <c r="I6" s="850"/>
     </row>
     <row r="7" spans="1:9" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="879"/>
-      <c r="B7" s="697" t="s">
+      <c r="A7" s="852"/>
+      <c r="B7" s="696" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="638" t="s">
+      <c r="C7" s="670" t="s">
         <v>262</v>
       </c>
-      <c r="D7" s="860"/>
-      <c r="E7" s="712" t="s">
+      <c r="D7" s="848"/>
+      <c r="E7" s="728" t="s">
         <v>263</v>
       </c>
       <c r="F7" s="327"/>
       <c r="G7" s="328"/>
-      <c r="H7" s="778" t="s">
+      <c r="H7" s="732" t="s">
         <v>264</v>
       </c>
-      <c r="I7" s="773"/>
+      <c r="I7" s="745"/>
     </row>
     <row r="8" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="879"/>
-      <c r="B8" s="848"/>
-      <c r="C8" s="855"/>
-      <c r="D8" s="856"/>
-      <c r="E8" s="861"/>
-      <c r="F8" s="778" t="s">
+      <c r="A8" s="852"/>
+      <c r="B8" s="847"/>
+      <c r="C8" s="849"/>
+      <c r="D8" s="850"/>
+      <c r="E8" s="858"/>
+      <c r="F8" s="732" t="s">
         <v>265</v>
       </c>
-      <c r="G8" s="779"/>
-      <c r="H8" s="778" t="s">
+      <c r="G8" s="733"/>
+      <c r="H8" s="732" t="s">
         <v>266</v>
       </c>
-      <c r="I8" s="773"/>
+      <c r="I8" s="745"/>
     </row>
     <row r="9" spans="1:9" ht="56.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="879"/>
-      <c r="B9" s="697" t="s">
+      <c r="A9" s="852"/>
+      <c r="B9" s="696" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="638" t="s">
+      <c r="C9" s="670" t="s">
         <v>262</v>
       </c>
-      <c r="D9" s="860"/>
+      <c r="D9" s="848"/>
       <c r="E9" s="324" t="s">
         <v>267</v>
       </c>
-      <c r="F9" s="722"/>
-      <c r="G9" s="723"/>
+      <c r="F9" s="783"/>
+      <c r="G9" s="784"/>
       <c r="H9" s="324" t="s">
         <v>268</v>
       </c>
@@ -13863,15 +13863,15 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="879"/>
-      <c r="B10" s="848"/>
-      <c r="C10" s="855"/>
-      <c r="D10" s="856"/>
+      <c r="A10" s="852"/>
+      <c r="B10" s="847"/>
+      <c r="C10" s="849"/>
+      <c r="D10" s="850"/>
       <c r="E10" s="324" t="s">
         <v>270</v>
       </c>
-      <c r="F10" s="724"/>
-      <c r="G10" s="725"/>
+      <c r="F10" s="785"/>
+      <c r="G10" s="786"/>
       <c r="H10" s="324" t="s">
         <v>269</v>
       </c>
@@ -13880,88 +13880,88 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="47.4" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="879"/>
-      <c r="B11" s="697" t="s">
+      <c r="A11" s="852"/>
+      <c r="B11" s="696" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="638" t="s">
+      <c r="C11" s="670" t="s">
         <v>262</v>
       </c>
-      <c r="D11" s="860"/>
+      <c r="D11" s="848"/>
       <c r="E11" s="324"/>
-      <c r="F11" s="722"/>
-      <c r="G11" s="860"/>
+      <c r="F11" s="783"/>
+      <c r="G11" s="848"/>
       <c r="H11" s="324" t="s">
         <v>268</v>
       </c>
       <c r="I11" s="324"/>
     </row>
     <row r="12" spans="1:9" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="879"/>
-      <c r="B12" s="848"/>
-      <c r="C12" s="855"/>
-      <c r="D12" s="856"/>
+      <c r="A12" s="852"/>
+      <c r="B12" s="847"/>
+      <c r="C12" s="849"/>
+      <c r="D12" s="850"/>
       <c r="E12" s="324" t="s">
         <v>270</v>
       </c>
-      <c r="F12" s="855"/>
-      <c r="G12" s="856"/>
+      <c r="F12" s="849"/>
+      <c r="G12" s="850"/>
       <c r="H12" s="324"/>
       <c r="I12" s="324" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="880"/>
+      <c r="A13" s="853"/>
       <c r="B13" s="323" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="869"/>
-      <c r="D13" s="870"/>
+      <c r="C13" s="859"/>
+      <c r="D13" s="860"/>
       <c r="E13" s="230"/>
-      <c r="F13" s="869"/>
-      <c r="G13" s="871"/>
-      <c r="H13" s="869"/>
-      <c r="I13" s="871"/>
+      <c r="F13" s="859"/>
+      <c r="G13" s="861"/>
+      <c r="H13" s="859"/>
+      <c r="I13" s="861"/>
     </row>
     <row r="14" spans="1:9" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="845" t="s">
+      <c r="A14" s="862" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="697" t="s">
+      <c r="B14" s="696" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="862"/>
-      <c r="D14" s="854"/>
-      <c r="E14" s="743"/>
-      <c r="F14" s="872"/>
-      <c r="G14" s="873"/>
-      <c r="H14" s="862"/>
-      <c r="I14" s="854"/>
+      <c r="C14" s="864"/>
+      <c r="D14" s="855"/>
+      <c r="E14" s="751"/>
+      <c r="F14" s="865"/>
+      <c r="G14" s="866"/>
+      <c r="H14" s="864"/>
+      <c r="I14" s="855"/>
     </row>
     <row r="15" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="846"/>
-      <c r="B15" s="848"/>
-      <c r="C15" s="855"/>
-      <c r="D15" s="856"/>
-      <c r="E15" s="861"/>
-      <c r="F15" s="724" t="s">
+      <c r="A15" s="863"/>
+      <c r="B15" s="847"/>
+      <c r="C15" s="849"/>
+      <c r="D15" s="850"/>
+      <c r="E15" s="858"/>
+      <c r="F15" s="785" t="s">
         <v>271</v>
       </c>
-      <c r="G15" s="725"/>
-      <c r="H15" s="855"/>
-      <c r="I15" s="856"/>
+      <c r="G15" s="786"/>
+      <c r="H15" s="849"/>
+      <c r="I15" s="850"/>
     </row>
     <row r="16" spans="1:9" ht="75.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="846"/>
-      <c r="B16" s="697" t="s">
+      <c r="A16" s="863"/>
+      <c r="B16" s="696" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="778" t="s">
+      <c r="C16" s="732" t="s">
         <v>272</v>
       </c>
-      <c r="D16" s="773"/>
-      <c r="E16" s="712" t="s">
+      <c r="D16" s="745"/>
+      <c r="E16" s="728" t="s">
         <v>273</v>
       </c>
       <c r="F16" s="325" t="s">
@@ -13970,42 +13970,42 @@
       <c r="G16" s="325" t="s">
         <v>275</v>
       </c>
-      <c r="H16" s="778" t="s">
+      <c r="H16" s="732" t="s">
         <v>276</v>
       </c>
-      <c r="I16" s="779"/>
+      <c r="I16" s="733"/>
     </row>
     <row r="17" spans="1:9" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="846"/>
-      <c r="B17" s="848"/>
-      <c r="C17" s="778" t="s">
+      <c r="A17" s="863"/>
+      <c r="B17" s="847"/>
+      <c r="C17" s="732" t="s">
         <v>277</v>
       </c>
-      <c r="D17" s="773"/>
-      <c r="E17" s="861"/>
+      <c r="D17" s="745"/>
+      <c r="E17" s="858"/>
       <c r="F17" s="234" t="s">
         <v>275</v>
       </c>
       <c r="G17" s="325" t="s">
         <v>274</v>
       </c>
-      <c r="H17" s="778" t="s">
+      <c r="H17" s="732" t="s">
         <v>278</v>
       </c>
-      <c r="I17" s="779"/>
+      <c r="I17" s="733"/>
     </row>
     <row r="18" spans="1:9" ht="83.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="846"/>
-      <c r="B18" s="697" t="s">
+      <c r="A18" s="863"/>
+      <c r="B18" s="696" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="874" t="s">
+      <c r="C18" s="867" t="s">
         <v>279</v>
       </c>
-      <c r="D18" s="712" t="s">
+      <c r="D18" s="728" t="s">
         <v>280</v>
       </c>
-      <c r="E18" s="712" t="s">
+      <c r="E18" s="728" t="s">
         <v>281</v>
       </c>
       <c r="F18" s="325" t="s">
@@ -14014,73 +14014,73 @@
       <c r="G18" s="234" t="s">
         <v>275</v>
       </c>
-      <c r="H18" s="722" t="s">
+      <c r="H18" s="783" t="s">
         <v>282</v>
       </c>
-      <c r="I18" s="723"/>
+      <c r="I18" s="784"/>
     </row>
     <row r="19" spans="1:9" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="846"/>
-      <c r="B19" s="848"/>
-      <c r="C19" s="875"/>
-      <c r="D19" s="861"/>
-      <c r="E19" s="861"/>
+      <c r="A19" s="863"/>
+      <c r="B19" s="847"/>
+      <c r="C19" s="868"/>
+      <c r="D19" s="858"/>
+      <c r="E19" s="858"/>
       <c r="F19" s="234" t="s">
         <v>275</v>
       </c>
       <c r="G19" s="325" t="s">
         <v>274</v>
       </c>
-      <c r="H19" s="724"/>
-      <c r="I19" s="725"/>
+      <c r="H19" s="785"/>
+      <c r="I19" s="786"/>
     </row>
     <row r="20" spans="1:9" ht="50.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="846"/>
-      <c r="B20" s="697" t="s">
+      <c r="A20" s="863"/>
+      <c r="B20" s="696" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="712" t="s">
+      <c r="C20" s="728" t="s">
         <v>280</v>
       </c>
-      <c r="D20" s="712" t="s">
+      <c r="D20" s="728" t="s">
         <v>283</v>
       </c>
-      <c r="E20" s="712" t="s">
+      <c r="E20" s="728" t="s">
         <v>284</v>
       </c>
-      <c r="F20" s="778" t="s">
+      <c r="F20" s="732" t="s">
         <v>285</v>
       </c>
-      <c r="G20" s="779"/>
-      <c r="H20" s="722"/>
-      <c r="I20" s="860"/>
+      <c r="G20" s="733"/>
+      <c r="H20" s="783"/>
+      <c r="I20" s="848"/>
     </row>
     <row r="21" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="846"/>
-      <c r="B21" s="848"/>
-      <c r="C21" s="861"/>
-      <c r="D21" s="861"/>
-      <c r="E21" s="861"/>
-      <c r="F21" s="778"/>
-      <c r="G21" s="779"/>
-      <c r="H21" s="855"/>
-      <c r="I21" s="856"/>
+      <c r="A21" s="863"/>
+      <c r="B21" s="847"/>
+      <c r="C21" s="858"/>
+      <c r="D21" s="858"/>
+      <c r="E21" s="858"/>
+      <c r="F21" s="732"/>
+      <c r="G21" s="733"/>
+      <c r="H21" s="849"/>
+      <c r="I21" s="850"/>
     </row>
     <row r="22" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="846"/>
+      <c r="A22" s="863"/>
       <c r="B22" s="323" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="869"/>
-      <c r="D22" s="870"/>
+      <c r="C22" s="859"/>
+      <c r="D22" s="860"/>
       <c r="E22" s="324"/>
-      <c r="F22" s="869"/>
-      <c r="G22" s="871"/>
-      <c r="H22" s="869"/>
-      <c r="I22" s="871"/>
+      <c r="F22" s="859"/>
+      <c r="G22" s="861"/>
+      <c r="H22" s="859"/>
+      <c r="I22" s="861"/>
     </row>
     <row r="23" spans="1:9" s="185" customFormat="1" ht="45.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="845" t="s">
+      <c r="A23" s="862" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="219" t="s">
@@ -14097,53 +14097,53 @@
       <c r="I23" s="280"/>
     </row>
     <row r="24" spans="1:9" ht="46.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="846"/>
-      <c r="B24" s="697" t="s">
+      <c r="A24" s="863"/>
+      <c r="B24" s="696" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="722" t="s">
+      <c r="C24" s="783" t="s">
         <v>258</v>
       </c>
-      <c r="D24" s="860"/>
-      <c r="E24" s="712" t="s">
+      <c r="D24" s="848"/>
+      <c r="E24" s="728" t="s">
         <v>287</v>
       </c>
-      <c r="F24" s="778" t="s">
+      <c r="F24" s="732" t="s">
         <v>288</v>
       </c>
-      <c r="G24" s="773"/>
-      <c r="H24" s="722" t="s">
+      <c r="G24" s="745"/>
+      <c r="H24" s="783" t="s">
         <v>289</v>
       </c>
-      <c r="I24" s="860"/>
+      <c r="I24" s="848"/>
     </row>
     <row r="25" spans="1:9" s="185" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="846"/>
-      <c r="B25" s="848"/>
-      <c r="C25" s="855"/>
-      <c r="D25" s="856"/>
-      <c r="E25" s="861"/>
-      <c r="F25" s="778" t="s">
+      <c r="A25" s="863"/>
+      <c r="B25" s="847"/>
+      <c r="C25" s="849"/>
+      <c r="D25" s="850"/>
+      <c r="E25" s="858"/>
+      <c r="F25" s="732" t="s">
         <v>290</v>
       </c>
-      <c r="G25" s="779"/>
-      <c r="H25" s="855"/>
-      <c r="I25" s="856"/>
+      <c r="G25" s="733"/>
+      <c r="H25" s="849"/>
+      <c r="I25" s="850"/>
     </row>
     <row r="26" spans="1:9" s="185" customFormat="1" ht="45.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="846"/>
+      <c r="A26" s="863"/>
       <c r="B26" s="391"/>
-      <c r="C26" s="712"/>
-      <c r="D26" s="712" t="s">
+      <c r="C26" s="728"/>
+      <c r="D26" s="728" t="s">
         <v>286</v>
       </c>
       <c r="E26" s="324" t="s">
         <v>291</v>
       </c>
-      <c r="F26" s="712" t="s">
+      <c r="F26" s="728" t="s">
         <v>292</v>
       </c>
-      <c r="G26" s="712" t="s">
+      <c r="G26" s="728" t="s">
         <v>293</v>
       </c>
       <c r="H26" s="324" t="s">
@@ -14152,34 +14152,34 @@
       <c r="I26" s="324"/>
     </row>
     <row r="27" spans="1:9" s="185" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="846"/>
+      <c r="A27" s="863"/>
       <c r="B27" s="391" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="861"/>
-      <c r="D27" s="861"/>
+      <c r="C27" s="858"/>
+      <c r="D27" s="858"/>
       <c r="E27" s="324"/>
-      <c r="F27" s="718"/>
-      <c r="G27" s="718"/>
+      <c r="F27" s="729"/>
+      <c r="G27" s="729"/>
       <c r="H27" s="324"/>
       <c r="I27" s="324" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="87.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="846"/>
-      <c r="B28" s="697" t="s">
+      <c r="A28" s="863"/>
+      <c r="B28" s="696" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="778" t="s">
+      <c r="C28" s="732" t="s">
         <v>295</v>
       </c>
-      <c r="D28" s="779"/>
-      <c r="E28" s="712"/>
-      <c r="F28" s="714" t="s">
+      <c r="D28" s="733"/>
+      <c r="E28" s="728"/>
+      <c r="F28" s="748" t="s">
         <v>293</v>
       </c>
-      <c r="G28" s="712" t="s">
+      <c r="G28" s="728" t="s">
         <v>292</v>
       </c>
       <c r="H28" s="324" t="s">
@@ -14188,20 +14188,20 @@
       <c r="I28" s="324"/>
     </row>
     <row r="29" spans="1:9" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="846"/>
-      <c r="B29" s="698"/>
-      <c r="C29" s="778"/>
-      <c r="D29" s="779"/>
-      <c r="E29" s="718"/>
-      <c r="F29" s="715"/>
-      <c r="G29" s="718"/>
+      <c r="A29" s="863"/>
+      <c r="B29" s="697"/>
+      <c r="C29" s="732"/>
+      <c r="D29" s="733"/>
+      <c r="E29" s="729"/>
+      <c r="F29" s="749"/>
+      <c r="G29" s="729"/>
       <c r="H29" s="324"/>
       <c r="I29" s="324" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="846"/>
+      <c r="A30" s="863"/>
       <c r="B30" s="219" t="s">
         <v>27</v>
       </c>
@@ -14214,7 +14214,7 @@
       <c r="I30" s="324"/>
     </row>
     <row r="31" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="846"/>
+      <c r="A31" s="863"/>
       <c r="B31" s="219" t="s">
         <v>28</v>
       </c>
@@ -14227,7 +14227,7 @@
       <c r="I31" s="324"/>
     </row>
     <row r="32" spans="1:9" ht="99.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="845" t="s">
+      <c r="A32" s="862" t="s">
         <v>4</v>
       </c>
       <c r="B32" s="391" t="s">
@@ -14240,89 +14240,89 @@
       <c r="E32" s="279"/>
       <c r="F32" s="279"/>
       <c r="G32" s="279"/>
-      <c r="H32" s="862"/>
-      <c r="I32" s="863"/>
+      <c r="H32" s="864"/>
+      <c r="I32" s="869"/>
     </row>
     <row r="33" spans="1:9" ht="113.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="846"/>
+      <c r="A33" s="863"/>
       <c r="B33" s="219" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="778" t="s">
+      <c r="C33" s="732" t="s">
         <v>299</v>
       </c>
-      <c r="D33" s="773"/>
+      <c r="D33" s="745"/>
       <c r="E33" s="10" t="s">
         <v>300</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
-      <c r="H33" s="778"/>
-      <c r="I33" s="779"/>
+      <c r="H33" s="732"/>
+      <c r="I33" s="733"/>
     </row>
     <row r="34" spans="1:9" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="846"/>
-      <c r="B34" s="697" t="s">
+      <c r="A34" s="863"/>
+      <c r="B34" s="696" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="712"/>
-      <c r="D34" s="712" t="s">
+      <c r="C34" s="728"/>
+      <c r="D34" s="728" t="s">
         <v>298</v>
       </c>
-      <c r="E34" s="864" t="s">
+      <c r="E34" s="870" t="s">
         <v>301</v>
       </c>
       <c r="F34" s="392"/>
       <c r="G34" s="10"/>
-      <c r="H34" s="722"/>
-      <c r="I34" s="860"/>
+      <c r="H34" s="783"/>
+      <c r="I34" s="848"/>
     </row>
     <row r="35" spans="1:9" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="846"/>
-      <c r="B35" s="698"/>
-      <c r="C35" s="718"/>
-      <c r="D35" s="861"/>
-      <c r="E35" s="865"/>
-      <c r="F35" s="866" t="s">
+      <c r="A35" s="863"/>
+      <c r="B35" s="697"/>
+      <c r="C35" s="729"/>
+      <c r="D35" s="858"/>
+      <c r="E35" s="871"/>
+      <c r="F35" s="872" t="s">
         <v>112</v>
       </c>
-      <c r="G35" s="867"/>
-      <c r="H35" s="855"/>
-      <c r="I35" s="856"/>
+      <c r="G35" s="873"/>
+      <c r="H35" s="849"/>
+      <c r="I35" s="850"/>
     </row>
     <row r="36" spans="1:9" ht="69.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="846"/>
-      <c r="B36" s="697" t="s">
+      <c r="A36" s="863"/>
+      <c r="B36" s="696" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="712"/>
-      <c r="D36" s="712"/>
+      <c r="C36" s="728"/>
+      <c r="D36" s="728"/>
       <c r="E36" s="340" t="s">
         <v>95</v>
       </c>
-      <c r="F36" s="728" t="s">
+      <c r="F36" s="761" t="s">
         <v>116</v>
       </c>
-      <c r="G36" s="729"/>
-      <c r="H36" s="722"/>
-      <c r="I36" s="860"/>
+      <c r="G36" s="762"/>
+      <c r="H36" s="783"/>
+      <c r="I36" s="848"/>
     </row>
     <row r="37" spans="1:9" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="846"/>
-      <c r="B37" s="868"/>
-      <c r="C37" s="718"/>
-      <c r="D37" s="718"/>
+      <c r="A37" s="863"/>
+      <c r="B37" s="874"/>
+      <c r="C37" s="729"/>
+      <c r="D37" s="729"/>
       <c r="E37" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="F37" s="730"/>
-      <c r="G37" s="731"/>
-      <c r="H37" s="855"/>
-      <c r="I37" s="856"/>
+      <c r="F37" s="763"/>
+      <c r="G37" s="764"/>
+      <c r="H37" s="849"/>
+      <c r="I37" s="850"/>
     </row>
     <row r="38" spans="1:9" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="846"/>
-      <c r="B38" s="697" t="s">
+      <c r="A38" s="863"/>
+      <c r="B38" s="696" t="s">
         <v>27</v>
       </c>
       <c r="C38" s="328"/>
@@ -14334,101 +14334,101 @@
       <c r="I38" s="348"/>
     </row>
     <row r="39" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="846"/>
-      <c r="B39" s="698"/>
+      <c r="A39" s="863"/>
+      <c r="B39" s="697"/>
       <c r="C39" s="230"/>
       <c r="D39" s="230"/>
       <c r="E39" s="36"/>
-      <c r="F39" s="757"/>
-      <c r="G39" s="758"/>
+      <c r="F39" s="765"/>
+      <c r="G39" s="766"/>
       <c r="H39" s="324"/>
       <c r="I39" s="324"/>
     </row>
     <row r="40" spans="1:9" ht="47.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="845" t="s">
+      <c r="A40" s="862" t="s">
         <v>66</v>
       </c>
-      <c r="B40" s="697" t="s">
+      <c r="B40" s="696" t="s">
         <v>23</v>
       </c>
       <c r="C40" s="610" t="s">
         <v>267</v>
       </c>
-      <c r="D40" s="849"/>
-      <c r="E40" s="721"/>
-      <c r="F40" s="850"/>
-      <c r="G40" s="851"/>
-      <c r="H40" s="850"/>
-      <c r="I40" s="854"/>
+      <c r="D40" s="876"/>
+      <c r="E40" s="754"/>
+      <c r="F40" s="877"/>
+      <c r="G40" s="878"/>
+      <c r="H40" s="877"/>
+      <c r="I40" s="855"/>
     </row>
     <row r="41" spans="1:9" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="846"/>
-      <c r="B41" s="848"/>
-      <c r="C41" s="757" t="s">
+      <c r="A41" s="863"/>
+      <c r="B41" s="847"/>
+      <c r="C41" s="765" t="s">
         <v>303</v>
       </c>
-      <c r="D41" s="758"/>
-      <c r="E41" s="593"/>
-      <c r="F41" s="852"/>
-      <c r="G41" s="853"/>
-      <c r="H41" s="855"/>
-      <c r="I41" s="856"/>
+      <c r="D41" s="766"/>
+      <c r="E41" s="555"/>
+      <c r="F41" s="879"/>
+      <c r="G41" s="880"/>
+      <c r="H41" s="849"/>
+      <c r="I41" s="850"/>
     </row>
     <row r="42" spans="1:9" ht="63.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="846"/>
-      <c r="B42" s="697" t="s">
+      <c r="A42" s="863"/>
+      <c r="B42" s="696" t="s">
         <v>24</v>
       </c>
       <c r="C42" s="270" t="s">
         <v>270</v>
       </c>
       <c r="D42" s="270"/>
-      <c r="E42" s="728" t="s">
+      <c r="E42" s="761" t="s">
         <v>95</v>
       </c>
-      <c r="F42" s="728"/>
-      <c r="G42" s="858"/>
-      <c r="H42" s="757" t="s">
+      <c r="F42" s="761"/>
+      <c r="G42" s="882"/>
+      <c r="H42" s="765" t="s">
         <v>276</v>
       </c>
-      <c r="I42" s="758"/>
+      <c r="I42" s="766"/>
     </row>
     <row r="43" spans="1:9" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="846"/>
-      <c r="B43" s="848"/>
+      <c r="A43" s="863"/>
+      <c r="B43" s="847"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="E43" s="857"/>
-      <c r="F43" s="852"/>
-      <c r="G43" s="853"/>
-      <c r="H43" s="757" t="s">
+      <c r="E43" s="881"/>
+      <c r="F43" s="879"/>
+      <c r="G43" s="880"/>
+      <c r="H43" s="765" t="s">
         <v>304</v>
       </c>
-      <c r="I43" s="758"/>
+      <c r="I43" s="766"/>
     </row>
     <row r="44" spans="1:9" ht="60" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="846"/>
+      <c r="A44" s="863"/>
       <c r="B44" s="391"/>
       <c r="C44" s="10" t="s">
         <v>270</v>
       </c>
       <c r="D44" s="10"/>
-      <c r="E44" s="654" t="s">
+      <c r="E44" s="637" t="s">
         <v>305</v>
       </c>
-      <c r="F44" s="722"/>
-      <c r="G44" s="860"/>
-      <c r="H44" s="714" t="s">
+      <c r="F44" s="783"/>
+      <c r="G44" s="848"/>
+      <c r="H44" s="748" t="s">
         <v>306</v>
       </c>
-      <c r="I44" s="714" t="s">
+      <c r="I44" s="748" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="846"/>
+      <c r="A45" s="863"/>
       <c r="B45" s="391" t="s">
         <v>25</v>
       </c>
@@ -14436,44 +14436,44 @@
       <c r="D45" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="E45" s="859"/>
-      <c r="F45" s="855"/>
-      <c r="G45" s="856"/>
-      <c r="H45" s="715"/>
-      <c r="I45" s="715"/>
+      <c r="E45" s="883"/>
+      <c r="F45" s="849"/>
+      <c r="G45" s="850"/>
+      <c r="H45" s="749"/>
+      <c r="I45" s="749"/>
     </row>
     <row r="46" spans="1:9" ht="54" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="846"/>
-      <c r="B46" s="697" t="s">
+      <c r="A46" s="863"/>
+      <c r="B46" s="696" t="s">
         <v>26</v>
       </c>
-      <c r="C46" s="714"/>
-      <c r="D46" s="714"/>
+      <c r="C46" s="748"/>
+      <c r="D46" s="748"/>
       <c r="E46" s="393" t="s">
         <v>308</v>
       </c>
-      <c r="F46" s="722"/>
-      <c r="G46" s="860"/>
-      <c r="H46" s="714" t="s">
+      <c r="F46" s="783"/>
+      <c r="G46" s="848"/>
+      <c r="H46" s="748" t="s">
         <v>307</v>
       </c>
-      <c r="I46" s="714" t="s">
+      <c r="I46" s="748" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="846"/>
-      <c r="B47" s="848"/>
-      <c r="C47" s="861"/>
-      <c r="D47" s="861"/>
+      <c r="A47" s="863"/>
+      <c r="B47" s="847"/>
+      <c r="C47" s="858"/>
+      <c r="D47" s="858"/>
       <c r="E47" s="324"/>
-      <c r="F47" s="855"/>
-      <c r="G47" s="856"/>
-      <c r="H47" s="861"/>
-      <c r="I47" s="861"/>
+      <c r="F47" s="849"/>
+      <c r="G47" s="850"/>
+      <c r="H47" s="858"/>
+      <c r="I47" s="858"/>
     </row>
     <row r="48" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="846"/>
+      <c r="A48" s="863"/>
       <c r="B48" s="323" t="s">
         <v>27</v>
       </c>
@@ -14486,7 +14486,7 @@
       <c r="I48" s="10"/>
     </row>
     <row r="49" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="847"/>
+      <c r="A49" s="875"/>
       <c r="B49" s="203" t="s">
         <v>28</v>
       </c>
@@ -14501,6 +14501,92 @@
     <row r="50" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="110">
+    <mergeCell ref="A40:A49"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:G41"/>
+    <mergeCell ref="H40:I41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:G43"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="F46:G47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="A32:A39"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="H34:I35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="F36:G37"/>
+    <mergeCell ref="H36:I37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="A14:A22"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="H18:I19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A1:I2"/>
@@ -14525,92 +14611,6 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:D10"/>
     <mergeCell ref="F9:G10"/>
-    <mergeCell ref="F11:G12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="A14:A22"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="H18:I19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="A23:A31"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A32:A39"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="H34:I35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="F36:G37"/>
-    <mergeCell ref="H36:I37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="A40:A49"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:G41"/>
-    <mergeCell ref="H40:I41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:G43"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="F46:G47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0.23622047244094491" footer="0.23622047244094491"/>
   <pageSetup paperSize="9" scale="67" orientation="landscape" r:id="rId1"/>
@@ -14643,56 +14643,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="894" t="s">
+      <c r="A1" s="890" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="895"/>
-      <c r="C1" s="895"/>
-      <c r="D1" s="895"/>
-      <c r="E1" s="895"/>
-      <c r="F1" s="895"/>
-      <c r="G1" s="895"/>
-      <c r="H1" s="895"/>
-      <c r="I1" s="895"/>
-      <c r="J1" s="895"/>
+      <c r="B1" s="891"/>
+      <c r="C1" s="891"/>
+      <c r="D1" s="891"/>
+      <c r="E1" s="891"/>
+      <c r="F1" s="891"/>
+      <c r="G1" s="891"/>
+      <c r="H1" s="891"/>
+      <c r="I1" s="891"/>
+      <c r="J1" s="891"/>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="896"/>
-      <c r="B2" s="896"/>
-      <c r="C2" s="896"/>
-      <c r="D2" s="896"/>
-      <c r="E2" s="896"/>
-      <c r="F2" s="896"/>
-      <c r="G2" s="896"/>
-      <c r="H2" s="896"/>
-      <c r="I2" s="896"/>
-      <c r="J2" s="896"/>
+      <c r="A2" s="892"/>
+      <c r="B2" s="892"/>
+      <c r="C2" s="892"/>
+      <c r="D2" s="892"/>
+      <c r="E2" s="892"/>
+      <c r="F2" s="892"/>
+      <c r="G2" s="892"/>
+      <c r="H2" s="892"/>
+      <c r="I2" s="892"/>
+      <c r="J2" s="892"/>
     </row>
     <row r="3" spans="1:10" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="18"/>
       <c r="B3" s="26"/>
-      <c r="C3" s="897" t="s">
+      <c r="C3" s="893" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="898"/>
-      <c r="E3" s="899" t="s">
+      <c r="D3" s="894"/>
+      <c r="E3" s="895" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="898"/>
-      <c r="G3" s="899" t="s">
+      <c r="F3" s="894"/>
+      <c r="G3" s="895" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="898"/>
-      <c r="I3" s="899" t="s">
+      <c r="H3" s="894"/>
+      <c r="I3" s="895" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="898"/>
+      <c r="J3" s="894"/>
     </row>
     <row r="4" spans="1:10" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="892" t="s">
+      <c r="A4" s="897" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="893"/>
+      <c r="B4" s="898"/>
       <c r="C4" s="32">
         <v>1</v>
       </c>
@@ -14719,7 +14719,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="740" t="s">
+      <c r="A5" s="712" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="22" t="s">
@@ -14735,8 +14735,8 @@
       <c r="J5" s="99"/>
     </row>
     <row r="6" spans="1:10" s="12" customFormat="1" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="741"/>
-      <c r="B6" s="636" t="s">
+      <c r="A6" s="713"/>
+      <c r="B6" s="615" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="287" t="s">
@@ -14753,8 +14753,8 @@
       <c r="J6" s="101"/>
     </row>
     <row r="7" spans="1:10" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="741"/>
-      <c r="B7" s="637"/>
+      <c r="A7" s="713"/>
+      <c r="B7" s="616"/>
       <c r="C7" s="287"/>
       <c r="D7" s="287"/>
       <c r="E7" s="286"/>
@@ -14765,8 +14765,8 @@
       <c r="J7" s="100"/>
     </row>
     <row r="8" spans="1:10" s="45" customFormat="1" ht="36.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="741"/>
-      <c r="B8" s="636" t="s">
+      <c r="A8" s="713"/>
+      <c r="B8" s="615" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="292"/>
@@ -14779,8 +14779,8 @@
       <c r="J8" s="101"/>
     </row>
     <row r="9" spans="1:10" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="741"/>
-      <c r="B9" s="659"/>
+      <c r="A9" s="713"/>
+      <c r="B9" s="653"/>
       <c r="C9" s="286"/>
       <c r="D9" s="292"/>
       <c r="E9" s="286"/>
@@ -14791,7 +14791,7 @@
       <c r="J9" s="99"/>
     </row>
     <row r="10" spans="1:10" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="741"/>
+      <c r="A10" s="713"/>
       <c r="B10" s="43" t="s">
         <v>26</v>
       </c>
@@ -14805,134 +14805,134 @@
       <c r="J10" s="99"/>
     </row>
     <row r="11" spans="1:10" s="45" customFormat="1" ht="53.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="740" t="s">
+      <c r="A11" s="712" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="636" t="s">
+      <c r="B11" s="615" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="887"/>
-      <c r="D11" s="887"/>
-      <c r="E11" s="887" t="s">
+      <c r="C11" s="896"/>
+      <c r="D11" s="896"/>
+      <c r="E11" s="896" t="s">
         <v>122</v>
       </c>
-      <c r="F11" s="887" t="s">
+      <c r="F11" s="896" t="s">
         <v>123</v>
       </c>
-      <c r="G11" s="887"/>
-      <c r="H11" s="887"/>
-      <c r="I11" s="887"/>
-      <c r="J11" s="887"/>
+      <c r="G11" s="896"/>
+      <c r="H11" s="896"/>
+      <c r="I11" s="896"/>
+      <c r="J11" s="896"/>
     </row>
     <row r="12" spans="1:10" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="741"/>
-      <c r="B12" s="637"/>
-      <c r="C12" s="885"/>
-      <c r="D12" s="885"/>
-      <c r="E12" s="885"/>
-      <c r="F12" s="885"/>
-      <c r="G12" s="885"/>
-      <c r="H12" s="885"/>
-      <c r="I12" s="885"/>
-      <c r="J12" s="885"/>
+      <c r="A12" s="713"/>
+      <c r="B12" s="616"/>
+      <c r="C12" s="889"/>
+      <c r="D12" s="889"/>
+      <c r="E12" s="889"/>
+      <c r="F12" s="889"/>
+      <c r="G12" s="889"/>
+      <c r="H12" s="889"/>
+      <c r="I12" s="889"/>
+      <c r="J12" s="889"/>
     </row>
     <row r="13" spans="1:10" s="12" customFormat="1" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="741"/>
-      <c r="B13" s="636" t="s">
+      <c r="A13" s="713"/>
+      <c r="B13" s="615" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="884"/>
-      <c r="D13" s="884"/>
-      <c r="E13" s="884" t="s">
+      <c r="C13" s="888"/>
+      <c r="D13" s="888"/>
+      <c r="E13" s="888" t="s">
         <v>124</v>
       </c>
-      <c r="F13" s="884" t="s">
+      <c r="F13" s="888" t="s">
         <v>125</v>
       </c>
-      <c r="G13" s="884"/>
-      <c r="H13" s="884"/>
-      <c r="I13" s="884"/>
-      <c r="J13" s="884"/>
+      <c r="G13" s="888"/>
+      <c r="H13" s="888"/>
+      <c r="I13" s="888"/>
+      <c r="J13" s="888"/>
     </row>
     <row r="14" spans="1:10" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="741"/>
-      <c r="B14" s="637"/>
-      <c r="C14" s="885"/>
-      <c r="D14" s="885"/>
-      <c r="E14" s="886"/>
-      <c r="F14" s="886"/>
-      <c r="G14" s="885"/>
-      <c r="H14" s="885"/>
-      <c r="I14" s="885"/>
-      <c r="J14" s="885"/>
+      <c r="A14" s="713"/>
+      <c r="B14" s="616"/>
+      <c r="C14" s="889"/>
+      <c r="D14" s="889"/>
+      <c r="E14" s="901"/>
+      <c r="F14" s="901"/>
+      <c r="G14" s="889"/>
+      <c r="H14" s="889"/>
+      <c r="I14" s="889"/>
+      <c r="J14" s="889"/>
     </row>
     <row r="15" spans="1:10" s="45" customFormat="1" ht="62.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="741"/>
-      <c r="B15" s="636" t="s">
+      <c r="A15" s="713"/>
+      <c r="B15" s="615" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="558" t="s">
+      <c r="C15" s="570" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="558" t="s">
+      <c r="D15" s="570" t="s">
         <v>108</v>
       </c>
       <c r="E15" s="612" t="s">
         <v>126</v>
       </c>
       <c r="F15" s="613"/>
-      <c r="G15" s="884"/>
-      <c r="H15" s="884"/>
-      <c r="I15" s="884"/>
-      <c r="J15" s="884"/>
+      <c r="G15" s="888"/>
+      <c r="H15" s="888"/>
+      <c r="I15" s="888"/>
+      <c r="J15" s="888"/>
     </row>
     <row r="16" spans="1:10" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="741"/>
-      <c r="B16" s="637"/>
-      <c r="C16" s="559"/>
-      <c r="D16" s="559"/>
+      <c r="A16" s="713"/>
+      <c r="B16" s="616"/>
+      <c r="C16" s="571"/>
+      <c r="D16" s="571"/>
       <c r="E16" s="612" t="s">
         <v>127</v>
       </c>
       <c r="F16" s="613"/>
-      <c r="G16" s="885"/>
-      <c r="H16" s="885"/>
-      <c r="I16" s="885"/>
-      <c r="J16" s="885"/>
+      <c r="G16" s="889"/>
+      <c r="H16" s="889"/>
+      <c r="I16" s="889"/>
+      <c r="J16" s="889"/>
     </row>
     <row r="17" spans="1:11" s="45" customFormat="1" ht="39" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="741"/>
-      <c r="B17" s="636" t="s">
+      <c r="A17" s="713"/>
+      <c r="B17" s="615" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="558" t="s">
+      <c r="C17" s="570" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="558" t="s">
+      <c r="D17" s="570" t="s">
         <v>108</v>
       </c>
-      <c r="E17" s="884"/>
-      <c r="F17" s="884"/>
-      <c r="G17" s="884"/>
-      <c r="H17" s="884"/>
-      <c r="I17" s="884"/>
-      <c r="J17" s="884"/>
+      <c r="E17" s="888"/>
+      <c r="F17" s="888"/>
+      <c r="G17" s="888"/>
+      <c r="H17" s="888"/>
+      <c r="I17" s="888"/>
+      <c r="J17" s="888"/>
     </row>
     <row r="18" spans="1:11" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="741"/>
-      <c r="B18" s="637"/>
-      <c r="C18" s="559"/>
-      <c r="D18" s="559"/>
-      <c r="E18" s="885"/>
-      <c r="F18" s="885"/>
-      <c r="G18" s="885"/>
-      <c r="H18" s="885"/>
-      <c r="I18" s="885"/>
-      <c r="J18" s="885"/>
+      <c r="A18" s="713"/>
+      <c r="B18" s="616"/>
+      <c r="C18" s="571"/>
+      <c r="D18" s="571"/>
+      <c r="E18" s="889"/>
+      <c r="F18" s="889"/>
+      <c r="G18" s="889"/>
+      <c r="H18" s="889"/>
+      <c r="I18" s="889"/>
+      <c r="J18" s="889"/>
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="741"/>
+      <c r="A19" s="713"/>
       <c r="B19" s="23" t="s">
         <v>27</v>
       </c>
@@ -14948,7 +14948,7 @@
       <c r="J19" s="99"/>
     </row>
     <row r="20" spans="1:11" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="741"/>
+      <c r="A20" s="713"/>
       <c r="B20" s="24" t="s">
         <v>28</v>
       </c>
@@ -14962,7 +14962,7 @@
       <c r="J20" s="99"/>
     </row>
     <row r="21" spans="1:11" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="740" t="s">
+      <c r="A21" s="712" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="22" t="s">
@@ -14978,23 +14978,23 @@
       <c r="J21" s="104"/>
     </row>
     <row r="22" spans="1:11" ht="63.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="741"/>
+      <c r="A22" s="713"/>
       <c r="B22" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="107"/>
       <c r="D22" s="108"/>
-      <c r="E22" s="585" t="s">
+      <c r="E22" s="558" t="s">
         <v>154</v>
       </c>
-      <c r="F22" s="587"/>
+      <c r="F22" s="560"/>
       <c r="G22" s="285"/>
       <c r="H22" s="108"/>
       <c r="I22" s="285"/>
       <c r="J22" s="108"/>
     </row>
     <row r="23" spans="1:11" s="45" customFormat="1" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="741"/>
+      <c r="A23" s="713"/>
       <c r="B23" s="69" t="s">
         <v>25</v>
       </c>
@@ -15012,7 +15012,7 @@
       <c r="J23" s="108"/>
     </row>
     <row r="24" spans="1:11" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="741"/>
+      <c r="A24" s="713"/>
       <c r="B24" s="44" t="s">
         <v>26</v>
       </c>
@@ -15030,61 +15030,61 @@
       <c r="J24" s="108"/>
     </row>
     <row r="25" spans="1:11" s="12" customFormat="1" ht="41.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="741"/>
-      <c r="B25" s="891" t="s">
+      <c r="A25" s="713"/>
+      <c r="B25" s="899" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="558"/>
-      <c r="D25" s="558"/>
-      <c r="E25" s="558"/>
-      <c r="F25" s="884"/>
-      <c r="G25" s="558"/>
-      <c r="H25" s="558"/>
-      <c r="I25" s="558"/>
-      <c r="J25" s="558"/>
+      <c r="C25" s="570"/>
+      <c r="D25" s="570"/>
+      <c r="E25" s="570"/>
+      <c r="F25" s="888"/>
+      <c r="G25" s="570"/>
+      <c r="H25" s="570"/>
+      <c r="I25" s="570"/>
+      <c r="J25" s="570"/>
     </row>
     <row r="26" spans="1:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="741"/>
-      <c r="B26" s="637"/>
-      <c r="C26" s="564"/>
-      <c r="D26" s="564"/>
-      <c r="E26" s="803"/>
-      <c r="F26" s="888"/>
-      <c r="G26" s="564"/>
-      <c r="H26" s="564"/>
-      <c r="I26" s="564"/>
-      <c r="J26" s="564"/>
+      <c r="A26" s="713"/>
+      <c r="B26" s="616"/>
+      <c r="C26" s="590"/>
+      <c r="D26" s="590"/>
+      <c r="E26" s="842"/>
+      <c r="F26" s="900"/>
+      <c r="G26" s="590"/>
+      <c r="H26" s="590"/>
+      <c r="I26" s="590"/>
+      <c r="J26" s="590"/>
     </row>
     <row r="27" spans="1:11" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="740" t="s">
+      <c r="A27" s="712" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="636" t="s">
+      <c r="B27" s="615" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="889"/>
-      <c r="D27" s="889"/>
-      <c r="E27" s="889"/>
-      <c r="F27" s="889"/>
-      <c r="G27" s="889"/>
-      <c r="H27" s="889"/>
-      <c r="I27" s="889"/>
-      <c r="J27" s="889"/>
+      <c r="C27" s="885"/>
+      <c r="D27" s="885"/>
+      <c r="E27" s="885"/>
+      <c r="F27" s="885"/>
+      <c r="G27" s="885"/>
+      <c r="H27" s="885"/>
+      <c r="I27" s="885"/>
+      <c r="J27" s="885"/>
     </row>
     <row r="28" spans="1:11" s="45" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="741"/>
-      <c r="B28" s="637"/>
-      <c r="C28" s="890"/>
-      <c r="D28" s="890"/>
-      <c r="E28" s="890"/>
-      <c r="F28" s="890"/>
-      <c r="G28" s="890"/>
-      <c r="H28" s="890"/>
-      <c r="I28" s="890"/>
-      <c r="J28" s="890"/>
+      <c r="A28" s="713"/>
+      <c r="B28" s="616"/>
+      <c r="C28" s="886"/>
+      <c r="D28" s="886"/>
+      <c r="E28" s="886"/>
+      <c r="F28" s="886"/>
+      <c r="G28" s="886"/>
+      <c r="H28" s="886"/>
+      <c r="I28" s="886"/>
+      <c r="J28" s="886"/>
     </row>
     <row r="29" spans="1:11" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="741"/>
+      <c r="A29" s="713"/>
       <c r="B29" s="23" t="s">
         <v>24</v>
       </c>
@@ -15098,8 +15098,8 @@
       <c r="J29" s="99"/>
     </row>
     <row r="30" spans="1:11" s="185" customFormat="1" ht="48.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="741"/>
-      <c r="B30" s="636" t="s">
+      <c r="A30" s="713"/>
+      <c r="B30" s="615" t="s">
         <v>25</v>
       </c>
       <c r="C30" s="281"/>
@@ -15112,54 +15112,54 @@
       <c r="J30" s="99"/>
     </row>
     <row r="31" spans="1:11" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="741"/>
-      <c r="B31" s="637"/>
+      <c r="A31" s="713"/>
+      <c r="B31" s="616"/>
       <c r="C31" s="212"/>
       <c r="D31" s="212"/>
       <c r="E31" s="212"/>
       <c r="F31" s="212"/>
-      <c r="G31" s="762" t="s">
+      <c r="G31" s="772" t="s">
         <v>112</v>
       </c>
-      <c r="H31" s="763"/>
+      <c r="H31" s="773"/>
       <c r="I31" s="212"/>
       <c r="J31" s="212"/>
     </row>
     <row r="32" spans="1:11" s="45" customFormat="1" ht="52.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="741"/>
-      <c r="B32" s="636" t="s">
+      <c r="A32" s="713"/>
+      <c r="B32" s="615" t="s">
         <v>26</v>
       </c>
       <c r="C32" s="103"/>
       <c r="D32" s="103"/>
       <c r="E32" s="103"/>
       <c r="F32" s="103"/>
-      <c r="G32" s="809" t="s">
+      <c r="G32" s="834" t="s">
         <v>116</v>
       </c>
-      <c r="H32" s="810"/>
+      <c r="H32" s="835"/>
       <c r="I32" s="287"/>
       <c r="J32" s="99"/>
     </row>
     <row r="33" spans="1:10" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="741"/>
-      <c r="B33" s="637"/>
-      <c r="C33" s="767" t="s">
+      <c r="A33" s="713"/>
+      <c r="B33" s="616"/>
+      <c r="C33" s="755" t="s">
         <v>95</v>
       </c>
-      <c r="D33" s="768"/>
+      <c r="D33" s="756"/>
       <c r="E33" s="531" t="s">
         <v>114</v>
       </c>
       <c r="F33" s="533"/>
-      <c r="G33" s="811"/>
-      <c r="H33" s="812"/>
+      <c r="G33" s="836"/>
+      <c r="H33" s="837"/>
       <c r="I33" s="212"/>
       <c r="J33" s="212"/>
     </row>
     <row r="34" spans="1:10" s="185" customFormat="1" ht="65.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="741"/>
-      <c r="B34" s="636" t="s">
+      <c r="A34" s="713"/>
+      <c r="B34" s="615" t="s">
         <v>27</v>
       </c>
       <c r="C34" s="275"/>
@@ -15172,56 +15172,56 @@
       <c r="J34" s="222"/>
     </row>
     <row r="35" spans="1:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="741"/>
-      <c r="B35" s="637"/>
+      <c r="A35" s="713"/>
+      <c r="B35" s="616"/>
       <c r="C35" s="106"/>
       <c r="D35" s="106"/>
-      <c r="E35" s="767" t="s">
+      <c r="E35" s="755" t="s">
         <v>115</v>
       </c>
-      <c r="F35" s="768"/>
+      <c r="F35" s="756"/>
       <c r="G35" s="106"/>
       <c r="H35" s="106"/>
       <c r="I35" s="106"/>
       <c r="J35" s="106"/>
     </row>
     <row r="36" spans="1:10" ht="40.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="740" t="s">
+      <c r="A36" s="712" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="636" t="s">
+      <c r="B36" s="615" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="901"/>
-      <c r="D36" s="887"/>
-      <c r="E36" s="889"/>
-      <c r="F36" s="900"/>
-      <c r="G36" s="889"/>
-      <c r="H36" s="900"/>
-      <c r="I36" s="889"/>
-      <c r="J36" s="900"/>
+      <c r="C36" s="884"/>
+      <c r="D36" s="896"/>
+      <c r="E36" s="885"/>
+      <c r="F36" s="887"/>
+      <c r="G36" s="885"/>
+      <c r="H36" s="887"/>
+      <c r="I36" s="885"/>
+      <c r="J36" s="887"/>
     </row>
     <row r="37" spans="1:10" s="45" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="741"/>
-      <c r="B37" s="637"/>
-      <c r="C37" s="546"/>
-      <c r="D37" s="885"/>
-      <c r="E37" s="890"/>
-      <c r="F37" s="559"/>
-      <c r="G37" s="890"/>
-      <c r="H37" s="559"/>
-      <c r="I37" s="890"/>
-      <c r="J37" s="559"/>
+      <c r="A37" s="713"/>
+      <c r="B37" s="616"/>
+      <c r="C37" s="573"/>
+      <c r="D37" s="889"/>
+      <c r="E37" s="886"/>
+      <c r="F37" s="571"/>
+      <c r="G37" s="886"/>
+      <c r="H37" s="571"/>
+      <c r="I37" s="886"/>
+      <c r="J37" s="571"/>
     </row>
     <row r="38" spans="1:10" ht="42.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="741"/>
+      <c r="A38" s="713"/>
       <c r="B38" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="791" t="s">
+      <c r="C38" s="789" t="s">
         <v>113</v>
       </c>
-      <c r="D38" s="793"/>
+      <c r="D38" s="791"/>
       <c r="E38" s="110"/>
       <c r="F38" s="111"/>
       <c r="G38" s="291"/>
@@ -15230,14 +15230,14 @@
       <c r="J38" s="290"/>
     </row>
     <row r="39" spans="1:10" ht="63" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="741"/>
+      <c r="A39" s="713"/>
       <c r="B39" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="767" t="s">
+      <c r="C39" s="755" t="s">
         <v>95</v>
       </c>
-      <c r="D39" s="768"/>
+      <c r="D39" s="756"/>
       <c r="E39" s="112"/>
       <c r="F39" s="113"/>
       <c r="G39" s="112"/>
@@ -15246,7 +15246,7 @@
       <c r="J39" s="289"/>
     </row>
     <row r="40" spans="1:10" ht="15" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="741"/>
+      <c r="A40" s="713"/>
       <c r="B40" s="24"/>
       <c r="C40" s="15"/>
       <c r="D40" s="14"/>
@@ -15258,7 +15258,7 @@
       <c r="J40" s="93"/>
     </row>
     <row r="41" spans="1:10" ht="51" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="742"/>
+      <c r="A41" s="774"/>
       <c r="B41" s="72" t="s">
         <v>26</v>
       </c>
@@ -15279,14 +15279,69 @@
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G32:H33"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A11:A20"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="A27:A35"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="J36:J37"/>
@@ -15303,69 +15358,14 @@
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="J25:J26"/>
     <mergeCell ref="G25:G26"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="A27:A35"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="A36:A41"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A11:A20"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G32:H33"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.31496062992125984" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>

--- a/Rozklad.xlsx
+++ b/Rozklad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Scheduler\bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522E2ED7-0267-4AAD-8D86-DDE7DEBB77A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00623AD9-F43A-4C7A-A8B5-8B86ECB8AA80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2388" yWindow="276" windowWidth="17280" windowHeight="12036" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1548,7 +1548,7 @@
     <t>Лекція  Зоологія доц\. Матушкіна Н\.О\. \(1\-8 н\.т\), доц\. Трохимець В\.М\. \(9\-17 н\.т\) ](https://zoom.us/j/7108562285?pwd=S3l5NHFQeEJrL251NUQwc1ZTcTU4QT09)</t>
   </si>
   <si>
-    <t>лаб\. заняття Ботаніка доц\. Войцехівська О\.В\.](https://us02web.zoom.us/j/8648151348?pwd=bXlleDMrZkY3VFVIbFM3cG5tblNVZz09)</t>
+    <t>лаб\. заняття Ботаніка доц\. Войцехівська О\.В\.](?)</t>
   </si>
 </sst>
 </file>
@@ -5801,8 +5801,8 @@
   </sheetPr>
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F15" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="F24" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Rozklad.xlsx
+++ b/Rozklad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Scheduler\bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00623AD9-F43A-4C7A-A8B5-8B86ECB8AA80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740CE433-37D1-44BA-AB66-814D369EA092}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2388" yWindow="276" windowWidth="17280" windowHeight="12036" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1542,10 +1542,10 @@
     <t>Біоорганічна хімія проф\. Остапченко Л\.І\., доц\. Синельник Т\.Б\.](https://meet.google.com/faj-exis-aqz)</t>
   </si>
   <si>
-    <t>Лекція  Ботаніка доц\. Панюта О\.О\. \(14 год\),  доц\. Тищенко О\.В\.\(6 год\),  доц\. Баданіна В\.А\. \(8 год\)](https://zoom.us/j/9058406032?pwd=L1RLZVpqRytSZHdYLzcvcFFBV3VKUT09)</t>
-  </si>
-  <si>
     <t>Лекція  Зоологія доц\. Матушкіна Н\.О\. \(1\-8 н\.т\), доц\. Трохимець В\.М\. \(9\-17 н\.т\) ](https://zoom.us/j/7108562285?pwd=S3l5NHFQeEJrL251NUQwc1ZTcTU4QT09)</t>
+  </si>
+  <si>
+    <t>Лекція  Ботаніка доц\. Панюта О\.О\. \(14 год\),  доц\. Тищенко О\.В\.\(6 год\),  доц\. Баданіна В\.А\. \(8 год\)](https://us02web.zoom.us/j/8648151348?pwd=bXlleDMrZkY3VFVIbFM3cG5tblNVZz09)</t>
   </si>
   <si>
     <t>лаб\. заняття Ботаніка доц\. Войцехівська О\.В\.](?)</t>
@@ -5801,8 +5801,8 @@
   </sheetPr>
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F24" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="F12" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6357,7 +6357,7 @@
       </c>
       <c r="L17" s="493"/>
       <c r="M17" s="493" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N17" s="493" t="s">
         <v>234</v>
@@ -6387,7 +6387,7 @@
       </c>
       <c r="L18" s="490"/>
       <c r="M18" s="490" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N18" s="490" t="s">
         <v>40</v>
